--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mata Kuliah dan Praktikum\Semester 7\Asisten\NilaiWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39870E-B2A9-4344-924D-43E0E461E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FC08A-EEF5-4248-96AE-D5F8F0313CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRAK TD" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1069,6 +1069,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1138,7 +1146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1262,11 +1270,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,7 +1506,13 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1498,13 +1527,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,7 +1836,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1826,19 +1852,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1946,10 +1972,10 @@
       <c r="AN1" s="79" t="s">
         <v>299</v>
       </c>
-      <c r="AO1" s="87" t="s">
+      <c r="AO1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="87" t="s">
+      <c r="AP1" s="80" t="s">
         <v>6</v>
       </c>
       <c r="AQ1" s="1"/>
@@ -2100,11 +2126,11 @@
       <c r="AS2" s="8"/>
       <c r="AT2" s="8"/>
     </row>
-    <row r="3" spans="1:46" ht="15.75" customHeight="1">
+    <row r="3" spans="1:46" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="89">
+      <c r="B3" s="82">
         <v>1192002</v>
       </c>
       <c r="C3" s="10">
@@ -2237,11 +2263,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15.75" customHeight="1">
+    <row r="4" spans="1:46" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="90">
+        <v>1292022</v>
+      </c>
       <c r="C4" s="19">
         <v>3332230042</v>
       </c>
@@ -2372,11 +2400,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15.75" customHeight="1">
+    <row r="5" spans="1:46" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="90">
+        <v>1121991</v>
+      </c>
       <c r="C5" s="19">
         <v>3332230045</v>
       </c>
@@ -2511,7 +2541,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="21">
         <v>3332230048</v>
       </c>
@@ -2646,7 +2676,7 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="21">
         <v>3332230050</v>
       </c>
@@ -2781,7 +2811,7 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="21">
         <v>3332230052</v>
       </c>
@@ -2916,7 +2946,7 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="19">
         <v>3332230057</v>
       </c>
@@ -3051,7 +3081,7 @@
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="88"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="19">
         <v>3332230059</v>
       </c>
@@ -3186,7 +3216,7 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="19">
         <v>3332230072</v>
       </c>
@@ -3321,7 +3351,7 @@
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="88"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="21">
         <v>3332230079</v>
       </c>
@@ -3456,7 +3486,7 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="21">
         <v>3332230080</v>
       </c>
@@ -3591,7 +3621,7 @@
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="88"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="21">
         <v>3332230077</v>
       </c>
@@ -3721,10 +3751,10 @@
       <c r="AP14" s="18">
         <v>5</v>
       </c>
-      <c r="AQ14" s="86" t="s">
+      <c r="AQ14" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AR14" s="80"/>
+      <c r="AR14" s="89"/>
       <c r="AS14" s="25" t="s">
         <v>7</v>
       </c>
@@ -3733,7 +3763,7 @@
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="19">
         <v>3332230041</v>
       </c>
@@ -3878,7 +3908,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="19">
         <v>3332230043</v>
       </c>
@@ -4023,7 +4053,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="88"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="19">
         <v>3332230046</v>
       </c>
@@ -4168,7 +4198,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="88"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="21">
         <v>3332230047</v>
       </c>
@@ -4313,7 +4343,7 @@
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="88"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="21">
         <v>3332230051</v>
       </c>
@@ -4458,7 +4488,7 @@
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="88"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="21">
         <v>3332230053</v>
       </c>
@@ -4603,7 +4633,7 @@
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="88"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="19">
         <v>3332230060</v>
       </c>
@@ -4751,7 +4781,7 @@
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="88"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="19">
         <v>3332230061</v>
       </c>
@@ -4898,7 +4928,7 @@
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="88"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="19">
         <v>3332230063</v>
       </c>
@@ -5045,7 +5075,7 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="88"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="21">
         <v>3332230066</v>
       </c>
@@ -5177,10 +5207,10 @@
       <c r="AP24" s="18">
         <v>5</v>
       </c>
-      <c r="AQ24" s="81" t="s">
+      <c r="AQ24" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AR24" s="82"/>
+      <c r="AR24" s="84"/>
       <c r="AS24" s="27">
         <f ca="1">SUM(AS15:AS23)</f>
         <v>115</v>
@@ -5190,7 +5220,7 @@
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="88"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="21">
         <v>3332230070</v>
       </c>
@@ -5327,7 +5357,7 @@
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="88"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="21">
         <v>3332230073</v>
       </c>
@@ -5464,7 +5494,7 @@
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="88"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="19">
         <v>3332230074</v>
       </c>
@@ -5601,7 +5631,7 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="19">
         <v>3332230056</v>
       </c>
@@ -5738,7 +5768,7 @@
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="88"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="19">
         <v>3332230082</v>
       </c>
@@ -5875,7 +5905,7 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="88"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="21">
         <v>3332230091</v>
       </c>
@@ -6012,7 +6042,7 @@
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="88"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="21">
         <v>3332230113</v>
       </c>
@@ -6149,7 +6179,7 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="88"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="21">
         <v>3332230001</v>
       </c>
@@ -6286,7 +6316,7 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="88"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="19">
         <v>3332230002</v>
       </c>
@@ -6423,7 +6453,7 @@
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="88"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="19">
         <v>3332230003</v>
       </c>
@@ -6560,7 +6590,7 @@
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="19">
         <v>3332230004</v>
       </c>
@@ -6697,7 +6727,7 @@
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="21">
         <v>3332230005</v>
       </c>
@@ -6834,7 +6864,7 @@
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="88"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="21">
         <v>3332230006</v>
       </c>
@@ -6971,7 +7001,7 @@
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="88"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="21">
         <v>3332230007</v>
       </c>
@@ -7108,7 +7138,7 @@
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="88"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="19">
         <v>3332230009</v>
       </c>
@@ -7245,7 +7275,7 @@
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="88"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="19">
         <v>3332230010</v>
       </c>
@@ -7382,7 +7412,7 @@
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="88"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="19">
         <v>3332230011</v>
       </c>
@@ -7519,7 +7549,7 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="88"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="21">
         <v>3332230012</v>
       </c>
@@ -7656,7 +7686,7 @@
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="88"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="21">
         <v>3332230013</v>
       </c>
@@ -7793,7 +7823,7 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="88"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="21">
         <v>3332230014</v>
       </c>
@@ -7930,7 +7960,7 @@
       <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="88"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="19">
         <v>3332230015</v>
       </c>
@@ -8067,7 +8097,7 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="88"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="19">
         <v>3332230017</v>
       </c>
@@ -8204,7 +8234,7 @@
       <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" s="88"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="19">
         <v>3332230019</v>
       </c>
@@ -8341,7 +8371,7 @@
       <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="88"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="21">
         <v>3332230020</v>
       </c>
@@ -8478,7 +8508,7 @@
       <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="88"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="21">
         <v>3332230024</v>
       </c>
@@ -8615,7 +8645,7 @@
       <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="88"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="21">
         <v>3332230026</v>
       </c>
@@ -8752,7 +8782,7 @@
       <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" s="88"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="19">
         <v>3332230027</v>
       </c>
@@ -8889,7 +8919,7 @@
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="88"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="19">
         <v>3332230028</v>
       </c>
@@ -9026,7 +9056,7 @@
       <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" s="88"/>
+      <c r="B53" s="81"/>
       <c r="C53" s="19">
         <v>3332230029</v>
       </c>
@@ -9163,7 +9193,7 @@
       <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="88"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="21">
         <v>3332230030</v>
       </c>
@@ -9300,7 +9330,7 @@
       <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" s="88"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="21">
         <v>3332230031</v>
       </c>
@@ -9437,7 +9467,7 @@
       <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="88"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="21">
         <v>3332230032</v>
       </c>
@@ -9574,7 +9604,7 @@
       <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" s="88"/>
+      <c r="B57" s="81"/>
       <c r="C57" s="19">
         <v>3332230033</v>
       </c>
@@ -9711,7 +9741,7 @@
       <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="88"/>
+      <c r="B58" s="81"/>
       <c r="C58" s="19">
         <v>3332230034</v>
       </c>
@@ -9848,7 +9878,7 @@
       <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="B59" s="88"/>
+      <c r="B59" s="81"/>
       <c r="C59" s="19">
         <v>3332230035</v>
       </c>
@@ -9985,7 +10015,7 @@
       <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" s="88"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="21">
         <v>3332230037</v>
       </c>
@@ -10122,7 +10152,7 @@
       <c r="A61" s="9">
         <v>59</v>
       </c>
-      <c r="B61" s="88"/>
+      <c r="B61" s="81"/>
       <c r="C61" s="21">
         <v>3332230039</v>
       </c>
@@ -10259,7 +10289,7 @@
       <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" s="88"/>
+      <c r="B62" s="81"/>
       <c r="C62" s="21">
         <v>3332230025</v>
       </c>
@@ -10396,7 +10426,7 @@
       <c r="A63" s="9">
         <v>61</v>
       </c>
-      <c r="B63" s="88"/>
+      <c r="B63" s="81"/>
       <c r="C63" s="19">
         <v>3332230124</v>
       </c>
@@ -10533,7 +10563,7 @@
       <c r="A64" s="9">
         <v>62</v>
       </c>
-      <c r="B64" s="88"/>
+      <c r="B64" s="81"/>
       <c r="C64" s="19">
         <v>3332230137</v>
       </c>
@@ -10670,7 +10700,7 @@
       <c r="A65" s="9">
         <v>63</v>
       </c>
-      <c r="B65" s="88"/>
+      <c r="B65" s="81"/>
       <c r="C65" s="19">
         <v>3332230127</v>
       </c>
@@ -10807,7 +10837,7 @@
       <c r="A66" s="9">
         <v>64</v>
       </c>
-      <c r="B66" s="88"/>
+      <c r="B66" s="81"/>
       <c r="C66" s="21">
         <v>3332230125</v>
       </c>
@@ -10944,7 +10974,7 @@
       <c r="A67" s="9">
         <v>65</v>
       </c>
-      <c r="B67" s="88"/>
+      <c r="B67" s="81"/>
       <c r="C67" s="21">
         <v>3332230126</v>
       </c>
@@ -11081,7 +11111,7 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="88"/>
+      <c r="B68" s="81"/>
       <c r="C68" s="21">
         <v>3332230128</v>
       </c>
@@ -11218,7 +11248,7 @@
       <c r="A69" s="9">
         <v>67</v>
       </c>
-      <c r="B69" s="88"/>
+      <c r="B69" s="81"/>
       <c r="C69" s="19">
         <v>3332230129</v>
       </c>
@@ -11359,7 +11389,7 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="88"/>
+      <c r="B70" s="81"/>
       <c r="C70" s="19">
         <v>3332230130</v>
       </c>
@@ -11496,7 +11526,7 @@
       <c r="A71" s="9">
         <v>69</v>
       </c>
-      <c r="B71" s="88"/>
+      <c r="B71" s="81"/>
       <c r="C71" s="19">
         <v>3332230133</v>
       </c>
@@ -11633,7 +11663,7 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="88"/>
+      <c r="B72" s="81"/>
       <c r="C72" s="21">
         <v>3332230134</v>
       </c>
@@ -11770,7 +11800,7 @@
       <c r="A73" s="9">
         <v>71</v>
       </c>
-      <c r="B73" s="88"/>
+      <c r="B73" s="81"/>
       <c r="C73" s="21">
         <v>3332230081</v>
       </c>
@@ -11907,7 +11937,7 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="88"/>
+      <c r="B74" s="81"/>
       <c r="C74" s="21">
         <v>3332230083</v>
       </c>
@@ -12044,7 +12074,7 @@
       <c r="A75" s="9">
         <v>73</v>
       </c>
-      <c r="B75" s="88"/>
+      <c r="B75" s="81"/>
       <c r="C75" s="19">
         <v>3332230084</v>
       </c>
@@ -12181,7 +12211,7 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="88"/>
+      <c r="B76" s="81"/>
       <c r="C76" s="19">
         <v>3332230086</v>
       </c>
@@ -12318,7 +12348,7 @@
       <c r="A77" s="9">
         <v>75</v>
       </c>
-      <c r="B77" s="88"/>
+      <c r="B77" s="81"/>
       <c r="C77" s="19">
         <v>3332230087</v>
       </c>
@@ -12455,7 +12485,7 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="88"/>
+      <c r="B78" s="81"/>
       <c r="C78" s="21">
         <v>3332230088</v>
       </c>
@@ -12592,7 +12622,7 @@
       <c r="A79" s="9">
         <v>77</v>
       </c>
-      <c r="B79" s="88"/>
+      <c r="B79" s="81"/>
       <c r="C79" s="21">
         <v>3332230089</v>
       </c>
@@ -12729,7 +12759,7 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="88"/>
+      <c r="B80" s="81"/>
       <c r="C80" s="21">
         <v>3332230090</v>
       </c>
@@ -12866,7 +12896,7 @@
       <c r="A81" s="9">
         <v>79</v>
       </c>
-      <c r="B81" s="88"/>
+      <c r="B81" s="81"/>
       <c r="C81" s="19">
         <v>3332230092</v>
       </c>
@@ -13003,7 +13033,7 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="88"/>
+      <c r="B82" s="81"/>
       <c r="C82" s="19">
         <v>3332230093</v>
       </c>
@@ -13140,7 +13170,7 @@
       <c r="A83" s="9">
         <v>81</v>
       </c>
-      <c r="B83" s="88"/>
+      <c r="B83" s="81"/>
       <c r="C83" s="19">
         <v>3332230094</v>
       </c>
@@ -13277,7 +13307,7 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="88"/>
+      <c r="B84" s="81"/>
       <c r="C84" s="21">
         <v>3332230095</v>
       </c>
@@ -13414,7 +13444,7 @@
       <c r="A85" s="9">
         <v>83</v>
       </c>
-      <c r="B85" s="88"/>
+      <c r="B85" s="81"/>
       <c r="C85" s="21">
         <v>3332230096</v>
       </c>
@@ -13551,7 +13581,7 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="88"/>
+      <c r="B86" s="81"/>
       <c r="C86" s="21">
         <v>3332230097</v>
       </c>
@@ -13688,7 +13718,7 @@
       <c r="A87" s="9">
         <v>85</v>
       </c>
-      <c r="B87" s="88"/>
+      <c r="B87" s="81"/>
       <c r="C87" s="19">
         <v>3332230098</v>
       </c>
@@ -13829,7 +13859,7 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="88"/>
+      <c r="B88" s="81"/>
       <c r="C88" s="19">
         <v>3332230099</v>
       </c>
@@ -13970,7 +14000,7 @@
       <c r="A89" s="9">
         <v>87</v>
       </c>
-      <c r="B89" s="88"/>
+      <c r="B89" s="81"/>
       <c r="C89" s="19">
         <v>3332230101</v>
       </c>
@@ -14111,7 +14141,7 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="88"/>
+      <c r="B90" s="81"/>
       <c r="C90" s="21">
         <v>3332230103</v>
       </c>
@@ -14252,7 +14282,7 @@
       <c r="A91" s="9">
         <v>89</v>
       </c>
-      <c r="B91" s="88"/>
+      <c r="B91" s="81"/>
       <c r="C91" s="21">
         <v>3332230104</v>
       </c>
@@ -14393,7 +14423,7 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="88"/>
+      <c r="B92" s="81"/>
       <c r="C92" s="21">
         <v>3332230105</v>
       </c>
@@ -14533,7 +14563,7 @@
       <c r="A93" s="9">
         <v>91</v>
       </c>
-      <c r="B93" s="88"/>
+      <c r="B93" s="81"/>
       <c r="C93" s="19">
         <v>3332230108</v>
       </c>
@@ -14671,7 +14701,7 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="88"/>
+      <c r="B94" s="81"/>
       <c r="C94" s="19">
         <v>3332230109</v>
       </c>
@@ -14808,7 +14838,7 @@
       <c r="A95" s="9">
         <v>93</v>
       </c>
-      <c r="B95" s="88"/>
+      <c r="B95" s="81"/>
       <c r="C95" s="19">
         <v>3332230110</v>
       </c>
@@ -14949,7 +14979,7 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="88"/>
+      <c r="B96" s="81"/>
       <c r="C96" s="21">
         <v>3332230111</v>
       </c>
@@ -15090,7 +15120,7 @@
       <c r="A97" s="9">
         <v>95</v>
       </c>
-      <c r="B97" s="88"/>
+      <c r="B97" s="81"/>
       <c r="C97" s="21">
         <v>3332230112</v>
       </c>
@@ -15227,7 +15257,7 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="88"/>
+      <c r="B98" s="81"/>
       <c r="C98" s="21">
         <v>3332230114</v>
       </c>
@@ -15368,7 +15398,7 @@
       <c r="A99" s="9">
         <v>97</v>
       </c>
-      <c r="B99" s="88"/>
+      <c r="B99" s="81"/>
       <c r="C99" s="19">
         <v>3332230115</v>
       </c>
@@ -15509,7 +15539,7 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="88"/>
+      <c r="B100" s="81"/>
       <c r="C100" s="19">
         <v>3332230116</v>
       </c>
@@ -15650,7 +15680,7 @@
       <c r="A101" s="9">
         <v>99</v>
       </c>
-      <c r="B101" s="88"/>
+      <c r="B101" s="81"/>
       <c r="C101" s="19">
         <v>3332230118</v>
       </c>
@@ -15791,7 +15821,7 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="88"/>
+      <c r="B102" s="81"/>
       <c r="C102" s="21">
         <v>3332230119</v>
       </c>
@@ -15928,7 +15958,7 @@
       <c r="A103" s="9">
         <v>101</v>
       </c>
-      <c r="B103" s="88"/>
+      <c r="B103" s="81"/>
       <c r="C103" s="21">
         <v>3332230100</v>
       </c>
@@ -16065,7 +16095,7 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="88"/>
+      <c r="B104" s="81"/>
       <c r="C104" s="21">
         <v>3332230022</v>
       </c>
@@ -16202,7 +16232,7 @@
       <c r="A105" s="9">
         <v>103</v>
       </c>
-      <c r="B105" s="88"/>
+      <c r="B105" s="81"/>
       <c r="C105" s="19">
         <v>3332230023</v>
       </c>
@@ -16343,7 +16373,7 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="88"/>
+      <c r="B106" s="81"/>
       <c r="C106" s="19">
         <v>3332230036</v>
       </c>
@@ -16484,7 +16514,7 @@
       <c r="A107" s="9">
         <v>105</v>
       </c>
-      <c r="B107" s="88"/>
+      <c r="B107" s="81"/>
       <c r="C107" s="19">
         <v>3332230038</v>
       </c>
@@ -16625,7 +16655,7 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="88"/>
+      <c r="B108" s="81"/>
       <c r="C108" s="21">
         <v>3332230121</v>
       </c>
@@ -16766,7 +16796,7 @@
       <c r="A109" s="9">
         <v>107</v>
       </c>
-      <c r="B109" s="88"/>
+      <c r="B109" s="81"/>
       <c r="C109" s="21">
         <v>3332230131</v>
       </c>
@@ -16907,7 +16937,7 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="88"/>
+      <c r="B110" s="81"/>
       <c r="C110" s="21">
         <v>3332230055</v>
       </c>
@@ -17048,7 +17078,7 @@
       <c r="A111" s="9">
         <v>109</v>
       </c>
-      <c r="B111" s="88"/>
+      <c r="B111" s="81"/>
       <c r="C111" s="19">
         <v>3332230049</v>
       </c>
@@ -17187,7 +17217,7 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="88"/>
+      <c r="B112" s="81"/>
       <c r="C112" s="19">
         <v>3332230044</v>
       </c>
@@ -17328,7 +17358,7 @@
       <c r="A113" s="9">
         <v>111</v>
       </c>
-      <c r="B113" s="88"/>
+      <c r="B113" s="81"/>
       <c r="C113" s="19">
         <v>3332230054</v>
       </c>
@@ -17469,7 +17499,7 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="88"/>
+      <c r="B114" s="81"/>
       <c r="C114" s="21">
         <v>3332230069</v>
       </c>
@@ -17610,7 +17640,7 @@
       <c r="A115" s="9">
         <v>113</v>
       </c>
-      <c r="B115" s="88"/>
+      <c r="B115" s="81"/>
       <c r="C115" s="21">
         <v>3332230008</v>
       </c>
@@ -17747,7 +17777,7 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="88"/>
+      <c r="B116" s="81"/>
       <c r="C116" s="21">
         <v>3332230016</v>
       </c>
@@ -17888,7 +17918,7 @@
       <c r="A117" s="9">
         <v>115</v>
       </c>
-      <c r="B117" s="88"/>
+      <c r="B117" s="81"/>
       <c r="C117" s="19">
         <v>3332230018</v>
       </c>
@@ -18025,7 +18055,7 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="88"/>
+      <c r="B118" s="81"/>
       <c r="C118" s="19">
         <v>3332230021</v>
       </c>
@@ -18164,7 +18194,7 @@
       <c r="A119" s="9">
         <v>117</v>
       </c>
-      <c r="B119" s="88"/>
+      <c r="B119" s="81"/>
       <c r="C119" s="19">
         <v>3332230058</v>
       </c>
@@ -18301,7 +18331,7 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="88"/>
+      <c r="B120" s="81"/>
       <c r="C120" s="21">
         <v>3332230062</v>
       </c>
@@ -18438,7 +18468,7 @@
       <c r="A121" s="9">
         <v>119</v>
       </c>
-      <c r="B121" s="88"/>
+      <c r="B121" s="81"/>
       <c r="C121" s="21">
         <v>3332230064</v>
       </c>
@@ -18579,7 +18609,7 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="88"/>
+      <c r="B122" s="81"/>
       <c r="C122" s="21">
         <v>3332230065</v>
       </c>
@@ -18720,7 +18750,7 @@
       <c r="A123" s="9">
         <v>121</v>
       </c>
-      <c r="B123" s="88"/>
+      <c r="B123" s="81"/>
       <c r="C123" s="19">
         <v>3332230067</v>
       </c>
@@ -18861,7 +18891,7 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="88"/>
+      <c r="B124" s="81"/>
       <c r="C124" s="19">
         <v>3332230068</v>
       </c>
@@ -19001,7 +19031,7 @@
       <c r="A125" s="9">
         <v>123</v>
       </c>
-      <c r="B125" s="88"/>
+      <c r="B125" s="81"/>
       <c r="C125" s="19">
         <v>3332230071</v>
       </c>
@@ -19138,7 +19168,7 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="88"/>
+      <c r="B126" s="81"/>
       <c r="C126" s="21">
         <v>3332230075</v>
       </c>
@@ -19268,15 +19298,15 @@
       <c r="AP126" s="18">
         <v>5</v>
       </c>
-      <c r="AQ126" s="83"/>
-      <c r="AR126" s="84"/>
+      <c r="AQ126" s="85"/>
+      <c r="AR126" s="86"/>
       <c r="AS126" s="40"/>
     </row>
     <row r="127" spans="1:46" ht="15.75" customHeight="1">
       <c r="A127" s="9">
         <v>125</v>
       </c>
-      <c r="B127" s="88"/>
+      <c r="B127" s="81"/>
       <c r="C127" s="21">
         <v>3332230078</v>
       </c>
@@ -19413,7 +19443,7 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="88"/>
+      <c r="B128" s="81"/>
       <c r="C128" s="21">
         <v>3332230085</v>
       </c>
@@ -19552,7 +19582,7 @@
       <c r="A129" s="9">
         <v>127</v>
       </c>
-      <c r="B129" s="88"/>
+      <c r="B129" s="81"/>
       <c r="C129" s="19">
         <v>3332230102</v>
       </c>
@@ -19689,7 +19719,7 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="88"/>
+      <c r="B130" s="81"/>
       <c r="C130" s="19">
         <v>3332230106</v>
       </c>
@@ -19829,7 +19859,7 @@
       <c r="A131" s="9">
         <v>129</v>
       </c>
-      <c r="B131" s="88"/>
+      <c r="B131" s="81"/>
       <c r="C131" s="19">
         <v>3332230107</v>
       </c>
@@ -19970,7 +20000,7 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="88"/>
+      <c r="B132" s="81"/>
       <c r="C132" s="21">
         <v>3332230117</v>
       </c>
@@ -20107,7 +20137,7 @@
       <c r="A133" s="9">
         <v>131</v>
       </c>
-      <c r="B133" s="88"/>
+      <c r="B133" s="81"/>
       <c r="C133" s="21">
         <v>3332230120</v>
       </c>
@@ -20248,7 +20278,7 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="88"/>
+      <c r="B134" s="81"/>
       <c r="C134" s="21">
         <v>3332230123</v>
       </c>
@@ -20387,7 +20417,7 @@
       <c r="A135" s="9">
         <v>133</v>
       </c>
-      <c r="B135" s="88"/>
+      <c r="B135" s="81"/>
       <c r="C135" s="19">
         <v>3332230132</v>
       </c>
@@ -20524,7 +20554,7 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="88"/>
+      <c r="B136" s="81"/>
       <c r="C136" s="19">
         <v>3332230135</v>
       </c>
@@ -20661,7 +20691,7 @@
       <c r="A137" s="9">
         <v>135</v>
       </c>
-      <c r="B137" s="88"/>
+      <c r="B137" s="81"/>
       <c r="C137" s="19">
         <v>3332230136</v>
       </c>
@@ -20800,7 +20830,7 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="88"/>
+      <c r="B138" s="81"/>
       <c r="C138" s="21">
         <v>3332210060</v>
       </c>
@@ -20937,7 +20967,7 @@
       <c r="A139" s="9">
         <v>137</v>
       </c>
-      <c r="B139" s="88"/>
+      <c r="B139" s="81"/>
       <c r="C139" s="21">
         <v>3332210068</v>
       </c>
@@ -21078,7 +21108,7 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="88"/>
+      <c r="B140" s="81"/>
       <c r="C140" s="21">
         <v>3332210029</v>
       </c>
@@ -21215,7 +21245,7 @@
       <c r="A141" s="9">
         <v>139</v>
       </c>
-      <c r="B141" s="88"/>
+      <c r="B141" s="81"/>
       <c r="C141" s="19">
         <v>3332210080</v>
       </c>
@@ -21356,7 +21386,7 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="88"/>
+      <c r="B142" s="81"/>
       <c r="C142" s="19">
         <v>3332210088</v>
       </c>
@@ -21497,7 +21527,7 @@
       <c r="A143" s="9">
         <v>141</v>
       </c>
-      <c r="B143" s="88"/>
+      <c r="B143" s="81"/>
       <c r="C143" s="19">
         <v>3332210091</v>
       </c>
@@ -21637,7 +21667,7 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="88"/>
+      <c r="B144" s="81"/>
       <c r="C144" s="21">
         <v>3332210096</v>
       </c>
@@ -21776,7 +21806,7 @@
       <c r="A145" s="9">
         <v>143</v>
       </c>
-      <c r="B145" s="88"/>
+      <c r="B145" s="81"/>
       <c r="C145" s="21">
         <v>3332210056</v>
       </c>
@@ -21917,7 +21947,7 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="88"/>
+      <c r="B146" s="81"/>
       <c r="C146" s="21">
         <v>3332210084</v>
       </c>
@@ -22058,7 +22088,7 @@
       <c r="A147" s="9">
         <v>145</v>
       </c>
-      <c r="B147" s="88"/>
+      <c r="B147" s="81"/>
       <c r="C147" s="19">
         <v>3332210043</v>
       </c>
@@ -22197,7 +22227,7 @@
       <c r="A148" s="9">
         <v>146</v>
       </c>
-      <c r="B148" s="88"/>
+      <c r="B148" s="81"/>
       <c r="C148" s="19">
         <v>3332210092</v>
       </c>
@@ -22336,7 +22366,7 @@
       <c r="A149" s="9">
         <v>147</v>
       </c>
-      <c r="B149" s="88"/>
+      <c r="B149" s="81"/>
       <c r="C149" s="19">
         <v>3332210099</v>
       </c>
@@ -22475,7 +22505,7 @@
       <c r="A150" s="9">
         <v>148</v>
       </c>
-      <c r="B150" s="88"/>
+      <c r="B150" s="81"/>
       <c r="C150" s="21">
         <v>3332210004</v>
       </c>
@@ -22500,23 +22530,23 @@
       </c>
       <c r="J150" s="30">
         <f t="shared" ref="J150:L150" ca="1" si="23">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K150" s="30">
         <f t="shared" ca="1" si="23"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L150" s="30">
         <f t="shared" ca="1" si="23"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M150" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>62.5</v>
+        <v>63.1</v>
       </c>
       <c r="N150" s="30">
         <f t="shared" ref="N150:P150" ca="1" si="24">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O150" s="30">
         <f t="shared" ca="1" si="24"/>
@@ -22528,31 +22558,31 @@
       </c>
       <c r="Q150" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>62.2</v>
+        <v>62.8</v>
       </c>
       <c r="R150" s="30">
         <f t="shared" ref="R150:T150" ca="1" si="25">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S150" s="30">
         <f t="shared" ca="1" si="25"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T150" s="30">
         <f t="shared" ca="1" si="25"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U150" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>64.099999999999994</v>
+        <v>63.3</v>
       </c>
       <c r="V150" s="67">
         <f t="shared" ref="V150:X150" ca="1" si="26">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W150" s="57">
         <f t="shared" ca="1" si="26"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X150" s="57">
         <f t="shared" ca="1" si="26"/>
@@ -22560,66 +22590,66 @@
       </c>
       <c r="Y150" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>62.6</v>
+        <v>62.599999999999994</v>
       </c>
       <c r="Z150" s="67">
         <f t="shared" ref="Z150:AB150" ca="1" si="27">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA150" s="57">
         <f t="shared" ca="1" si="27"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB150" s="57">
         <f t="shared" ca="1" si="27"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AC150" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>62.9</v>
+        <v>61.4</v>
       </c>
       <c r="AD150" s="67">
         <f t="shared" ref="AD150:AF150" ca="1" si="28">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AE150" s="57">
         <f t="shared" ca="1" si="28"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF150" s="57">
         <f t="shared" ca="1" si="28"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG150" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>63.7</v>
+        <v>62.7</v>
       </c>
       <c r="AH150" s="67">
         <f t="shared" ref="AH150:AJ150" ca="1" si="29">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI150" s="57">
         <f t="shared" ca="1" si="29"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AJ150" s="57">
         <f t="shared" ca="1" si="29"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK150" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>61.9</v>
+        <v>62.599999999999994</v>
       </c>
       <c r="AL150" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>62.912499999999994</v>
+        <v>62.737499999999997</v>
       </c>
       <c r="AM150" s="24">
         <v>84</v>
       </c>
       <c r="AN150" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.912499999999994</v>
+        <v>88.737499999999997</v>
       </c>
       <c r="AO150" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -22633,7 +22663,7 @@
       <c r="A151" s="9">
         <v>149</v>
       </c>
-      <c r="B151" s="88"/>
+      <c r="B151" s="81"/>
       <c r="C151" s="21">
         <v>3332210046</v>
       </c>
@@ -22658,39 +22688,39 @@
       </c>
       <c r="J151" s="30">
         <f t="shared" ref="J151:L151" ca="1" si="30">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K151" s="30">
         <f t="shared" ca="1" si="30"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L151" s="30">
         <f t="shared" ca="1" si="30"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M151" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>63.199999999999996</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="N151" s="30">
         <f t="shared" ref="N151:P151" ca="1" si="31">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O151" s="30">
         <f t="shared" ca="1" si="31"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P151" s="30">
         <f t="shared" ca="1" si="31"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q151" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>62.4</v>
+        <v>62.8</v>
       </c>
       <c r="R151" s="30">
         <f t="shared" ref="R151:T151" ca="1" si="32">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S151" s="30">
         <f t="shared" ca="1" si="32"/>
@@ -22698,19 +22728,19 @@
       </c>
       <c r="T151" s="30">
         <f t="shared" ca="1" si="32"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U151" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>62.1</v>
+        <v>62.6</v>
       </c>
       <c r="V151" s="68">
         <f t="shared" ref="V151:X151" ca="1" si="33">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W151" s="69">
         <f t="shared" ca="1" si="33"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X151" s="69">
         <f t="shared" ca="1" si="33"/>
@@ -22722,7 +22752,7 @@
       </c>
       <c r="Z151" s="68">
         <f t="shared" ref="Z151:AB151" ca="1" si="34">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA151" s="69">
         <f t="shared" ca="1" si="34"/>
@@ -22730,54 +22760,54 @@
       </c>
       <c r="AB151" s="69">
         <f t="shared" ca="1" si="34"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC151" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>62.900000000000006</v>
+        <v>63.4</v>
       </c>
       <c r="AD151" s="68">
         <f t="shared" ref="AD151:AF151" ca="1" si="35">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AE151" s="69">
         <f t="shared" ca="1" si="35"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF151" s="69">
         <f t="shared" ca="1" si="35"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AG151" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="AH151" s="68">
         <f t="shared" ref="AH151:AJ151" ca="1" si="36">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AI151" s="69">
         <f t="shared" ca="1" si="36"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ151" s="69">
         <f t="shared" ca="1" si="36"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AK151" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>63.300000000000004</v>
+        <v>63</v>
       </c>
       <c r="AL151" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>62.912500000000001</v>
+        <v>62.9375</v>
       </c>
       <c r="AM151" s="24">
         <v>83</v>
       </c>
       <c r="AN151" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.662499999999994</v>
+        <v>88.6875</v>
       </c>
       <c r="AO151" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -22795,7 +22825,7 @@
       <c r="A152" s="9">
         <v>150</v>
       </c>
-      <c r="B152" s="88"/>
+      <c r="B152" s="81"/>
       <c r="C152" s="21">
         <v>3332210054</v>
       </c>
@@ -22820,11 +22850,11 @@
       </c>
       <c r="J152" s="30">
         <f t="shared" ref="J152:L152" ca="1" si="37">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K152" s="30">
         <f t="shared" ca="1" si="37"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L152" s="30">
         <f t="shared" ca="1" si="37"/>
@@ -22832,71 +22862,71 @@
       </c>
       <c r="M152" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>62.7</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="N152" s="30">
         <f t="shared" ref="N152:P152" ca="1" si="38">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O152" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P152" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q152" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="R152" s="30">
         <f t="shared" ref="R152:T152" ca="1" si="39">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S152" s="30">
         <f t="shared" ca="1" si="39"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T152" s="30">
         <f t="shared" ca="1" si="39"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="U152" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>63.800000000000004</v>
+        <v>62.5</v>
       </c>
       <c r="V152" s="68">
         <f t="shared" ref="V152:X152" ca="1" si="40">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W152" s="69">
         <f t="shared" ca="1" si="40"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X152" s="69">
         <f t="shared" ca="1" si="40"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y152" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>62.6</v>
+        <v>63.4</v>
       </c>
       <c r="Z152" s="68">
         <f t="shared" ref="Z152:AB152" ca="1" si="41">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA152" s="69">
         <f t="shared" ca="1" si="41"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB152" s="69">
         <f t="shared" ca="1" si="41"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC152" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>61.899999999999991</v>
+        <v>62.6</v>
       </c>
       <c r="AD152" s="68">
         <f t="shared" ref="AD152:AF152" ca="1" si="42">RANDBETWEEN(87,92)</f>
@@ -22904,42 +22934,42 @@
       </c>
       <c r="AE152" s="69">
         <f t="shared" ca="1" si="42"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF152" s="69">
         <f t="shared" ca="1" si="42"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AG152" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>62.900000000000006</v>
+        <v>61.899999999999991</v>
       </c>
       <c r="AH152" s="68">
         <f t="shared" ref="AH152:AJ152" ca="1" si="43">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AI152" s="69">
         <f t="shared" ca="1" si="43"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AJ152" s="69">
         <f t="shared" ca="1" si="43"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK152" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>62.599999999999994</v>
+        <v>63.3</v>
       </c>
       <c r="AL152" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>62.662500000000009</v>
+        <v>62.674999999999997</v>
       </c>
       <c r="AM152" s="16">
         <v>84.5</v>
       </c>
       <c r="AN152" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.787500000000009</v>
+        <v>88.8</v>
       </c>
       <c r="AO152" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -22953,7 +22983,7 @@
       <c r="A153" s="9">
         <v>151</v>
       </c>
-      <c r="B153" s="88"/>
+      <c r="B153" s="81"/>
       <c r="C153" s="19">
         <v>3332200052</v>
       </c>
@@ -23092,7 +23122,7 @@
       <c r="A154" s="9">
         <v>152</v>
       </c>
-      <c r="B154" s="88"/>
+      <c r="B154" s="81"/>
       <c r="C154" s="19">
         <v>3332200027</v>
       </c>
@@ -23227,7 +23257,7 @@
       <c r="A155" s="9">
         <v>153</v>
       </c>
-      <c r="B155" s="88"/>
+      <c r="B155" s="81"/>
       <c r="C155" s="19">
         <v>3332220073</v>
       </c>
@@ -23366,7 +23396,7 @@
       <c r="A156" s="9">
         <v>154</v>
       </c>
-      <c r="B156" s="88"/>
+      <c r="B156" s="81"/>
       <c r="C156" s="19">
         <v>3332200072</v>
       </c>
@@ -23505,7 +23535,7 @@
       <c r="A157" s="9">
         <v>155</v>
       </c>
-      <c r="B157" s="88"/>
+      <c r="B157" s="81"/>
       <c r="C157" s="21">
         <v>3332200091</v>
       </c>
@@ -23643,7 +23673,7 @@
       <c r="A158" s="9">
         <v>156</v>
       </c>
-      <c r="B158" s="88"/>
+      <c r="B158" s="81"/>
       <c r="C158" s="21">
         <v>3332200036</v>
       </c>
@@ -23780,7 +23810,7 @@
       <c r="A159" s="9">
         <v>157</v>
       </c>
-      <c r="B159" s="88"/>
+      <c r="B159" s="81"/>
       <c r="C159" s="21">
         <v>3332200037</v>
       </c>
@@ -23919,7 +23949,7 @@
       <c r="A160" s="9">
         <v>158</v>
       </c>
-      <c r="B160" s="88"/>
+      <c r="B160" s="81"/>
       <c r="C160" s="19">
         <v>3332200042</v>
       </c>
@@ -24058,7 +24088,7 @@
       <c r="A161" s="9">
         <v>159</v>
       </c>
-      <c r="B161" s="88"/>
+      <c r="B161" s="81"/>
       <c r="C161" s="19">
         <v>3332200115</v>
       </c>
@@ -24196,7 +24226,7 @@
       <c r="A162" s="9">
         <v>160</v>
       </c>
-      <c r="B162" s="88"/>
+      <c r="B162" s="81"/>
       <c r="C162" s="19">
         <v>3332200097</v>
       </c>
@@ -24335,7 +24365,7 @@
       <c r="A163" s="9">
         <v>161</v>
       </c>
-      <c r="B163" s="88"/>
+      <c r="B163" s="81"/>
       <c r="C163" s="21">
         <v>3332200005</v>
       </c>
@@ -24474,7 +24504,7 @@
       <c r="A164" s="9">
         <v>162</v>
       </c>
-      <c r="B164" s="88"/>
+      <c r="B164" s="81"/>
       <c r="C164" s="21">
         <v>3332200007</v>
       </c>
@@ -24613,7 +24643,7 @@
       <c r="A165" s="9">
         <v>163</v>
       </c>
-      <c r="B165" s="88"/>
+      <c r="B165" s="81"/>
       <c r="C165" s="21">
         <v>3332200009</v>
       </c>
@@ -24752,7 +24782,7 @@
       <c r="A166" s="9">
         <v>164</v>
       </c>
-      <c r="B166" s="88"/>
+      <c r="B166" s="81"/>
       <c r="C166" s="19">
         <v>3332200053</v>
       </c>
@@ -24894,7 +24924,7 @@
       <c r="A167" s="9">
         <v>165</v>
       </c>
-      <c r="B167" s="88"/>
+      <c r="B167" s="81"/>
       <c r="C167" s="19">
         <v>3332200079</v>
       </c>
@@ -25027,8 +25057,8 @@
       <c r="AP167" s="18">
         <v>5</v>
       </c>
-      <c r="AQ167" s="85"/>
-      <c r="AR167" s="84"/>
+      <c r="AQ167" s="87"/>
+      <c r="AR167" s="86"/>
       <c r="AS167" s="70"/>
       <c r="AT167" s="39"/>
     </row>
@@ -25036,7 +25066,7 @@
       <c r="A168" s="9">
         <v>166</v>
       </c>
-      <c r="B168" s="88"/>
+      <c r="B168" s="81"/>
       <c r="C168" s="19">
         <v>3332200099</v>
       </c>
@@ -25178,7 +25208,7 @@
       <c r="A169" s="9">
         <v>167</v>
       </c>
-      <c r="B169" s="88"/>
+      <c r="B169" s="81"/>
       <c r="C169" s="21">
         <v>3332200043</v>
       </c>
@@ -25190,7 +25220,7 @@
       </c>
       <c r="F169" s="30">
         <f t="shared" ref="F169:H169" ca="1" si="48">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G169" s="30">
         <f t="shared" ca="1" si="48"/>
@@ -25198,15 +25228,15 @@
       </c>
       <c r="H169" s="30">
         <f t="shared" ca="1" si="48"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I169" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.099999999999994</v>
+        <v>61</v>
       </c>
       <c r="J169" s="30">
         <f t="shared" ref="J169:L169" ca="1" si="49">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K169" s="30">
         <f t="shared" ca="1" si="49"/>
@@ -25214,35 +25244,35 @@
       </c>
       <c r="L169" s="30">
         <f t="shared" ca="1" si="49"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M169" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>60.5</v>
       </c>
       <c r="N169" s="67">
         <f t="shared" ref="N169:P169" ca="1" si="50">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O169" s="57">
         <f t="shared" ca="1" si="50"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P169" s="57">
         <f t="shared" ca="1" si="50"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q169" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>62.1</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="R169" s="67">
         <f t="shared" ref="R169:T169" ca="1" si="51">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S169" s="57">
         <f t="shared" ca="1" si="51"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T169" s="57">
         <f t="shared" ca="1" si="51"/>
@@ -25250,11 +25280,11 @@
       </c>
       <c r="U169" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>60.7</v>
+        <v>60.4</v>
       </c>
       <c r="V169" s="67">
         <f t="shared" ref="V169:X169" ca="1" si="52">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W169" s="57">
         <f t="shared" ca="1" si="52"/>
@@ -25266,15 +25296,15 @@
       </c>
       <c r="Y169" s="4">
         <f t="shared" ca="1" si="47"/>
-        <v>59.9</v>
+        <v>60.800000000000004</v>
       </c>
       <c r="Z169" s="67">
         <f t="shared" ref="Z169:AB169" ca="1" si="53">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA169" s="57">
         <f t="shared" ca="1" si="53"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB169" s="57">
         <f t="shared" ca="1" si="53"/>
@@ -25282,23 +25312,23 @@
       </c>
       <c r="AC169" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.499999999999993</v>
+        <v>62.3</v>
       </c>
       <c r="AD169" s="67">
         <f t="shared" ref="AD169:AF169" ca="1" si="54">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE169" s="57">
         <f t="shared" ca="1" si="54"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF169" s="57">
         <f t="shared" ca="1" si="54"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG169" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>59.9</v>
+        <v>60.7</v>
       </c>
       <c r="AH169" s="67">
         <f t="shared" ref="AH169:AJ169" ca="1" si="55">RANDBETWEEN(85,90)</f>
@@ -25306,26 +25336,26 @@
       </c>
       <c r="AI169" s="57">
         <f t="shared" ca="1" si="55"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AJ169" s="57">
         <f t="shared" ca="1" si="55"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AK169" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>61.8</v>
+        <v>60.2</v>
       </c>
       <c r="AL169" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>60.624999999999993</v>
+        <v>60.949999999999996</v>
       </c>
       <c r="AM169" s="24">
         <v>90</v>
       </c>
       <c r="AN169" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.125</v>
+        <v>88.449999999999989</v>
       </c>
       <c r="AO169" s="4" t="str">
         <f ca="1">IF(AN169&gt;=85.01, "A", IF(AN169&gt;=81, "A-", IF(AN169&gt;=76, "B+", IF(AN169&gt;=71, "B", IF(AN169&gt;=66, "B-", IF(AN169&gt;=61, "C+", IF(AN169&gt;=56, "C", IF(AN169&gt;=51, "D", IF(AN169&gt;=0, "E")))))))))</f>
@@ -25342,7 +25372,7 @@
       <c r="A170" s="9">
         <v>168</v>
       </c>
-      <c r="B170" s="88"/>
+      <c r="B170" s="81"/>
       <c r="C170" s="21">
         <v>3332200089</v>
       </c>
@@ -25354,7 +25384,7 @@
       </c>
       <c r="F170" s="30">
         <f t="shared" ref="F170:H170" ca="1" si="56">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G170" s="30">
         <f t="shared" ca="1" si="56"/>
@@ -25362,99 +25392,99 @@
       </c>
       <c r="H170" s="30">
         <f t="shared" ca="1" si="56"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I170" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>61.5</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="J170" s="30">
         <f t="shared" ref="J170:L170" ca="1" si="57">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K170" s="30">
         <f t="shared" ca="1" si="57"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L170" s="30">
         <f t="shared" ca="1" si="57"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M170" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>60.8</v>
+        <v>60.5</v>
       </c>
       <c r="N170" s="68">
         <f t="shared" ref="N170:P170" ca="1" si="58">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O170" s="69">
         <f t="shared" ca="1" si="58"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P170" s="69">
         <f t="shared" ca="1" si="58"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q170" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>62.5</v>
+        <v>61.4</v>
       </c>
       <c r="R170" s="68">
         <f t="shared" ref="R170:T170" ca="1" si="59">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S170" s="69">
         <f t="shared" ca="1" si="59"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T170" s="69">
         <f t="shared" ca="1" si="59"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U170" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>60.8</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="V170" s="68">
         <f t="shared" ref="V170:X170" ca="1" si="60">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W170" s="69">
         <f t="shared" ca="1" si="60"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X170" s="69">
         <f t="shared" ca="1" si="60"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Y170" s="4">
         <f t="shared" ca="1" si="47"/>
-        <v>61.4</v>
+        <v>61.3</v>
       </c>
       <c r="Z170" s="68">
         <f t="shared" ref="Z170:AB170" ca="1" si="61">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA170" s="69">
         <f t="shared" ca="1" si="61"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB170" s="69">
         <f t="shared" ca="1" si="61"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AC170" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.5</v>
+        <v>61.2</v>
       </c>
       <c r="AD170" s="68">
         <f t="shared" ref="AD170:AF170" ca="1" si="62">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE170" s="69">
         <f t="shared" ca="1" si="62"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AF170" s="69">
         <f t="shared" ca="1" si="62"/>
@@ -25462,34 +25492,34 @@
       </c>
       <c r="AG170" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>61.3</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="AH170" s="68">
         <f t="shared" ref="AH170:AJ170" ca="1" si="63">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI170" s="69">
         <f t="shared" ca="1" si="63"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AJ170" s="69">
         <f t="shared" ca="1" si="63"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AK170" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>61.4</v>
+        <v>60.6</v>
       </c>
       <c r="AL170" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>61.274999999999999</v>
+        <v>61.25</v>
       </c>
       <c r="AM170" s="24">
         <v>85</v>
       </c>
       <c r="AN170" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>87.525000000000006</v>
+        <v>87.5</v>
       </c>
       <c r="AO170" s="4" t="str">
         <f t="shared" ref="AO170:AO175" ca="1" si="64">IF(AN170&gt;=86, "A", IF(AN170&gt;=81, "A-", IF(AN170&gt;=76, "B+", IF(AN170&gt;=71, "B", IF(AN170&gt;=66, "B-", IF(AN170&gt;=61, "C+", IF(AN170&gt;=56, "C", IF(AN170&gt;=51, "D", IF(AN170&gt;=0, "E")))))))))</f>
@@ -25506,7 +25536,7 @@
       <c r="A171" s="9">
         <v>169</v>
       </c>
-      <c r="B171" s="88"/>
+      <c r="B171" s="81"/>
       <c r="C171" s="21">
         <v>3332200108</v>
       </c>
@@ -25522,55 +25552,55 @@
       </c>
       <c r="G171" s="30">
         <f t="shared" ca="1" si="65"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H171" s="30">
         <f t="shared" ca="1" si="65"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I171" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>61.999999999999993</v>
+        <v>62.300000000000004</v>
       </c>
       <c r="J171" s="30">
         <f t="shared" ref="J171:L171" ca="1" si="66">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K171" s="30">
         <f t="shared" ca="1" si="66"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L171" s="30">
         <f t="shared" ca="1" si="66"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M171" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>61.3</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="N171" s="68">
         <f t="shared" ref="N171:P171" ca="1" si="67">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O171" s="69">
         <f t="shared" ca="1" si="67"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P171" s="69">
         <f t="shared" ca="1" si="67"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q171" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>61.699999999999996</v>
+        <v>61.5</v>
       </c>
       <c r="R171" s="68">
         <f t="shared" ref="R171:T171" ca="1" si="68">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S171" s="69">
         <f t="shared" ca="1" si="68"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T171" s="69">
         <f t="shared" ca="1" si="68"/>
@@ -25578,63 +25608,63 @@
       </c>
       <c r="U171" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>63</v>
+        <v>60.9</v>
       </c>
       <c r="V171" s="68">
         <f t="shared" ref="V171:X171" ca="1" si="69">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W171" s="69">
         <f t="shared" ca="1" si="69"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X171" s="69">
         <f t="shared" ca="1" si="69"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y171" s="4">
         <f t="shared" ca="1" si="47"/>
-        <v>61.999999999999993</v>
+        <v>62.7</v>
       </c>
       <c r="Z171" s="68">
         <f t="shared" ref="Z171:AB171" ca="1" si="70">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA171" s="69">
         <f t="shared" ca="1" si="70"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB171" s="69">
         <f t="shared" ca="1" si="70"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC171" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.5</v>
+        <v>61.3</v>
       </c>
       <c r="AD171" s="68">
         <f t="shared" ref="AD171:AF171" ca="1" si="71">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE171" s="69">
         <f t="shared" ca="1" si="71"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF171" s="69">
         <f t="shared" ca="1" si="71"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AG171" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>60.199999999999996</v>
+        <v>61.5</v>
       </c>
       <c r="AH171" s="68">
         <f t="shared" ref="AH171:AJ171" ca="1" si="72">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI171" s="69">
         <f t="shared" ca="1" si="72"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ171" s="69">
         <f t="shared" ca="1" si="72"/>
@@ -25642,18 +25672,18 @@
       </c>
       <c r="AK171" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>61.899999999999991</v>
+        <v>61.3</v>
       </c>
       <c r="AL171" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>61.574999999999989</v>
+        <v>61.487500000000004</v>
       </c>
       <c r="AM171" s="24">
         <v>86</v>
       </c>
       <c r="AN171" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.074999999999989</v>
+        <v>87.987500000000011</v>
       </c>
       <c r="AO171" s="4" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -25670,7 +25700,7 @@
       <c r="A172" s="9">
         <v>170</v>
       </c>
-      <c r="B172" s="88"/>
+      <c r="B172" s="81"/>
       <c r="C172" s="19">
         <v>3332190072</v>
       </c>
@@ -25809,7 +25839,7 @@
       <c r="A173" s="9">
         <v>171</v>
       </c>
-      <c r="B173" s="88"/>
+      <c r="B173" s="81"/>
       <c r="C173" s="19">
         <v>3332190080</v>
       </c>
@@ -25951,7 +25981,7 @@
       <c r="A174" s="9">
         <v>172</v>
       </c>
-      <c r="B174" s="88"/>
+      <c r="B174" s="81"/>
       <c r="C174" s="19">
         <v>3332190082</v>
       </c>
@@ -26089,7 +26119,7 @@
       <c r="A175" s="9">
         <v>173</v>
       </c>
-      <c r="B175" s="88"/>
+      <c r="B175" s="81"/>
       <c r="C175" s="76">
         <v>3332170050</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FC08A-EEF5-4248-96AE-D5F8F0313CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3F408-2FB7-4EB2-90B0-E9A0D51088AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRAK TD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="305">
   <si>
     <t>Naga</t>
   </si>
@@ -946,6 +946,12 @@
   <si>
     <t>Tanggal Lahir</t>
   </si>
+  <si>
+    <t>1.12.1991</t>
+  </si>
+  <si>
+    <t>12.9.2022</t>
+  </si>
 </sst>
 </file>
 
@@ -1513,6 +1519,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,9 +1537,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1836,7 +1842,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2267,8 +2273,8 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="90">
-        <v>1292022</v>
+      <c r="B4" s="83" t="s">
+        <v>304</v>
       </c>
       <c r="C4" s="19">
         <v>3332230042</v>
@@ -2404,8 +2410,8 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="90">
-        <v>1121991</v>
+      <c r="B5" s="83" t="s">
+        <v>303</v>
       </c>
       <c r="C5" s="19">
         <v>3332230045</v>
@@ -3751,10 +3757,10 @@
       <c r="AP14" s="18">
         <v>5</v>
       </c>
-      <c r="AQ14" s="88" t="s">
+      <c r="AQ14" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AR14" s="89"/>
+      <c r="AR14" s="90"/>
       <c r="AS14" s="25" t="s">
         <v>7</v>
       </c>
@@ -5207,10 +5213,10 @@
       <c r="AP24" s="18">
         <v>5</v>
       </c>
-      <c r="AQ24" s="83" t="s">
+      <c r="AQ24" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="AR24" s="84"/>
+      <c r="AR24" s="85"/>
       <c r="AS24" s="27">
         <f ca="1">SUM(AS15:AS23)</f>
         <v>115</v>
@@ -19298,8 +19304,8 @@
       <c r="AP126" s="18">
         <v>5</v>
       </c>
-      <c r="AQ126" s="85"/>
-      <c r="AR126" s="86"/>
+      <c r="AQ126" s="86"/>
+      <c r="AR126" s="87"/>
       <c r="AS126" s="40"/>
     </row>
     <row r="127" spans="1:46" ht="15.75" customHeight="1">
@@ -22530,43 +22536,43 @@
       </c>
       <c r="J150" s="30">
         <f t="shared" ref="J150:L150" ca="1" si="23">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K150" s="30">
         <f t="shared" ca="1" si="23"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L150" s="30">
         <f t="shared" ca="1" si="23"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M150" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>63.1</v>
+        <v>61.3</v>
       </c>
       <c r="N150" s="30">
         <f t="shared" ref="N150:P150" ca="1" si="24">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O150" s="30">
         <f t="shared" ca="1" si="24"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P150" s="30">
         <f t="shared" ca="1" si="24"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q150" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>62.8</v>
+        <v>63.3</v>
       </c>
       <c r="R150" s="30">
         <f t="shared" ref="R150:T150" ca="1" si="25">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S150" s="30">
         <f t="shared" ca="1" si="25"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T150" s="30">
         <f t="shared" ca="1" si="25"/>
@@ -22574,11 +22580,11 @@
       </c>
       <c r="U150" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>63.3</v>
+        <v>62.4</v>
       </c>
       <c r="V150" s="67">
         <f t="shared" ref="V150:X150" ca="1" si="26">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W150" s="57">
         <f t="shared" ca="1" si="26"/>
@@ -22586,11 +22592,11 @@
       </c>
       <c r="X150" s="57">
         <f t="shared" ca="1" si="26"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y150" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>62.599999999999994</v>
+        <v>63.399999999999991</v>
       </c>
       <c r="Z150" s="67">
         <f t="shared" ref="Z150:AB150" ca="1" si="27">RANDBETWEEN(87,92)</f>
@@ -22598,58 +22604,58 @@
       </c>
       <c r="AA150" s="57">
         <f t="shared" ca="1" si="27"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB150" s="57">
         <f t="shared" ca="1" si="27"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC150" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>61.4</v>
+        <v>61.2</v>
       </c>
       <c r="AD150" s="67">
         <f t="shared" ref="AD150:AF150" ca="1" si="28">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE150" s="57">
         <f t="shared" ca="1" si="28"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AF150" s="57">
         <f t="shared" ca="1" si="28"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG150" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>62.7</v>
+        <v>63</v>
       </c>
       <c r="AH150" s="67">
         <f t="shared" ref="AH150:AJ150" ca="1" si="29">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI150" s="57">
         <f t="shared" ca="1" si="29"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AJ150" s="57">
         <f t="shared" ca="1" si="29"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK150" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>62.599999999999994</v>
+        <v>62.2</v>
       </c>
       <c r="AL150" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>62.737499999999997</v>
+        <v>62.524999999999999</v>
       </c>
       <c r="AM150" s="24">
         <v>84</v>
       </c>
       <c r="AN150" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.737499999999997</v>
+        <v>88.525000000000006</v>
       </c>
       <c r="AO150" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -22688,23 +22694,23 @@
       </c>
       <c r="J151" s="30">
         <f t="shared" ref="J151:L151" ca="1" si="30">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K151" s="30">
         <f t="shared" ca="1" si="30"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L151" s="30">
         <f t="shared" ca="1" si="30"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M151" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>62.400000000000006</v>
+        <v>62.5</v>
       </c>
       <c r="N151" s="30">
         <f t="shared" ref="N151:P151" ca="1" si="31">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O151" s="30">
         <f t="shared" ca="1" si="31"/>
@@ -22712,7 +22718,7 @@
       </c>
       <c r="P151" s="30">
         <f t="shared" ca="1" si="31"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q151" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -22720,23 +22726,23 @@
       </c>
       <c r="R151" s="30">
         <f t="shared" ref="R151:T151" ca="1" si="32">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S151" s="30">
         <f t="shared" ca="1" si="32"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T151" s="30">
         <f t="shared" ca="1" si="32"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U151" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>62.6</v>
+        <v>62</v>
       </c>
       <c r="V151" s="68">
         <f t="shared" ref="V151:X151" ca="1" si="33">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W151" s="69">
         <f t="shared" ca="1" si="33"/>
@@ -22744,43 +22750,43 @@
       </c>
       <c r="X151" s="69">
         <f t="shared" ca="1" si="33"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y151" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>63.099999999999994</v>
       </c>
       <c r="Z151" s="68">
         <f t="shared" ref="Z151:AB151" ca="1" si="34">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AA151" s="69">
         <f t="shared" ca="1" si="34"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB151" s="69">
         <f t="shared" ca="1" si="34"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC151" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>63.4</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="AD151" s="68">
         <f t="shared" ref="AD151:AF151" ca="1" si="35">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE151" s="69">
         <f t="shared" ca="1" si="35"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF151" s="69">
         <f t="shared" ca="1" si="35"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AG151" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>62.900000000000006</v>
+        <v>63.499999999999993</v>
       </c>
       <c r="AH151" s="68">
         <f t="shared" ref="AH151:AJ151" ca="1" si="36">RANDBETWEEN(87,92)</f>
@@ -22788,26 +22794,26 @@
       </c>
       <c r="AI151" s="69">
         <f t="shared" ca="1" si="36"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AJ151" s="69">
         <f t="shared" ca="1" si="36"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AK151" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>63</v>
+        <v>61.899999999999991</v>
       </c>
       <c r="AL151" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>62.9375</v>
+        <v>62.599999999999994</v>
       </c>
       <c r="AM151" s="24">
         <v>83</v>
       </c>
       <c r="AN151" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.6875</v>
+        <v>88.35</v>
       </c>
       <c r="AO151" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -22850,7 +22856,7 @@
       </c>
       <c r="J152" s="30">
         <f t="shared" ref="J152:L152" ca="1" si="37">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K152" s="30">
         <f t="shared" ca="1" si="37"/>
@@ -22858,35 +22864,35 @@
       </c>
       <c r="L152" s="30">
         <f t="shared" ca="1" si="37"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M152" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>62.099999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="N152" s="30">
         <f t="shared" ref="N152:P152" ca="1" si="38">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O152" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P152" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q152" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>62.800000000000004</v>
+        <v>62.6</v>
       </c>
       <c r="R152" s="30">
         <f t="shared" ref="R152:T152" ca="1" si="39">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S152" s="30">
         <f t="shared" ca="1" si="39"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T152" s="30">
         <f t="shared" ca="1" si="39"/>
@@ -22894,39 +22900,39 @@
       </c>
       <c r="U152" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>62.5</v>
+        <v>63.7</v>
       </c>
       <c r="V152" s="68">
         <f t="shared" ref="V152:X152" ca="1" si="40">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W152" s="69">
         <f t="shared" ca="1" si="40"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X152" s="69">
         <f t="shared" ca="1" si="40"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y152" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>63.4</v>
+        <v>61.7</v>
       </c>
       <c r="Z152" s="68">
         <f t="shared" ref="Z152:AB152" ca="1" si="41">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA152" s="69">
         <f t="shared" ca="1" si="41"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB152" s="69">
         <f t="shared" ca="1" si="41"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC152" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>62.6</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="AD152" s="68">
         <f t="shared" ref="AD152:AF152" ca="1" si="42">RANDBETWEEN(87,92)</f>
@@ -22938,15 +22944,15 @@
       </c>
       <c r="AF152" s="69">
         <f t="shared" ca="1" si="42"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG152" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>61.899999999999991</v>
+        <v>61.999999999999993</v>
       </c>
       <c r="AH152" s="68">
         <f t="shared" ref="AH152:AJ152" ca="1" si="43">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI152" s="69">
         <f t="shared" ca="1" si="43"/>
@@ -22954,22 +22960,22 @@
       </c>
       <c r="AJ152" s="69">
         <f t="shared" ca="1" si="43"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AK152" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>63.3</v>
+        <v>63.2</v>
       </c>
       <c r="AL152" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>62.674999999999997</v>
+        <v>62.624999999999993</v>
       </c>
       <c r="AM152" s="16">
         <v>84.5</v>
       </c>
       <c r="AN152" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.8</v>
+        <v>88.75</v>
       </c>
       <c r="AO152" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -25057,8 +25063,8 @@
       <c r="AP167" s="18">
         <v>5</v>
       </c>
-      <c r="AQ167" s="87"/>
-      <c r="AR167" s="86"/>
+      <c r="AQ167" s="88"/>
+      <c r="AR167" s="87"/>
       <c r="AS167" s="70"/>
       <c r="AT167" s="39"/>
     </row>
@@ -25220,7 +25226,7 @@
       </c>
       <c r="F169" s="30">
         <f t="shared" ref="F169:H169" ca="1" si="48">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G169" s="30">
         <f t="shared" ca="1" si="48"/>
@@ -25228,43 +25234,43 @@
       </c>
       <c r="H169" s="30">
         <f t="shared" ca="1" si="48"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I169" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="J169" s="30">
         <f t="shared" ref="J169:L169" ca="1" si="49">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K169" s="30">
         <f t="shared" ca="1" si="49"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L169" s="30">
         <f t="shared" ca="1" si="49"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M169" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>60.5</v>
+        <v>61.899999999999991</v>
       </c>
       <c r="N169" s="67">
         <f t="shared" ref="N169:P169" ca="1" si="50">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O169" s="57">
         <f t="shared" ca="1" si="50"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P169" s="57">
         <f t="shared" ca="1" si="50"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q169" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>61.699999999999996</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="R169" s="67">
         <f t="shared" ref="R169:T169" ca="1" si="51">RANDBETWEEN(85,90)</f>
@@ -25272,15 +25278,15 @@
       </c>
       <c r="S169" s="57">
         <f t="shared" ca="1" si="51"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T169" s="57">
         <f t="shared" ca="1" si="51"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="U169" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>60.4</v>
+        <v>61.8</v>
       </c>
       <c r="V169" s="67">
         <f t="shared" ref="V169:X169" ca="1" si="52">RANDBETWEEN(85,90)</f>
@@ -25288,74 +25294,74 @@
       </c>
       <c r="W169" s="57">
         <f t="shared" ca="1" si="52"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="X169" s="57">
         <f t="shared" ca="1" si="52"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y169" s="4">
         <f t="shared" ca="1" si="47"/>
-        <v>60.800000000000004</v>
+        <v>62.4</v>
       </c>
       <c r="Z169" s="67">
         <f t="shared" ref="Z169:AB169" ca="1" si="53">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AA169" s="57">
         <f t="shared" ca="1" si="53"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB169" s="57">
         <f t="shared" ca="1" si="53"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC169" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>62.3</v>
+        <v>60.4</v>
       </c>
       <c r="AD169" s="67">
         <f t="shared" ref="AD169:AF169" ca="1" si="54">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE169" s="57">
         <f t="shared" ca="1" si="54"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF169" s="57">
         <f t="shared" ca="1" si="54"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AG169" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>60.7</v>
+        <v>61.1</v>
       </c>
       <c r="AH169" s="67">
         <f t="shared" ref="AH169:AJ169" ca="1" si="55">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI169" s="57">
         <f t="shared" ca="1" si="55"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ169" s="57">
         <f t="shared" ca="1" si="55"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AK169" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>60.2</v>
+        <v>60.8</v>
       </c>
       <c r="AL169" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>60.949999999999996</v>
+        <v>61.287499999999994</v>
       </c>
       <c r="AM169" s="24">
         <v>90</v>
       </c>
       <c r="AN169" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>88.449999999999989</v>
+        <v>88.787499999999994</v>
       </c>
       <c r="AO169" s="4" t="str">
         <f ca="1">IF(AN169&gt;=85.01, "A", IF(AN169&gt;=81, "A-", IF(AN169&gt;=76, "B+", IF(AN169&gt;=71, "B", IF(AN169&gt;=66, "B-", IF(AN169&gt;=61, "C+", IF(AN169&gt;=56, "C", IF(AN169&gt;=51, "D", IF(AN169&gt;=0, "E")))))))))</f>
@@ -25388,7 +25394,7 @@
       </c>
       <c r="G170" s="30">
         <f t="shared" ca="1" si="56"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H170" s="30">
         <f t="shared" ca="1" si="56"/>
@@ -25396,39 +25402,39 @@
       </c>
       <c r="I170" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>61.699999999999996</v>
+        <v>60.5</v>
       </c>
       <c r="J170" s="30">
         <f t="shared" ref="J170:L170" ca="1" si="57">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K170" s="30">
         <f t="shared" ca="1" si="57"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L170" s="30">
         <f t="shared" ca="1" si="57"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M170" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>60.5</v>
+        <v>61.9</v>
       </c>
       <c r="N170" s="68">
         <f t="shared" ref="N170:P170" ca="1" si="58">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O170" s="69">
         <f t="shared" ca="1" si="58"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P170" s="69">
         <f t="shared" ca="1" si="58"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q170" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="R170" s="68">
         <f t="shared" ref="R170:T170" ca="1" si="59">RANDBETWEEN(85,90)</f>
@@ -25436,15 +25442,15 @@
       </c>
       <c r="S170" s="69">
         <f t="shared" ca="1" si="59"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T170" s="69">
         <f t="shared" ca="1" si="59"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U170" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>61.699999999999996</v>
+        <v>62.2</v>
       </c>
       <c r="V170" s="68">
         <f t="shared" ref="V170:X170" ca="1" si="60">RANDBETWEEN(85,90)</f>
@@ -25452,15 +25458,15 @@
       </c>
       <c r="W170" s="69">
         <f t="shared" ca="1" si="60"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X170" s="69">
         <f t="shared" ca="1" si="60"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y170" s="4">
         <f t="shared" ca="1" si="47"/>
-        <v>61.3</v>
+        <v>60.800000000000004</v>
       </c>
       <c r="Z170" s="68">
         <f t="shared" ref="Z170:AB170" ca="1" si="61">RANDBETWEEN(85,90)</f>
@@ -25468,23 +25474,23 @@
       </c>
       <c r="AA170" s="69">
         <f t="shared" ca="1" si="61"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB170" s="69">
         <f t="shared" ca="1" si="61"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AC170" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>61.2</v>
+        <v>62</v>
       </c>
       <c r="AD170" s="68">
         <f t="shared" ref="AD170:AF170" ca="1" si="62">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE170" s="69">
         <f t="shared" ca="1" si="62"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF170" s="69">
         <f t="shared" ca="1" si="62"/>
@@ -25492,34 +25498,34 @@
       </c>
       <c r="AG170" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>61.599999999999994</v>
+        <v>59.8</v>
       </c>
       <c r="AH170" s="68">
         <f t="shared" ref="AH170:AJ170" ca="1" si="63">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI170" s="69">
         <f t="shared" ca="1" si="63"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AJ170" s="69">
         <f t="shared" ca="1" si="63"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK170" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>60.6</v>
+        <v>62.5</v>
       </c>
       <c r="AL170" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>61.25</v>
+        <v>61.400000000000006</v>
       </c>
       <c r="AM170" s="24">
         <v>85</v>
       </c>
       <c r="AN170" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="AO170" s="4" t="str">
         <f t="shared" ref="AO170:AO175" ca="1" si="64">IF(AN170&gt;=86, "A", IF(AN170&gt;=81, "A-", IF(AN170&gt;=76, "B+", IF(AN170&gt;=71, "B", IF(AN170&gt;=66, "B-", IF(AN170&gt;=61, "C+", IF(AN170&gt;=56, "C", IF(AN170&gt;=51, "D", IF(AN170&gt;=0, "E")))))))))</f>
@@ -25548,7 +25554,7 @@
       </c>
       <c r="F171" s="30">
         <f t="shared" ref="F171:H171" ca="1" si="65">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G171" s="30">
         <f t="shared" ca="1" si="65"/>
@@ -25556,27 +25562,27 @@
       </c>
       <c r="H171" s="30">
         <f t="shared" ca="1" si="65"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I171" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>62.300000000000004</v>
+        <v>63</v>
       </c>
       <c r="J171" s="30">
         <f t="shared" ref="J171:L171" ca="1" si="66">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K171" s="30">
         <f t="shared" ca="1" si="66"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L171" s="30">
         <f t="shared" ca="1" si="66"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M171" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>60.400000000000006</v>
+        <v>62.4</v>
       </c>
       <c r="N171" s="68">
         <f t="shared" ref="N171:P171" ca="1" si="67">RANDBETWEEN(85,90)</f>
@@ -25584,7 +25590,7 @@
       </c>
       <c r="O171" s="69">
         <f t="shared" ca="1" si="67"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P171" s="69">
         <f t="shared" ca="1" si="67"/>
@@ -25592,11 +25598,11 @@
       </c>
       <c r="Q171" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>61.5</v>
+        <v>61.8</v>
       </c>
       <c r="R171" s="68">
         <f t="shared" ref="R171:T171" ca="1" si="68">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S171" s="69">
         <f t="shared" ca="1" si="68"/>
@@ -25604,19 +25610,19 @@
       </c>
       <c r="T171" s="69">
         <f t="shared" ca="1" si="68"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U171" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>60.9</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="V171" s="68">
         <f t="shared" ref="V171:X171" ca="1" si="69">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W171" s="69">
         <f t="shared" ca="1" si="69"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X171" s="69">
         <f t="shared" ca="1" si="69"/>
@@ -25624,23 +25630,23 @@
       </c>
       <c r="Y171" s="4">
         <f t="shared" ca="1" si="47"/>
-        <v>62.7</v>
+        <v>61.5</v>
       </c>
       <c r="Z171" s="68">
         <f t="shared" ref="Z171:AB171" ca="1" si="70">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AA171" s="69">
         <f t="shared" ca="1" si="70"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB171" s="69">
         <f t="shared" ca="1" si="70"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AC171" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>61.3</v>
+        <v>60.5</v>
       </c>
       <c r="AD171" s="68">
         <f t="shared" ref="AD171:AF171" ca="1" si="71">RANDBETWEEN(85,90)</f>
@@ -25648,42 +25654,42 @@
       </c>
       <c r="AE171" s="69">
         <f t="shared" ca="1" si="71"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF171" s="69">
         <f t="shared" ca="1" si="71"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG171" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>61.5</v>
+        <v>62.2</v>
       </c>
       <c r="AH171" s="68">
         <f t="shared" ref="AH171:AJ171" ca="1" si="72">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI171" s="69">
         <f t="shared" ca="1" si="72"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ171" s="69">
         <f t="shared" ca="1" si="72"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AK171" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>61.3</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="AL171" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>61.487500000000004</v>
+        <v>61.837499999999991</v>
       </c>
       <c r="AM171" s="24">
         <v>86</v>
       </c>
       <c r="AN171" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>87.987500000000011</v>
+        <v>88.337499999999991</v>
       </c>
       <c r="AO171" s="4" t="str">
         <f t="shared" ca="1" si="64"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A8875F-DB75-4BDE-B204-ADF3AC64A425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98385FD6-EEED-4A0E-9EC7-24886AB73EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRAK TD" sheetId="1" r:id="rId1"/>
@@ -1995,10 +1995,10 @@
   <dimension ref="A1:AQ785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3671,30 +3671,30 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.499999999999993</v>
+        <v>60.1</v>
       </c>
       <c r="J13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="21">
         <v>96</v>
       </c>
       <c r="L13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="N13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.2</v>
+        <v>61.8</v>
       </c>
       <c r="R13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3734,39 +3734,39 @@
       </c>
       <c r="V13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="W13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.6</v>
+        <v>61</v>
       </c>
       <c r="Z13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.3</v>
+        <v>60.4</v>
       </c>
       <c r="AD13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3774,15 +3774,15 @@
       </c>
       <c r="AF13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.599999999999994</v>
+        <v>62.4</v>
       </c>
       <c r="AH13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AI13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3790,22 +3790,22 @@
       </c>
       <c r="AJ13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.2</v>
+        <v>62</v>
       </c>
       <c r="AL13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.524999999999999</v>
+        <v>61.562499999999993</v>
       </c>
       <c r="AM13" s="21">
         <v>80</v>
       </c>
       <c r="AN13" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.525000000000006</v>
+        <v>86.5625</v>
       </c>
       <c r="AO13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4390,11 +4390,11 @@
       </c>
       <c r="F18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4402,11 +4402,11 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.300000000000004</v>
+        <v>60.3</v>
       </c>
       <c r="J18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K18" s="21">
         <v>96</v>
@@ -4417,114 +4417,114 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.699999999999996</v>
+        <v>64.3</v>
       </c>
       <c r="N18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.4</v>
+        <v>60.099999999999994</v>
       </c>
       <c r="R18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.1</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="V18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>61.2</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="Z18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.5</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="AD18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.1</v>
+        <v>60.9</v>
       </c>
       <c r="AH18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AJ18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>60.7</v>
       </c>
       <c r="AL18" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.537500000000001</v>
+        <v>61.4</v>
       </c>
       <c r="AM18" s="21">
         <v>81</v>
       </c>
       <c r="AN18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.787499999999994</v>
+        <v>86.65</v>
       </c>
       <c r="AO18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4963,38 +4963,38 @@
       </c>
       <c r="F22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.3</v>
+        <v>60.6</v>
       </c>
       <c r="J22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K22" s="21">
         <v>96</v>
       </c>
       <c r="L22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.399999999999991</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="N22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5002,102 +5002,102 @@
       </c>
       <c r="P22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.300000000000004</v>
+        <v>61.5</v>
       </c>
       <c r="R22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60.900000000000006</v>
+        <v>60.800000000000004</v>
       </c>
       <c r="V22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.8</v>
+        <v>59.7</v>
       </c>
       <c r="Z22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.800000000000004</v>
+        <v>62.6</v>
       </c>
       <c r="AD22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AF22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.4</v>
+        <v>61.3</v>
       </c>
       <c r="AH22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AJ22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.1</v>
+        <v>61.3</v>
       </c>
       <c r="AL22" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.25</v>
+        <v>61.525000000000006</v>
       </c>
       <c r="AM22" s="21">
         <v>79</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>86.275000000000006</v>
       </c>
       <c r="AO22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5271,18 +5271,18 @@
       </c>
       <c r="J24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" s="21">
         <v>97</v>
       </c>
       <c r="L24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.599999999999994</v>
+        <v>64.2</v>
       </c>
       <c r="N24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5290,35 +5290,35 @@
       </c>
       <c r="O24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>63.2</v>
+        <v>62.199999999999996</v>
       </c>
       <c r="R24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="T24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.2</v>
+        <v>63.2</v>
       </c>
       <c r="V24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5326,11 +5326,11 @@
       </c>
       <c r="X24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>61.2</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="Z24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5338,19 +5338,19 @@
       </c>
       <c r="AA24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AB24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.199999999999996</v>
+        <v>63.199999999999996</v>
       </c>
       <c r="AD24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5358,38 +5358,38 @@
       </c>
       <c r="AF24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>61.4</v>
       </c>
       <c r="AH24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AI24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AK24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.6</v>
+        <v>63.099999999999994</v>
       </c>
       <c r="AL24" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.674999999999997</v>
+        <v>62.949999999999989</v>
       </c>
       <c r="AM24" s="21">
         <v>76</v>
       </c>
       <c r="AN24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.674999999999997</v>
+        <v>86.949999999999989</v>
       </c>
       <c r="AO24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5700,22 +5700,22 @@
       </c>
       <c r="J27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K27" s="21">
         <v>94</v>
       </c>
       <c r="L27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.599999999999994</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" ref="N27:P28" ca="1" si="13">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" ca="1" si="13"/>
@@ -5723,15 +5723,15 @@
       </c>
       <c r="P27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.599999999999994</v>
+        <v>63.5</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" ref="R27:T28" ca="1" si="14">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" ca="1" si="14"/>
@@ -5743,55 +5743,55 @@
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.3</v>
+        <v>61.7</v>
       </c>
       <c r="V27" s="44">
         <f t="shared" ref="V27:X28" ca="1" si="15">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="W27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.4</v>
+        <v>63.399999999999991</v>
       </c>
       <c r="Z27" s="44">
         <f t="shared" ref="Z27:AB28" ca="1" si="16">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.899999999999991</v>
+        <v>62.199999999999996</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27:AF28" ca="1" si="17">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AF27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AG27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.999999999999993</v>
+        <v>62.9</v>
       </c>
       <c r="AH27" s="44">
         <f t="shared" ref="AH27:AJ28" ca="1" si="18">RANDBETWEEN(87,92)</f>
@@ -5803,22 +5803,22 @@
       </c>
       <c r="AJ27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.3</v>
+        <v>62.199999999999996</v>
       </c>
       <c r="AL27" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.437499999999993</v>
+        <v>62.98749999999999</v>
       </c>
       <c r="AM27" s="21">
         <v>75</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.1875</v>
+        <v>86.737499999999983</v>
       </c>
       <c r="AO27" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5857,18 +5857,18 @@
       </c>
       <c r="J28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K28" s="21">
         <v>95</v>
       </c>
       <c r="L28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.2</v>
+        <v>63.499999999999993</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" ca="1" si="13"/>
@@ -5876,23 +5876,23 @@
       </c>
       <c r="O28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.9</v>
+        <v>61.3</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ca="1" si="14"/>
@@ -5900,39 +5900,39 @@
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.199999999999996</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="V28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>61.4</v>
+        <v>61.999999999999993</v>
       </c>
       <c r="Z28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.099999999999994</v>
+        <v>62.9</v>
       </c>
       <c r="AD28" s="44">
         <f t="shared" ca="1" si="17"/>
@@ -5940,23 +5940,23 @@
       </c>
       <c r="AE28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.7</v>
+        <v>62.6</v>
       </c>
       <c r="AH28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ28" s="44">
         <f t="shared" ca="1" si="18"/>
@@ -5964,18 +5964,18 @@
       </c>
       <c r="AK28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.8</v>
+        <v>62.4</v>
       </c>
       <c r="AL28" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.512500000000003</v>
+        <v>62.537499999999994</v>
       </c>
       <c r="AM28" s="13">
         <v>84.5</v>
       </c>
       <c r="AN28" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>88.637500000000003</v>
+        <v>88.662499999999994</v>
       </c>
       <c r="AO28" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -11242,7 +11242,7 @@
         <v>52.900000000000006</v>
       </c>
       <c r="AL66" s="12">
-        <f t="shared" ref="AL66:AL97" si="37">(I66+M66+Q66+U66+Y66+AC66+AG66+AK66)/8</f>
+        <f t="shared" ref="AL66:AL79" si="37">(I66+M66+Q66+U66+Y66+AC66+AG66+AK66)/8</f>
         <v>52.4375</v>
       </c>
       <c r="AM66" s="21">
@@ -19458,14 +19458,14 @@
         <v>86</v>
       </c>
       <c r="G126" s="21">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H126" s="21">
         <v>100</v>
       </c>
       <c r="I126" s="3">
         <f t="shared" si="42"/>
-        <v>35.799999999999997</v>
+        <v>58.9</v>
       </c>
       <c r="J126" s="10">
         <v>79</v>
@@ -19560,14 +19560,14 @@
       </c>
       <c r="AL126" s="12">
         <f t="shared" si="52"/>
-        <v>53.78125</v>
+        <v>56.668749999999996</v>
       </c>
       <c r="AM126" s="21">
         <v>52</v>
       </c>
       <c r="AN126" s="14">
         <f t="shared" si="49"/>
-        <v>71.78125</v>
+        <v>74.668749999999989</v>
       </c>
       <c r="AO126" s="3" t="str">
         <f t="shared" si="50"/>
@@ -19736,14 +19736,14 @@
         <v>85</v>
       </c>
       <c r="G128" s="21">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H128" s="21">
         <v>100</v>
       </c>
       <c r="I128" s="3">
         <f t="shared" si="42"/>
-        <v>35.5</v>
+        <v>58.9</v>
       </c>
       <c r="J128" s="10">
         <v>75</v>
@@ -19838,18 +19838,18 @@
       </c>
       <c r="AL128" s="12">
         <f t="shared" si="52"/>
-        <v>52.987499999999997</v>
+        <v>55.912500000000001</v>
       </c>
       <c r="AM128" s="21">
         <v>38</v>
       </c>
       <c r="AN128" s="14">
         <f t="shared" si="49"/>
-        <v>67.487499999999997</v>
+        <v>70.412499999999994</v>
       </c>
       <c r="AO128" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>B-</v>
+        <v>B</v>
       </c>
       <c r="AP128" s="15">
         <v>5</v>
@@ -20018,7 +20018,7 @@
         <v>50</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" ref="I130:I161" si="53">SUM((F130*0.3)+(G130*0.3)+(H130*0.1))</f>
+        <f t="shared" ref="I130:I157" si="53">SUM((F130*0.3)+(G130*0.3)+(H130*0.1))</f>
         <v>47.599999999999994</v>
       </c>
       <c r="J130" s="10">
@@ -22564,7 +22564,7 @@
         <v>100</v>
       </c>
       <c r="Y148" s="3">
-        <f t="shared" ref="Y148:Y179" si="62">SUM((V148*0.3)+(W148*0.3)+(X148*0.1))</f>
+        <f t="shared" ref="Y148:Y175" si="62">SUM((V148*0.3)+(W148*0.3)+(X148*0.1))</f>
         <v>52.9</v>
       </c>
       <c r="Z148" s="21">
@@ -22887,7 +22887,7 @@
         <v>53.5</v>
       </c>
       <c r="AL150" s="12">
-        <f t="shared" ref="AL150:AL181" si="63">(I150+M150+Q150+U150+Y150+AC150+AG150+AK150)/8</f>
+        <f t="shared" ref="AL150:AL175" si="63">(I150+M150+Q150+U150+Y150+AC150+AG150+AK150)/8</f>
         <v>54.475000000000009</v>
       </c>
       <c r="AM150" s="21">
@@ -24467,7 +24467,7 @@
         <v>95</v>
       </c>
       <c r="M162" s="3">
-        <f t="shared" ref="M162:M193" si="65">SUM((J162*0.3)+(K162*0.3)+(L162*0.1))</f>
+        <f t="shared" ref="M162:M175" si="65">SUM((J162*0.3)+(K162*0.3)+(L162*0.1))</f>
         <v>59</v>
       </c>
       <c r="N162" s="10">
@@ -24480,7 +24480,7 @@
         <v>80</v>
       </c>
       <c r="Q162" s="3">
-        <f t="shared" ref="Q162:Q193" si="66">SUM((N162*0.3)+(O162*0.3)+(P162*0.1))</f>
+        <f t="shared" ref="Q162:Q175" si="66">SUM((N162*0.3)+(O162*0.3)+(P162*0.1))</f>
         <v>54.8</v>
       </c>
       <c r="R162" s="10">
@@ -24493,7 +24493,7 @@
         <v>98</v>
       </c>
       <c r="U162" s="3">
-        <f t="shared" ref="U162:U193" si="67">SUM((R162*0.3)+(S162*0.3)+(T162*0.1))</f>
+        <f t="shared" ref="U162:U175" si="67">SUM((R162*0.3)+(S162*0.3)+(T162*0.1))</f>
         <v>57.2</v>
       </c>
       <c r="V162" s="10">
@@ -24519,7 +24519,7 @@
         <v>100</v>
       </c>
       <c r="AC162" s="3">
-        <f t="shared" ref="AC162:AC193" si="68">SUM((Z162*0.3)+(AA162*0.3)+(AB162*0.1))</f>
+        <f t="shared" ref="AC162:AC175" si="68">SUM((Z162*0.3)+(AA162*0.3)+(AB162*0.1))</f>
         <v>55.9</v>
       </c>
       <c r="AD162" s="10">
@@ -24532,7 +24532,7 @@
         <v>100</v>
       </c>
       <c r="AG162" s="3">
-        <f t="shared" ref="AG162:AG193" si="69">SUM((AD162*0.3)+(AE162*0.3)+(AF162*0.1))</f>
+        <f t="shared" ref="AG162:AG175" si="69">SUM((AD162*0.3)+(AE162*0.3)+(AF162*0.1))</f>
         <v>56.2</v>
       </c>
       <c r="AH162" s="25">
@@ -24545,7 +24545,7 @@
         <v>100</v>
       </c>
       <c r="AK162" s="3">
-        <f t="shared" ref="AK162:AK193" si="70">SUM((AH162*0.3)+(AI162*0.3)+(AJ162*0.1))</f>
+        <f t="shared" ref="AK162:AK175" si="70">SUM((AH162*0.3)+(AI162*0.3)+(AJ162*0.1))</f>
         <v>60.7</v>
       </c>
       <c r="AL162" s="12">
@@ -24556,11 +24556,11 @@
         <v>50.5</v>
       </c>
       <c r="AN162" s="14">
-        <f t="shared" ref="AN162:AN193" si="71">(SUM(AL162+(AM162*0.25))+AP162)</f>
+        <f t="shared" ref="AN162:AN174" si="71">(SUM(AL162+(AM162*0.25))+AP162)</f>
         <v>74.518749999999983</v>
       </c>
       <c r="AO162" s="3" t="str">
-        <f t="shared" ref="AO162:AO193" si="72">IF(AN162&gt;=85.01, "A", IF(AN162&gt;=80.01, "A-", IF(AN162&gt;=75.01, "B+", IF(AN162&gt;=70.01, "B", IF(AN162&gt;=65.01, "B-", IF(AN162&gt;=60.01, "C+", IF(AN162&gt;=55.01, "C", IF(AN162&gt;=50.01, "D", IF(AN162&gt;=0, "E")))))))))</f>
+        <f t="shared" ref="AO162:AO175" si="72">IF(AN162&gt;=85.01, "A", IF(AN162&gt;=80.01, "A-", IF(AN162&gt;=75.01, "B+", IF(AN162&gt;=70.01, "B", IF(AN162&gt;=65.01, "B-", IF(AN162&gt;=60.01, "C+", IF(AN162&gt;=55.01, "C", IF(AN162&gt;=50.01, "D", IF(AN162&gt;=0, "E")))))))))</f>
         <v>B</v>
       </c>
       <c r="AP162" s="15">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98385FD6-EEED-4A0E-9EC7-24886AB73EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29150E3B-2B2B-4813-B129-39E390BCAAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1306,8 +1306,15 @@
       <color rgb="FFFF00FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,8 +1375,14 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CEFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1462,11 +1475,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,6 +1703,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1995,10 +2044,10 @@
   <dimension ref="A1:AQ785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G127" sqref="G127"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3671,23 +3720,23 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.1</v>
+        <v>62.2</v>
       </c>
       <c r="J13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K13" s="21">
         <v>96</v>
@@ -3698,23 +3747,23 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.499999999999993</v>
+        <v>64.399999999999991</v>
       </c>
       <c r="N13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.8</v>
+        <v>60.7</v>
       </c>
       <c r="R13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3722,23 +3771,23 @@
       </c>
       <c r="S13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.3</v>
+        <v>59.7</v>
       </c>
       <c r="V13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3746,7 +3795,7 @@
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>61</v>
+        <v>61.3</v>
       </c>
       <c r="Z13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3754,7 +3803,7 @@
       </c>
       <c r="AA13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3762,50 +3811,50 @@
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.4</v>
+        <v>60.699999999999996</v>
       </c>
       <c r="AD13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.4</v>
+        <v>60.800000000000004</v>
       </c>
       <c r="AH13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AI13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>60.8</v>
       </c>
       <c r="AL13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.562499999999993</v>
+        <v>61.325000000000003</v>
       </c>
       <c r="AM13" s="21">
         <v>80</v>
       </c>
       <c r="AN13" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.5625</v>
+        <v>86.325000000000003</v>
       </c>
       <c r="AO13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4390,141 +4439,141 @@
       </c>
       <c r="F18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.3</v>
+        <v>62.7</v>
       </c>
       <c r="J18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K18" s="21">
         <v>96</v>
       </c>
       <c r="L18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.3</v>
+        <v>63.79999999999999</v>
       </c>
       <c r="N18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.099999999999994</v>
+        <v>60.8</v>
       </c>
       <c r="R18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.699999999999996</v>
+        <v>60.099999999999994</v>
       </c>
       <c r="V18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>61.599999999999994</v>
+        <v>60.599999999999994</v>
       </c>
       <c r="Z18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.599999999999994</v>
+        <v>61.2</v>
       </c>
       <c r="AD18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>60.9</v>
+        <v>62.6</v>
       </c>
       <c r="AH18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AI18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AJ18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>60.7</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="AL18" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.4</v>
+        <v>61.6875</v>
       </c>
       <c r="AM18" s="21">
         <v>81</v>
       </c>
       <c r="AN18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.65</v>
+        <v>86.9375</v>
       </c>
       <c r="AO18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4963,90 +5012,90 @@
       </c>
       <c r="F22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.6</v>
+        <v>61.4</v>
       </c>
       <c r="J22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K22" s="21">
         <v>96</v>
       </c>
       <c r="L22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.400000000000006</v>
+        <v>63.099999999999994</v>
       </c>
       <c r="N22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.5</v>
+        <v>60.5</v>
       </c>
       <c r="R22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="S22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60.800000000000004</v>
+        <v>62.6</v>
       </c>
       <c r="V22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>59.7</v>
+        <v>60.4</v>
       </c>
       <c r="Z22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AB22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5054,7 +5103,7 @@
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.6</v>
+        <v>61.099999999999994</v>
       </c>
       <c r="AD22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5062,42 +5111,42 @@
       </c>
       <c r="AE22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.3</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="AH22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AI22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AJ22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.3</v>
+        <v>61.2</v>
       </c>
       <c r="AL22" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.525000000000006</v>
+        <v>61.5</v>
       </c>
       <c r="AM22" s="21">
         <v>79</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.275000000000006</v>
+        <v>86.25</v>
       </c>
       <c r="AO22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5271,22 +5320,22 @@
       </c>
       <c r="J24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K24" s="21">
         <v>97</v>
       </c>
       <c r="L24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.2</v>
+        <v>64.899999999999991</v>
       </c>
       <c r="N24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5294,27 +5343,27 @@
       </c>
       <c r="P24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.199999999999996</v>
+        <v>61.7</v>
       </c>
       <c r="R24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="S24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63.2</v>
+        <v>63.1</v>
       </c>
       <c r="V24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5326,31 +5375,31 @@
       </c>
       <c r="X24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.900000000000006</v>
+        <v>62.7</v>
       </c>
       <c r="Z24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>63.199999999999996</v>
+        <v>63.1</v>
       </c>
       <c r="AD24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5358,38 +5407,38 @@
       </c>
       <c r="AF24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.4</v>
+        <v>62</v>
       </c>
       <c r="AH24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>63.099999999999994</v>
+        <v>63.4</v>
       </c>
       <c r="AL24" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.949999999999989</v>
+        <v>63.037500000000001</v>
       </c>
       <c r="AM24" s="21">
         <v>76</v>
       </c>
       <c r="AN24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.949999999999989</v>
+        <v>87.037499999999994</v>
       </c>
       <c r="AO24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5700,18 +5749,18 @@
       </c>
       <c r="J27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K27" s="21">
         <v>94</v>
       </c>
       <c r="L27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.599999999999994</v>
+        <v>63.3</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" ref="N27:P28" ca="1" si="13">RANDBETWEEN(87,92)</f>
@@ -5719,19 +5768,19 @@
       </c>
       <c r="O27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>63.5</v>
+        <v>64.3</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" ref="R27:T28" ca="1" si="14">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" ca="1" si="14"/>
@@ -5739,51 +5788,51 @@
       </c>
       <c r="T27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.7</v>
+        <v>62.1</v>
       </c>
       <c r="V27" s="44">
         <f t="shared" ref="V27:X28" ca="1" si="15">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>63.399999999999991</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="Z27" s="44">
         <f t="shared" ref="Z27:AB28" ca="1" si="16">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.199999999999996</v>
+        <v>62.6</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27:AF28" ca="1" si="17">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF27" s="44">
         <f t="shared" ca="1" si="17"/>
@@ -5791,11 +5840,11 @@
       </c>
       <c r="AG27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.9</v>
+        <v>63.5</v>
       </c>
       <c r="AH27" s="44">
         <f t="shared" ref="AH27:AJ28" ca="1" si="18">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI27" s="44">
         <f t="shared" ca="1" si="18"/>
@@ -5803,22 +5852,22 @@
       </c>
       <c r="AJ27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.199999999999996</v>
+        <v>62.6</v>
       </c>
       <c r="AL27" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.98749999999999</v>
+        <v>63.087500000000006</v>
       </c>
       <c r="AM27" s="21">
         <v>75</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.737499999999983</v>
+        <v>86.837500000000006</v>
       </c>
       <c r="AO27" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5876,31 +5925,31 @@
       </c>
       <c r="O28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.3</v>
+        <v>62.6</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.800000000000004</v>
+        <v>62.6</v>
       </c>
       <c r="V28" s="44">
         <f t="shared" ca="1" si="15"/>
@@ -5908,15 +5957,15 @@
       </c>
       <c r="W28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>61.999999999999993</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="Z28" s="44">
         <f t="shared" ca="1" si="16"/>
@@ -5924,58 +5973,58 @@
       </c>
       <c r="AA28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.9</v>
+        <v>64</v>
       </c>
       <c r="AD28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.6</v>
+        <v>61.899999999999991</v>
       </c>
       <c r="AH28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AK28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.4</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="AL28" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.537499999999994</v>
+        <v>62.987499999999997</v>
       </c>
       <c r="AM28" s="13">
         <v>84.5</v>
       </c>
       <c r="AN28" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>88.662499999999994</v>
+        <v>89.112499999999997</v>
       </c>
       <c r="AO28" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7376,7 +7425,7 @@
       </c>
       <c r="AQ38" s="30"/>
     </row>
-    <row r="39" spans="1:43" ht="15.75" customHeight="1">
+    <row r="39" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="5">
         <v>153</v>
       </c>
@@ -7516,7 +7565,7 @@
       </c>
       <c r="AQ39" s="23"/>
     </row>
-    <row r="40" spans="1:43" ht="15.75" customHeight="1">
+    <row r="40" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="5">
         <v>30</v>
       </c>
@@ -7532,18 +7581,18 @@
       <c r="E40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="72">
         <v>71</v>
       </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
+      <c r="G40" s="73">
+        <v>76</v>
+      </c>
+      <c r="H40" s="73">
         <v>53</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="19"/>
-        <v>26.6</v>
+        <v>49.400000000000006</v>
       </c>
       <c r="J40" s="10">
         <v>77</v>
@@ -7638,18 +7687,18 @@
       </c>
       <c r="AL40" s="12">
         <f t="shared" si="26"/>
-        <v>52.61</v>
+        <v>55.46</v>
       </c>
       <c r="AM40" s="21">
         <v>22</v>
       </c>
       <c r="AN40" s="14">
         <f t="shared" si="27"/>
-        <v>63.11</v>
+        <v>65.960000000000008</v>
       </c>
       <c r="AO40" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>C+</v>
+        <v>B-</v>
       </c>
       <c r="AP40" s="15">
         <v>5</v>
@@ -47136,7 +47185,7 @@
       <c r="AK785" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:H175 K6:L6 K15:K17 L17 K19:K21 K24:L24 K35:L35 AA37:AA38 W37:W42 AI37:AI42 AE38 L39:L44 J39:K175 AA43:AA45 AE43:AE51 AI44 O46:O48 S46:S48 V48:X50 AD48:AD50 AF48:AF50 L48:L175 AA49:AA50 S54:T56 R54:R58 AI55:AI57 W55:W62 AA58:AA59 V58:V62 X58:X62 AA64 AI64 O64:O66 AA67 AH75:AH77 AJ75:AJ77 AI75:AI78 AA76:AA78 O79:O81 AA85:AA87 AE88:AE90 W91:W98 AI91:AI98 AE94:AE98 AH96 AA97:AA99 AI102 AA102:AA108 O103:O105 AI104 AE106:AE175 AI107:AI108 V108:X108 AD108 AF108 O109:O175 P110:P175 V110:X175 Z110:AB175 AD110:AD175 AF110:AF175 AH110:AJ175">
+  <conditionalFormatting sqref="F3:H39 K6:L6 K15:K17 L17 K19:K21 K24:L24 K35:L35 AA37:AA38 W37:W42 AI37:AI42 AE38 L39:L44 J39:K175 AA43:AA45 AE43:AE51 AI44 O46:O48 S46:S48 V48:X50 AD48:AD50 AF48:AF50 L48:L175 AA49:AA50 S54:T56 R54:R58 AI55:AI57 W55:W62 AA58:AA59 V58:V62 X58:X62 AA64 AI64 O64:O66 AA67 AH75:AH77 AJ75:AJ77 AI75:AI78 AA76:AA78 O79:O81 AA85:AA87 AE88:AE90 W91:W98 AI91:AI98 AE94:AE98 AH96 AA97:AA99 AI102 AA102:AA108 O103:O105 AI104 AE106:AE175 AI107:AI108 V108:X108 AD108 AF108 O109:O175 P110:P175 V110:X175 Z110:AB175 AD110:AD175 AF110:AF175 AH110:AJ175 F41:H175">
     <cfRule type="notContainsBlanks" dxfId="13" priority="8">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29150E3B-2B2B-4813-B129-39E390BCAAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EA9212-85C5-443F-8313-31E9BE56E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="404">
   <si>
     <t>No</t>
   </si>
@@ -954,9 +954,6 @@
     <t>13.4.2005</t>
   </si>
   <si>
-    <t>11.05.2023</t>
-  </si>
-  <si>
     <t>23.11.2004</t>
   </si>
   <si>
@@ -1198,6 +1195,60 @@
   </si>
   <si>
     <t>12.07.2004</t>
+  </si>
+  <si>
+    <t>10.10.2004</t>
+  </si>
+  <si>
+    <t>17.7.2005</t>
+  </si>
+  <si>
+    <t>15.4.2005</t>
+  </si>
+  <si>
+    <t>13.6.2005</t>
+  </si>
+  <si>
+    <t>22.10.2004</t>
+  </si>
+  <si>
+    <t>31.8.2005</t>
+  </si>
+  <si>
+    <t>04.01.2005</t>
+  </si>
+  <si>
+    <t>11.5.2004</t>
+  </si>
+  <si>
+    <t>18.9.2005</t>
+  </si>
+  <si>
+    <t>25.12.2002</t>
+  </si>
+  <si>
+    <t>8.6.2005</t>
+  </si>
+  <si>
+    <t>17.8.2002</t>
+  </si>
+  <si>
+    <t>28.5.2003</t>
+  </si>
+  <si>
+    <t>1.7.2004</t>
+  </si>
+  <si>
+    <t>4.1.2004</t>
+  </si>
+  <si>
+    <t>17.06.2005</t>
+  </si>
+  <si>
+    <t>6.6.2004</t>
+  </si>
+  <si>
+    <t>2.10.2004</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1644,9 +1695,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1700,15 +1748,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2044,16 +2102,16 @@
   <dimension ref="A1:AQ785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19" style="74" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
@@ -2066,7 +2124,7 @@
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="71" t="s">
         <v>275</v>
       </c>
       <c r="C1" s="48" t="s">
@@ -2195,14 +2253,14 @@
       <c r="A2" s="5">
         <v>173</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="52">
+      <c r="B2" s="72"/>
+      <c r="C2" s="51">
         <v>3332170050</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>238</v>
       </c>
       <c r="F2" s="21">
@@ -2327,13 +2385,13 @@
       <c r="AP2" s="15">
         <v>5</v>
       </c>
-      <c r="AQ2" s="68"/>
+      <c r="AQ2" s="67"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>170</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="6">
         <v>3332190072</v>
       </c>
@@ -2471,7 +2529,7 @@
       <c r="A4" s="5">
         <v>171</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="16">
         <v>3332190080</v>
       </c>
@@ -2610,7 +2668,7 @@
       <c r="A5" s="5">
         <v>172</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="16">
         <v>3332190082</v>
       </c>
@@ -2747,7 +2805,7 @@
       <c r="A6" s="5">
         <v>161</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="18">
         <v>3332200005</v>
       </c>
@@ -2848,7 +2906,7 @@
         <f t="shared" si="6"/>
         <v>58.9</v>
       </c>
-      <c r="AH6" s="65">
+      <c r="AH6" s="64">
         <v>80</v>
       </c>
       <c r="AI6" s="25">
@@ -2885,8 +2943,8 @@
       <c r="A7" s="5">
         <v>162</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>319</v>
+      <c r="B7" s="73" t="s">
+        <v>318</v>
       </c>
       <c r="C7" s="18">
         <v>3332200007</v>
@@ -2988,7 +3046,7 @@
         <f t="shared" si="6"/>
         <v>57.099999999999994</v>
       </c>
-      <c r="AH7" s="63">
+      <c r="AH7" s="62">
         <v>72</v>
       </c>
       <c r="AI7" s="25">
@@ -3125,13 +3183,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="65">
+      <c r="AH8" s="64">
         <v>0</v>
       </c>
-      <c r="AI8" s="65">
+      <c r="AI8" s="64">
         <v>0</v>
       </c>
-      <c r="AJ8" s="65">
+      <c r="AJ8" s="64">
         <v>0</v>
       </c>
       <c r="AK8" s="3">
@@ -3720,11 +3778,11 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3732,22 +3790,22 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>62.2</v>
+        <v>61.3</v>
       </c>
       <c r="J13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K13" s="21">
         <v>96</v>
       </c>
       <c r="L13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.399999999999991</v>
+        <v>63.3</v>
       </c>
       <c r="N13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3755,35 +3813,35 @@
       </c>
       <c r="O13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.7</v>
+        <v>61.8</v>
       </c>
       <c r="R13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59.7</v>
+        <v>61.4</v>
       </c>
       <c r="V13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3791,27 +3849,27 @@
       </c>
       <c r="X13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>61.3</v>
+        <v>61.1</v>
       </c>
       <c r="Z13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.699999999999996</v>
+        <v>60</v>
       </c>
       <c r="AD13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3819,15 +3877,15 @@
       </c>
       <c r="AE13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>60.800000000000004</v>
+        <v>60.300000000000004</v>
       </c>
       <c r="AH13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3835,26 +3893,26 @@
       </c>
       <c r="AI13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>60.8</v>
+        <v>61.3</v>
       </c>
       <c r="AL13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.325000000000003</v>
+        <v>61.3125</v>
       </c>
       <c r="AM13" s="21">
         <v>80</v>
       </c>
       <c r="AN13" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.325000000000003</v>
+        <v>86.3125</v>
       </c>
       <c r="AO13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4005,8 +4063,8 @@
       <c r="A15" s="5">
         <v>164</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>331</v>
+      <c r="B15" s="73" t="s">
+        <v>330</v>
       </c>
       <c r="C15" s="16">
         <v>3332200053</v>
@@ -4146,8 +4204,8 @@
       <c r="A16" s="5">
         <v>154</v>
       </c>
-      <c r="B16" s="70" t="s">
-        <v>335</v>
+      <c r="B16" s="73" t="s">
+        <v>334</v>
       </c>
       <c r="C16" s="16">
         <v>3332200072</v>
@@ -4286,7 +4344,7 @@
       <c r="A17" s="5">
         <v>165</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="73" t="s">
         <v>298</v>
       </c>
       <c r="C17" s="16">
@@ -4427,7 +4485,7 @@
       <c r="A18" s="5">
         <v>168</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="18">
         <v>3332200089</v>
       </c>
@@ -4439,66 +4497,66 @@
       </c>
       <c r="F18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>62.7</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="J18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K18" s="21">
         <v>96</v>
       </c>
       <c r="L18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.79999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="N18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.8</v>
+        <v>62.2</v>
       </c>
       <c r="R18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="T18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60.099999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="V18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4506,39 +4564,39 @@
       </c>
       <c r="W18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.599999999999994</v>
+        <v>61.899999999999991</v>
       </c>
       <c r="Z18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.2</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="AD18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AF18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4546,11 +4604,11 @@
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.6</v>
+        <v>61.999999999999993</v>
       </c>
       <c r="AH18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4558,22 +4616,22 @@
       </c>
       <c r="AJ18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.699999999999996</v>
+        <v>61</v>
       </c>
       <c r="AL18" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.6875</v>
+        <v>62.1875</v>
       </c>
       <c r="AM18" s="21">
         <v>81</v>
       </c>
       <c r="AN18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.9375</v>
+        <v>87.4375</v>
       </c>
       <c r="AO18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4587,8 +4645,8 @@
       <c r="A19" s="5">
         <v>155</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>349</v>
+      <c r="B19" s="73" t="s">
+        <v>348</v>
       </c>
       <c r="C19" s="18">
         <v>3332200091</v>
@@ -5020,15 +5078,15 @@
       </c>
       <c r="H22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="J22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K22" s="21">
         <v>96</v>
@@ -5039,23 +5097,23 @@
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.099999999999994</v>
+        <v>64.3</v>
       </c>
       <c r="N22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.5</v>
+        <v>61.3</v>
       </c>
       <c r="R22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5063,47 +5121,47 @@
       </c>
       <c r="S22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.6</v>
+        <v>61.4</v>
       </c>
       <c r="V22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.4</v>
+        <v>62.1</v>
       </c>
       <c r="Z22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.099999999999994</v>
+        <v>60</v>
       </c>
       <c r="AD22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5115,38 +5173,38 @@
       </c>
       <c r="AF22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.699999999999996</v>
+        <v>61.4</v>
       </c>
       <c r="AH22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AK22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.2</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="AL22" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.5</v>
+        <v>61.712499999999999</v>
       </c>
       <c r="AM22" s="21">
         <v>79</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.25</v>
+        <v>86.462500000000006</v>
       </c>
       <c r="AO22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5320,34 +5378,34 @@
       </c>
       <c r="J24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24" s="21">
         <v>97</v>
       </c>
       <c r="L24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.899999999999991</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="N24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.7</v>
+        <v>62.9</v>
       </c>
       <c r="R24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5355,39 +5413,39 @@
       </c>
       <c r="S24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63.1</v>
+        <v>63.199999999999996</v>
       </c>
       <c r="V24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.7</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="Z24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AA24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AB24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5395,31 +5453,31 @@
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>63.1</v>
+        <v>61.3</v>
       </c>
       <c r="AD24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AE24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>63.699999999999996</v>
       </c>
       <c r="AH24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5427,18 +5485,18 @@
       </c>
       <c r="AK24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>63.4</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="AL24" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>63.037500000000001</v>
+        <v>63.15</v>
       </c>
       <c r="AM24" s="21">
         <v>76</v>
       </c>
       <c r="AN24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>87.037499999999994</v>
+        <v>87.15</v>
       </c>
       <c r="AO24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5588,6 +5646,9 @@
       <c r="A26" s="5">
         <v>145</v>
       </c>
+      <c r="B26" s="74" t="s">
+        <v>395</v>
+      </c>
       <c r="C26" s="16">
         <v>3332210043</v>
       </c>
@@ -5749,86 +5810,86 @@
       </c>
       <c r="J27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K27" s="21">
         <v>94</v>
       </c>
       <c r="L27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.3</v>
+        <v>64.8</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" ref="N27:P28" ca="1" si="13">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64.3</v>
+        <v>62.1</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" ref="R27:T28" ca="1" si="14">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.1</v>
+        <v>64.399999999999991</v>
       </c>
       <c r="V27" s="44">
         <f t="shared" ref="V27:X28" ca="1" si="15">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.900000000000006</v>
+        <v>61.3</v>
       </c>
       <c r="Z27" s="44">
         <f t="shared" ref="Z27:AB28" ca="1" si="16">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.6</v>
+        <v>61.899999999999991</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27:AF28" ca="1" si="17">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ca="1" si="17"/>
@@ -5836,15 +5897,15 @@
       </c>
       <c r="AF27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AG27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>63.5</v>
+        <v>63.499999999999993</v>
       </c>
       <c r="AH27" s="44">
         <f t="shared" ref="AH27:AJ28" ca="1" si="18">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI27" s="44">
         <f t="shared" ca="1" si="18"/>
@@ -5852,22 +5913,22 @@
       </c>
       <c r="AJ27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.6</v>
+        <v>62.7</v>
       </c>
       <c r="AL27" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>63.087500000000006</v>
+        <v>63.012499999999996</v>
       </c>
       <c r="AM27" s="21">
         <v>75</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.837500000000006</v>
+        <v>86.762499999999989</v>
       </c>
       <c r="AO27" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5906,50 +5967,50 @@
       </c>
       <c r="J28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K28" s="21">
         <v>95</v>
       </c>
       <c r="L28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.499999999999993</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.6</v>
+        <v>63.4</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.6</v>
+        <v>62.4</v>
       </c>
       <c r="V28" s="44">
         <f t="shared" ca="1" si="15"/>
@@ -5961,31 +6022,31 @@
       </c>
       <c r="X28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.400000000000006</v>
+        <v>62.6</v>
       </c>
       <c r="Z28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AB28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>62.5</v>
       </c>
       <c r="AD28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE28" s="44">
         <f t="shared" ca="1" si="17"/>
@@ -5993,38 +6054,38 @@
       </c>
       <c r="AF28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.899999999999991</v>
+        <v>62.1</v>
       </c>
       <c r="AH28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AI28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>64.099999999999994</v>
+        <v>63.1</v>
       </c>
       <c r="AL28" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.987499999999997</v>
+        <v>62.937500000000007</v>
       </c>
       <c r="AM28" s="13">
         <v>84.5</v>
       </c>
       <c r="AN28" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>89.112499999999997</v>
+        <v>89.0625</v>
       </c>
       <c r="AO28" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6038,8 +6099,8 @@
       <c r="A29" s="5">
         <v>143</v>
       </c>
-      <c r="B29" s="70" t="s">
-        <v>383</v>
+      <c r="B29" s="73" t="s">
+        <v>382</v>
       </c>
       <c r="C29" s="18">
         <v>3332210056</v>
@@ -6178,8 +6239,8 @@
       <c r="A30" s="5">
         <v>136</v>
       </c>
-      <c r="B30" s="70" t="s">
-        <v>370</v>
+      <c r="B30" s="73" t="s">
+        <v>369</v>
       </c>
       <c r="C30" s="18">
         <v>3332210060</v>
@@ -6317,7 +6378,7 @@
       <c r="A31" s="5">
         <v>137</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="73" t="s">
         <v>303</v>
       </c>
       <c r="C31" s="18">
@@ -6457,7 +6518,7 @@
       <c r="A32" s="5">
         <v>139</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="73" t="s">
         <v>292</v>
       </c>
       <c r="C32" s="16">
@@ -6734,8 +6795,8 @@
       <c r="A34" s="5">
         <v>140</v>
       </c>
-      <c r="B34" s="70" t="s">
-        <v>350</v>
+      <c r="B34" s="73" t="s">
+        <v>349</v>
       </c>
       <c r="C34" s="16">
         <v>3332210088</v>
@@ -6874,7 +6935,9 @@
       <c r="A35" s="5">
         <v>141</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="73" t="s">
+        <v>397</v>
+      </c>
       <c r="C35" s="16">
         <v>3332210091</v>
       </c>
@@ -7011,8 +7074,8 @@
       <c r="A36" s="5">
         <v>146</v>
       </c>
-      <c r="B36" s="70" t="s">
-        <v>342</v>
+      <c r="B36" s="73" t="s">
+        <v>341</v>
       </c>
       <c r="C36" s="16">
         <v>3332210092</v>
@@ -7151,7 +7214,7 @@
       <c r="A37" s="5">
         <v>142</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="73" t="s">
         <v>295</v>
       </c>
       <c r="C37" s="18">
@@ -7291,7 +7354,7 @@
       <c r="A38" s="5">
         <v>147</v>
       </c>
-      <c r="B38" s="70"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="16">
         <v>3332210099</v>
       </c>
@@ -7429,8 +7492,8 @@
       <c r="A39" s="5">
         <v>153</v>
       </c>
-      <c r="B39" s="70" t="s">
-        <v>309</v>
+      <c r="B39" s="73" t="s">
+        <v>308</v>
       </c>
       <c r="C39" s="16">
         <v>3332220073</v>
@@ -7569,7 +7632,7 @@
       <c r="A40" s="5">
         <v>30</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="73" t="s">
         <v>276</v>
       </c>
       <c r="C40" s="18">
@@ -7581,13 +7644,13 @@
       <c r="E40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="72">
+      <c r="F40" s="69">
         <v>71</v>
       </c>
-      <c r="G40" s="73">
+      <c r="G40" s="70">
         <v>76</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="70">
         <v>53</v>
       </c>
       <c r="I40" s="3">
@@ -7708,8 +7771,8 @@
       <c r="A41" s="5">
         <v>31</v>
       </c>
-      <c r="B41" s="70" t="s">
-        <v>306</v>
+      <c r="B41" s="73" t="s">
+        <v>305</v>
       </c>
       <c r="C41" s="16">
         <v>3332230002</v>
@@ -7847,7 +7910,9 @@
       <c r="A42" s="5">
         <v>32</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="73" t="s">
+        <v>391</v>
+      </c>
       <c r="C42" s="16">
         <v>3332230003</v>
       </c>
@@ -7984,8 +8049,8 @@
       <c r="A43" s="5">
         <v>33</v>
       </c>
-      <c r="B43" s="70" t="s">
-        <v>337</v>
+      <c r="B43" s="73" t="s">
+        <v>336</v>
       </c>
       <c r="C43" s="16">
         <v>3332230004</v>
@@ -8123,8 +8188,8 @@
       <c r="A44" s="5">
         <v>34</v>
       </c>
-      <c r="B44" s="70" t="s">
-        <v>360</v>
+      <c r="B44" s="73" t="s">
+        <v>359</v>
       </c>
       <c r="C44" s="18">
         <v>3332230005</v>
@@ -8262,7 +8327,9 @@
       <c r="A45" s="5">
         <v>35</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="73" t="s">
+        <v>389</v>
+      </c>
       <c r="C45" s="18">
         <v>3332230006</v>
       </c>
@@ -8399,7 +8466,7 @@
       <c r="A46" s="5">
         <v>36</v>
       </c>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="73" t="s">
         <v>293</v>
       </c>
       <c r="C46" s="18">
@@ -8538,8 +8605,8 @@
       <c r="A47" s="5">
         <v>113</v>
       </c>
-      <c r="B47" s="70" t="s">
-        <v>353</v>
+      <c r="B47" s="73" t="s">
+        <v>352</v>
       </c>
       <c r="C47" s="18">
         <v>3332230008</v>
@@ -8677,7 +8744,9 @@
       <c r="A48" s="5">
         <v>37</v>
       </c>
-      <c r="B48" s="70"/>
+      <c r="B48" s="73" t="s">
+        <v>386</v>
+      </c>
       <c r="C48" s="16">
         <v>3332230009</v>
       </c>
@@ -8814,8 +8883,8 @@
       <c r="A49" s="5">
         <v>38</v>
       </c>
-      <c r="B49" s="70" t="s">
-        <v>316</v>
+      <c r="B49" s="73" t="s">
+        <v>315</v>
       </c>
       <c r="C49" s="16">
         <v>3332230010</v>
@@ -8953,8 +9022,8 @@
       <c r="A50" s="5">
         <v>39</v>
       </c>
-      <c r="B50" s="70" t="s">
-        <v>345</v>
+      <c r="B50" s="73" t="s">
+        <v>344</v>
       </c>
       <c r="C50" s="16">
         <v>3332230011</v>
@@ -9092,8 +9161,8 @@
       <c r="A51" s="5">
         <v>40</v>
       </c>
-      <c r="B51" s="70" t="s">
-        <v>376</v>
+      <c r="B51" s="73" t="s">
+        <v>375</v>
       </c>
       <c r="C51" s="18">
         <v>3332230012</v>
@@ -9231,8 +9300,8 @@
       <c r="A52" s="5">
         <v>41</v>
       </c>
-      <c r="B52" s="70" t="s">
-        <v>338</v>
+      <c r="B52" s="73" t="s">
+        <v>337</v>
       </c>
       <c r="C52" s="18">
         <v>3332230013</v>
@@ -9370,7 +9439,9 @@
       <c r="A53" s="5">
         <v>42</v>
       </c>
-      <c r="B53" s="70"/>
+      <c r="B53" s="73" t="s">
+        <v>390</v>
+      </c>
       <c r="C53" s="18">
         <v>3332230014</v>
       </c>
@@ -9507,8 +9578,8 @@
       <c r="A54" s="5">
         <v>43</v>
       </c>
-      <c r="B54" s="70" t="s">
-        <v>359</v>
+      <c r="B54" s="73" t="s">
+        <v>358</v>
       </c>
       <c r="C54" s="16">
         <v>3332230015</v>
@@ -9646,7 +9717,9 @@
       <c r="A55" s="5">
         <v>114</v>
       </c>
-      <c r="B55" s="70"/>
+      <c r="B55" s="73" t="s">
+        <v>403</v>
+      </c>
       <c r="C55" s="18">
         <v>3332230016</v>
       </c>
@@ -9784,7 +9857,7 @@
       <c r="A56" s="5">
         <v>44</v>
       </c>
-      <c r="B56" s="70"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="16">
         <v>3332230017</v>
       </c>
@@ -9846,7 +9919,7 @@
         <f t="shared" si="22"/>
         <v>53.3</v>
       </c>
-      <c r="V56" s="66">
+      <c r="V56" s="65">
         <v>68</v>
       </c>
       <c r="W56" s="10">
@@ -9921,8 +9994,8 @@
       <c r="A57" s="5">
         <v>115</v>
       </c>
-      <c r="B57" s="70" t="s">
-        <v>316</v>
+      <c r="B57" s="73" t="s">
+        <v>315</v>
       </c>
       <c r="C57" s="16">
         <v>3332230018</v>
@@ -10060,8 +10133,8 @@
       <c r="A58" s="5">
         <v>45</v>
       </c>
-      <c r="B58" s="70" t="s">
-        <v>368</v>
+      <c r="B58" s="73" t="s">
+        <v>367</v>
       </c>
       <c r="C58" s="16">
         <v>3332230019</v>
@@ -10199,8 +10272,8 @@
       <c r="A59" s="5">
         <v>46</v>
       </c>
-      <c r="B59" s="70" t="s">
-        <v>344</v>
+      <c r="B59" s="73" t="s">
+        <v>343</v>
       </c>
       <c r="C59" s="18">
         <v>3332230020</v>
@@ -10250,7 +10323,7 @@
         <f t="shared" si="21"/>
         <v>52.3</v>
       </c>
-      <c r="R59" s="64">
+      <c r="R59" s="63">
         <v>0</v>
       </c>
       <c r="S59" s="10">
@@ -10338,7 +10411,7 @@
       <c r="A60" s="5">
         <v>116</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="73" t="s">
         <v>287</v>
       </c>
       <c r="C60" s="16">
@@ -10478,8 +10551,8 @@
       <c r="A61" s="5">
         <v>102</v>
       </c>
-      <c r="B61" s="70" t="s">
-        <v>330</v>
+      <c r="B61" s="73" t="s">
+        <v>329</v>
       </c>
       <c r="C61" s="18">
         <v>3332230022</v>
@@ -10617,8 +10690,8 @@
       <c r="A62" s="5">
         <v>103</v>
       </c>
-      <c r="B62" s="70" t="s">
-        <v>346</v>
+      <c r="B62" s="73" t="s">
+        <v>345</v>
       </c>
       <c r="C62" s="16">
         <v>3332230023</v>
@@ -10757,7 +10830,7 @@
       <c r="A63" s="5">
         <v>47</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="73" t="s">
         <v>283</v>
       </c>
       <c r="C63" s="18">
@@ -10896,8 +10969,8 @@
       <c r="A64" s="5">
         <v>60</v>
       </c>
-      <c r="B64" s="70" t="s">
-        <v>310</v>
+      <c r="B64" s="73" t="s">
+        <v>309</v>
       </c>
       <c r="C64" s="18">
         <v>3332230025</v>
@@ -11035,7 +11108,7 @@
       <c r="A65" s="5">
         <v>48</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="73" t="s">
         <v>300</v>
       </c>
       <c r="C65" s="18">
@@ -11174,8 +11247,8 @@
       <c r="A66" s="5">
         <v>49</v>
       </c>
-      <c r="B66" s="70" t="s">
-        <v>336</v>
+      <c r="B66" s="73" t="s">
+        <v>335</v>
       </c>
       <c r="C66" s="16">
         <v>3332230027</v>
@@ -11313,8 +11386,8 @@
       <c r="A67" s="5">
         <v>50</v>
       </c>
-      <c r="B67" s="70" t="s">
-        <v>332</v>
+      <c r="B67" s="73" t="s">
+        <v>331</v>
       </c>
       <c r="C67" s="16">
         <v>3332230028</v>
@@ -11452,7 +11525,7 @@
       <c r="A68" s="5">
         <v>51</v>
       </c>
-      <c r="B68" s="70" t="s">
+      <c r="B68" s="73" t="s">
         <v>277</v>
       </c>
       <c r="C68" s="16">
@@ -11591,8 +11664,8 @@
       <c r="A69" s="5">
         <v>52</v>
       </c>
-      <c r="B69" s="70" t="s">
-        <v>340</v>
+      <c r="B69" s="73" t="s">
+        <v>339</v>
       </c>
       <c r="C69" s="18">
         <v>3332230030</v>
@@ -11730,8 +11803,8 @@
       <c r="A70" s="5">
         <v>53</v>
       </c>
-      <c r="B70" s="70" t="s">
-        <v>313</v>
+      <c r="B70" s="73" t="s">
+        <v>312</v>
       </c>
       <c r="C70" s="18">
         <v>3332230031</v>
@@ -11869,8 +11942,8 @@
       <c r="A71" s="5">
         <v>54</v>
       </c>
-      <c r="B71" s="70" t="s">
-        <v>327</v>
+      <c r="B71" s="73" t="s">
+        <v>326</v>
       </c>
       <c r="C71" s="18">
         <v>3332230032</v>
@@ -11933,7 +12006,7 @@
         <f t="shared" si="33"/>
         <v>58.099999999999994</v>
       </c>
-      <c r="V71" s="65">
+      <c r="V71" s="64">
         <v>80</v>
       </c>
       <c r="W71" s="10">
@@ -12008,7 +12081,7 @@
       <c r="A72" s="5">
         <v>55</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="73" t="s">
         <v>288</v>
       </c>
       <c r="C72" s="16">
@@ -12147,8 +12220,8 @@
       <c r="A73" s="5">
         <v>56</v>
       </c>
-      <c r="B73" s="70" t="s">
-        <v>311</v>
+      <c r="B73" s="73" t="s">
+        <v>310</v>
       </c>
       <c r="C73" s="16">
         <v>3332230034</v>
@@ -12286,7 +12359,7 @@
       <c r="A74" s="5">
         <v>57</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="73" t="s">
         <v>304</v>
       </c>
       <c r="C74" s="16">
@@ -12337,7 +12410,7 @@
         <f t="shared" si="32"/>
         <v>60.8</v>
       </c>
-      <c r="R74" s="63">
+      <c r="R74" s="62">
         <v>89</v>
       </c>
       <c r="S74" s="10">
@@ -12425,8 +12498,8 @@
       <c r="A75" s="5">
         <v>104</v>
       </c>
-      <c r="B75" s="70" t="s">
-        <v>320</v>
+      <c r="B75" s="73" t="s">
+        <v>319</v>
       </c>
       <c r="C75" s="16">
         <v>3332230036</v>
@@ -12565,7 +12638,7 @@
       <c r="A76" s="5">
         <v>58</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="73" t="s">
         <v>281</v>
       </c>
       <c r="C76" s="18">
@@ -12704,8 +12777,8 @@
       <c r="A77" s="5">
         <v>105</v>
       </c>
-      <c r="B77" s="70" t="s">
-        <v>312</v>
+      <c r="B77" s="73" t="s">
+        <v>311</v>
       </c>
       <c r="C77" s="16">
         <v>3332230038</v>
@@ -12844,8 +12917,8 @@
       <c r="A78" s="5">
         <v>59</v>
       </c>
-      <c r="B78" s="70" t="s">
-        <v>345</v>
+      <c r="B78" s="73" t="s">
+        <v>344</v>
       </c>
       <c r="C78" s="18">
         <v>3332230039</v>
@@ -12983,8 +13056,8 @@
       <c r="A79" s="5">
         <v>1</v>
       </c>
-      <c r="B79" s="70" t="s">
-        <v>363</v>
+      <c r="B79" s="73" t="s">
+        <v>362</v>
       </c>
       <c r="C79" s="16">
         <v>3332230040</v>
@@ -13122,7 +13195,7 @@
       <c r="A80" s="5">
         <v>13</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="73" t="s">
         <v>285</v>
       </c>
       <c r="C80" s="16">
@@ -13261,8 +13334,8 @@
       <c r="A81" s="5">
         <v>2</v>
       </c>
-      <c r="B81" s="70" t="s">
-        <v>322</v>
+      <c r="B81" s="73" t="s">
+        <v>321</v>
       </c>
       <c r="C81" s="16">
         <v>3332230042</v>
@@ -13400,7 +13473,7 @@
       <c r="A82" s="5">
         <v>14</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="73" t="s">
         <v>282</v>
       </c>
       <c r="C82" s="16">
@@ -13539,7 +13612,7 @@
       <c r="A83" s="5">
         <v>110</v>
       </c>
-      <c r="B83" s="70" t="s">
+      <c r="B83" s="73" t="s">
         <v>284</v>
       </c>
       <c r="C83" s="16">
@@ -13679,7 +13752,7 @@
       <c r="A84" s="5">
         <v>3</v>
       </c>
-      <c r="B84" s="70" t="s">
+      <c r="B84" s="73" t="s">
         <v>296</v>
       </c>
       <c r="C84" s="16">
@@ -13818,8 +13891,8 @@
       <c r="A85" s="5">
         <v>15</v>
       </c>
-      <c r="B85" s="70" t="s">
-        <v>359</v>
+      <c r="B85" s="73" t="s">
+        <v>358</v>
       </c>
       <c r="C85" s="16">
         <v>3332230046</v>
@@ -13957,8 +14030,8 @@
       <c r="A86" s="5">
         <v>16</v>
       </c>
-      <c r="B86" s="70" t="s">
-        <v>341</v>
+      <c r="B86" s="73" t="s">
+        <v>340</v>
       </c>
       <c r="C86" s="18">
         <v>3332230047</v>
@@ -14096,8 +14169,8 @@
       <c r="A87" s="5">
         <v>4</v>
       </c>
-      <c r="B87" s="70" t="s">
-        <v>318</v>
+      <c r="B87" s="73" t="s">
+        <v>317</v>
       </c>
       <c r="C87" s="18">
         <v>3332230048</v>
@@ -14235,8 +14308,8 @@
       <c r="A88" s="5">
         <v>109</v>
       </c>
-      <c r="B88" s="70" t="s">
-        <v>367</v>
+      <c r="B88" s="73" t="s">
+        <v>366</v>
       </c>
       <c r="C88" s="16">
         <v>3332230049</v>
@@ -14375,8 +14448,8 @@
       <c r="A89" s="5">
         <v>5</v>
       </c>
-      <c r="B89" s="70" t="s">
-        <v>369</v>
+      <c r="B89" s="73" t="s">
+        <v>368</v>
       </c>
       <c r="C89" s="18">
         <v>3332230050</v>
@@ -14514,8 +14587,8 @@
       <c r="A90" s="5">
         <v>17</v>
       </c>
-      <c r="B90" s="70" t="s">
-        <v>323</v>
+      <c r="B90" s="73" t="s">
+        <v>322</v>
       </c>
       <c r="C90" s="18">
         <v>3332230051</v>
@@ -14653,7 +14726,7 @@
       <c r="A91" s="5">
         <v>6</v>
       </c>
-      <c r="B91" s="70"/>
+      <c r="B91" s="73"/>
       <c r="C91" s="18">
         <v>3332230052</v>
       </c>
@@ -14790,8 +14863,8 @@
       <c r="A92" s="5">
         <v>18</v>
       </c>
-      <c r="B92" s="70" t="s">
-        <v>321</v>
+      <c r="B92" s="73" t="s">
+        <v>320</v>
       </c>
       <c r="C92" s="18">
         <v>3332230053</v>
@@ -14929,8 +15002,8 @@
       <c r="A93" s="5">
         <v>111</v>
       </c>
-      <c r="B93" s="70" t="s">
-        <v>333</v>
+      <c r="B93" s="73" t="s">
+        <v>332</v>
       </c>
       <c r="C93" s="16">
         <v>3332230054</v>
@@ -15069,8 +15142,8 @@
       <c r="A94" s="5">
         <v>108</v>
       </c>
-      <c r="B94" s="70" t="s">
-        <v>314</v>
+      <c r="B94" s="73" t="s">
+        <v>313</v>
       </c>
       <c r="C94" s="18">
         <v>3332230055</v>
@@ -15345,6 +15418,9 @@
       <c r="A96" s="5">
         <v>7</v>
       </c>
+      <c r="B96" s="74" t="s">
+        <v>394</v>
+      </c>
       <c r="C96" s="16">
         <v>3332230057</v>
       </c>
@@ -15481,8 +15557,8 @@
       <c r="A97" s="5">
         <v>117</v>
       </c>
-      <c r="B97" s="70" t="s">
-        <v>385</v>
+      <c r="B97" s="73" t="s">
+        <v>384</v>
       </c>
       <c r="C97" s="16">
         <v>3332230058</v>
@@ -15620,8 +15696,8 @@
       <c r="A98" s="5">
         <v>8</v>
       </c>
-      <c r="B98" s="70" t="s">
-        <v>352</v>
+      <c r="B98" s="73" t="s">
+        <v>351</v>
       </c>
       <c r="C98" s="16">
         <v>3332230059</v>
@@ -15759,7 +15835,7 @@
       <c r="A99" s="5">
         <v>19</v>
       </c>
-      <c r="B99" s="70" t="s">
+      <c r="B99" s="73" t="s">
         <v>286</v>
       </c>
       <c r="C99" s="16">
@@ -15899,7 +15975,7 @@
       <c r="A100" s="5">
         <v>20</v>
       </c>
-      <c r="B100" s="70"/>
+      <c r="B100" s="73"/>
       <c r="C100" s="16">
         <v>3332230061</v>
       </c>
@@ -15987,13 +16063,13 @@
         <f t="shared" si="46"/>
         <v>51.4</v>
       </c>
-      <c r="AD100" s="58">
+      <c r="AD100" s="57">
         <v>67</v>
       </c>
-      <c r="AE100" s="61">
+      <c r="AE100" s="60">
         <v>70</v>
       </c>
-      <c r="AF100" s="61">
+      <c r="AF100" s="60">
         <v>87</v>
       </c>
       <c r="AG100" s="3">
@@ -16036,8 +16112,8 @@
       <c r="A101" s="5">
         <v>118</v>
       </c>
-      <c r="B101" s="70" t="s">
-        <v>355</v>
+      <c r="B101" s="73" t="s">
+        <v>354</v>
       </c>
       <c r="C101" s="18">
         <v>3332230062</v>
@@ -16126,13 +16202,13 @@
         <f t="shared" si="46"/>
         <v>50.8</v>
       </c>
-      <c r="AD101" s="57">
+      <c r="AD101" s="56">
         <v>60</v>
       </c>
-      <c r="AE101" s="59">
+      <c r="AE101" s="58">
         <v>76</v>
       </c>
-      <c r="AF101" s="59">
+      <c r="AF101" s="58">
         <v>80</v>
       </c>
       <c r="AG101" s="3">
@@ -16175,8 +16251,8 @@
       <c r="A102" s="5">
         <v>21</v>
       </c>
-      <c r="B102" s="70" t="s">
-        <v>325</v>
+      <c r="B102" s="73" t="s">
+        <v>324</v>
       </c>
       <c r="C102" s="16">
         <v>3332230063</v>
@@ -16314,7 +16390,7 @@
       <c r="A103" s="5">
         <v>119</v>
       </c>
-      <c r="B103" s="70"/>
+      <c r="B103" s="73"/>
       <c r="C103" s="18">
         <v>3332230064</v>
       </c>
@@ -16452,8 +16528,8 @@
       <c r="A104" s="5">
         <v>120</v>
       </c>
-      <c r="B104" s="70" t="s">
-        <v>343</v>
+      <c r="B104" s="73" t="s">
+        <v>342</v>
       </c>
       <c r="C104" s="18">
         <v>3332230065</v>
@@ -16592,7 +16668,7 @@
       <c r="A105" s="5">
         <v>22</v>
       </c>
-      <c r="B105" s="70"/>
+      <c r="B105" s="73"/>
       <c r="C105" s="18">
         <v>3332230066</v>
       </c>
@@ -16729,8 +16805,8 @@
       <c r="A106" s="5">
         <v>121</v>
       </c>
-      <c r="B106" s="70" t="s">
-        <v>365</v>
+      <c r="B106" s="73" t="s">
+        <v>364</v>
       </c>
       <c r="C106" s="16">
         <v>3332230067</v>
@@ -16869,8 +16945,8 @@
       <c r="A107" s="5">
         <v>122</v>
       </c>
-      <c r="B107" s="70" t="s">
-        <v>377</v>
+      <c r="B107" s="73" t="s">
+        <v>376</v>
       </c>
       <c r="C107" s="16">
         <v>3332230068</v>
@@ -17008,7 +17084,9 @@
       <c r="A108" s="5">
         <v>112</v>
       </c>
-      <c r="B108" s="70"/>
+      <c r="B108" s="73" t="s">
+        <v>402</v>
+      </c>
       <c r="C108" s="18">
         <v>3332230069</v>
       </c>
@@ -17146,8 +17224,8 @@
       <c r="A109" s="5">
         <v>23</v>
       </c>
-      <c r="B109" s="70" t="s">
-        <v>334</v>
+      <c r="B109" s="73" t="s">
+        <v>333</v>
       </c>
       <c r="C109" s="18">
         <v>3332230070</v>
@@ -17285,6 +17363,9 @@
       <c r="A110" s="5">
         <v>123</v>
       </c>
+      <c r="B110" s="74" t="s">
+        <v>388</v>
+      </c>
       <c r="C110" s="16">
         <v>3332230071</v>
       </c>
@@ -17557,8 +17638,8 @@
       <c r="A112" s="5">
         <v>24</v>
       </c>
-      <c r="B112" s="70" t="s">
-        <v>373</v>
+      <c r="B112" s="73" t="s">
+        <v>372</v>
       </c>
       <c r="C112" s="18">
         <v>3332230073</v>
@@ -17696,8 +17777,8 @@
       <c r="A113" s="5">
         <v>25</v>
       </c>
-      <c r="B113" s="70" t="s">
-        <v>372</v>
+      <c r="B113" s="73" t="s">
+        <v>371</v>
       </c>
       <c r="C113" s="16">
         <v>3332230074</v>
@@ -17971,8 +18052,8 @@
       <c r="A115" s="5">
         <v>12</v>
       </c>
-      <c r="B115" s="70" t="s">
-        <v>329</v>
+      <c r="B115" s="73" t="s">
+        <v>328</v>
       </c>
       <c r="C115" s="18">
         <v>3332230077</v>
@@ -18110,7 +18191,7 @@
       <c r="A116" s="5">
         <v>125</v>
       </c>
-      <c r="B116" s="70" t="s">
+      <c r="B116" s="73" t="s">
         <v>289</v>
       </c>
       <c r="C116" s="18">
@@ -18249,7 +18330,9 @@
       <c r="A117" s="5">
         <v>10</v>
       </c>
-      <c r="B117" s="70"/>
+      <c r="B117" s="73" t="s">
+        <v>392</v>
+      </c>
       <c r="C117" s="18">
         <v>3332230079</v>
       </c>
@@ -18386,8 +18469,8 @@
       <c r="A118" s="5">
         <v>11</v>
       </c>
-      <c r="B118" s="70" t="s">
-        <v>348</v>
+      <c r="B118" s="73" t="s">
+        <v>347</v>
       </c>
       <c r="C118" s="18">
         <v>3332230080</v>
@@ -18525,8 +18608,8 @@
       <c r="A119" s="5">
         <v>71</v>
       </c>
-      <c r="B119" s="70" t="s">
-        <v>374</v>
+      <c r="B119" s="73" t="s">
+        <v>373</v>
       </c>
       <c r="C119" s="18">
         <v>3332230081</v>
@@ -18664,8 +18747,8 @@
       <c r="A120" s="5">
         <v>27</v>
       </c>
-      <c r="B120" s="70" t="s">
-        <v>347</v>
+      <c r="B120" s="73" t="s">
+        <v>346</v>
       </c>
       <c r="C120" s="16">
         <v>3332230082</v>
@@ -18803,8 +18886,8 @@
       <c r="A121" s="5">
         <v>72</v>
       </c>
-      <c r="B121" s="70" t="s">
-        <v>305</v>
+      <c r="B121" s="73" t="s">
+        <v>393</v>
       </c>
       <c r="C121" s="18">
         <v>3332230083</v>
@@ -19215,8 +19298,8 @@
       <c r="A124" s="5">
         <v>74</v>
       </c>
-      <c r="B124" s="70" t="s">
-        <v>328</v>
+      <c r="B124" s="73" t="s">
+        <v>327</v>
       </c>
       <c r="C124" s="16">
         <v>3332230086</v>
@@ -19354,8 +19437,8 @@
       <c r="A125" s="5">
         <v>75</v>
       </c>
-      <c r="B125" s="70" t="s">
-        <v>317</v>
+      <c r="B125" s="73" t="s">
+        <v>316</v>
       </c>
       <c r="C125" s="16">
         <v>3332230087</v>
@@ -19493,7 +19576,9 @@
       <c r="A126" s="5">
         <v>76</v>
       </c>
-      <c r="B126" s="70"/>
+      <c r="B126" s="73" t="s">
+        <v>396</v>
+      </c>
       <c r="C126" s="18">
         <v>3332230088</v>
       </c>
@@ -19630,8 +19715,8 @@
       <c r="A127" s="5">
         <v>77</v>
       </c>
-      <c r="B127" s="70" t="s">
-        <v>354</v>
+      <c r="B127" s="73" t="s">
+        <v>353</v>
       </c>
       <c r="C127" s="18">
         <v>3332230089</v>
@@ -19769,8 +19854,8 @@
       <c r="A128" s="5">
         <v>78</v>
       </c>
-      <c r="B128" s="70" t="s">
-        <v>361</v>
+      <c r="B128" s="73" t="s">
+        <v>360</v>
       </c>
       <c r="C128" s="18">
         <v>3332230090</v>
@@ -19908,7 +19993,9 @@
       <c r="A129" s="5">
         <v>28</v>
       </c>
-      <c r="B129" s="70"/>
+      <c r="B129" s="73" t="s">
+        <v>286</v>
+      </c>
       <c r="C129" s="18">
         <v>3332230091</v>
       </c>
@@ -20045,8 +20132,8 @@
       <c r="A130" s="5">
         <v>79</v>
       </c>
-      <c r="B130" s="70" t="s">
-        <v>326</v>
+      <c r="B130" s="73" t="s">
+        <v>325</v>
       </c>
       <c r="C130" s="16">
         <v>3332230092</v>
@@ -20184,6 +20271,9 @@
       <c r="A131" s="5">
         <v>80</v>
       </c>
+      <c r="B131" s="74" t="s">
+        <v>398</v>
+      </c>
       <c r="C131" s="16">
         <v>3332230093</v>
       </c>
@@ -20320,6 +20410,9 @@
       <c r="A132" s="5">
         <v>81</v>
       </c>
+      <c r="B132" s="74" t="s">
+        <v>387</v>
+      </c>
       <c r="C132" s="16">
         <v>3332230094</v>
       </c>
@@ -20456,8 +20549,8 @@
       <c r="A133" s="5">
         <v>82</v>
       </c>
-      <c r="B133" s="70" t="s">
-        <v>384</v>
+      <c r="B133" s="73" t="s">
+        <v>383</v>
       </c>
       <c r="C133" s="18">
         <v>3332230095</v>
@@ -20595,8 +20688,8 @@
       <c r="A134" s="5">
         <v>83</v>
       </c>
-      <c r="B134" s="70" t="s">
-        <v>357</v>
+      <c r="B134" s="73" t="s">
+        <v>356</v>
       </c>
       <c r="C134" s="18">
         <v>3332230096</v>
@@ -20734,8 +20827,8 @@
       <c r="A135" s="5">
         <v>84</v>
       </c>
-      <c r="B135" s="70" t="s">
-        <v>381</v>
+      <c r="B135" s="73" t="s">
+        <v>380</v>
       </c>
       <c r="C135" s="18">
         <v>3332230097</v>
@@ -20873,8 +20966,8 @@
       <c r="A136" s="5">
         <v>85</v>
       </c>
-      <c r="B136" s="70" t="s">
-        <v>382</v>
+      <c r="B136" s="73" t="s">
+        <v>381</v>
       </c>
       <c r="C136" s="16">
         <v>3332230098</v>
@@ -21013,8 +21106,8 @@
       <c r="A137" s="5">
         <v>86</v>
       </c>
-      <c r="B137" s="70" t="s">
-        <v>339</v>
+      <c r="B137" s="73" t="s">
+        <v>338</v>
       </c>
       <c r="C137" s="16">
         <v>3332230099</v>
@@ -21080,10 +21173,10 @@
       <c r="V137" s="10">
         <v>82</v>
       </c>
-      <c r="W137" s="62">
+      <c r="W137" s="61">
         <v>80</v>
       </c>
-      <c r="X137" s="62">
+      <c r="X137" s="61">
         <v>100</v>
       </c>
       <c r="Y137" s="3">
@@ -21153,8 +21246,8 @@
       <c r="A138" s="5">
         <v>101</v>
       </c>
-      <c r="B138" s="70" t="s">
-        <v>351</v>
+      <c r="B138" s="73" t="s">
+        <v>350</v>
       </c>
       <c r="C138" s="18">
         <v>3332230100</v>
@@ -21217,13 +21310,13 @@
         <f t="shared" si="56"/>
         <v>53.2</v>
       </c>
-      <c r="V138" s="58">
+      <c r="V138" s="57">
         <v>65</v>
       </c>
-      <c r="W138" s="62">
+      <c r="W138" s="61">
         <v>78</v>
       </c>
-      <c r="X138" s="62">
+      <c r="X138" s="61">
         <v>100</v>
       </c>
       <c r="Y138" s="3">
@@ -21353,13 +21446,13 @@
         <f t="shared" si="56"/>
         <v>56.05</v>
       </c>
-      <c r="V139" s="58">
+      <c r="V139" s="57">
         <v>0</v>
       </c>
-      <c r="W139" s="62">
+      <c r="W139" s="61">
         <v>0</v>
       </c>
-      <c r="X139" s="62">
+      <c r="X139" s="61">
         <v>0</v>
       </c>
       <c r="Y139" s="3">
@@ -21565,8 +21658,8 @@
       <c r="A141" s="5">
         <v>88</v>
       </c>
-      <c r="B141" s="70" t="s">
-        <v>378</v>
+      <c r="B141" s="73" t="s">
+        <v>377</v>
       </c>
       <c r="C141" s="18">
         <v>3332230103</v>
@@ -21705,8 +21798,8 @@
       <c r="A142" s="5">
         <v>89</v>
       </c>
-      <c r="B142" s="70" t="s">
-        <v>366</v>
+      <c r="B142" s="73" t="s">
+        <v>365</v>
       </c>
       <c r="C142" s="18">
         <v>3332230104</v>
@@ -21845,7 +21938,9 @@
       <c r="A143" s="5">
         <v>90</v>
       </c>
-      <c r="B143" s="70"/>
+      <c r="B143" s="73" t="s">
+        <v>400</v>
+      </c>
       <c r="C143" s="18">
         <v>3332230105</v>
       </c>
@@ -21982,8 +22077,8 @@
       <c r="A144" s="5">
         <v>128</v>
       </c>
-      <c r="B144" s="70" t="s">
-        <v>308</v>
+      <c r="B144" s="73" t="s">
+        <v>307</v>
       </c>
       <c r="C144" s="16">
         <v>3332230106</v>
@@ -22121,8 +22216,8 @@
       <c r="A145" s="5">
         <v>129</v>
       </c>
-      <c r="B145" s="70" t="s">
-        <v>362</v>
+      <c r="B145" s="73" t="s">
+        <v>361</v>
       </c>
       <c r="C145" s="16">
         <v>3332230107</v>
@@ -22261,8 +22356,8 @@
       <c r="A146" s="5">
         <v>91</v>
       </c>
-      <c r="B146" s="70" t="s">
-        <v>364</v>
+      <c r="B146" s="73" t="s">
+        <v>363</v>
       </c>
       <c r="C146" s="16">
         <v>3332230108</v>
@@ -22400,8 +22495,8 @@
       <c r="A147" s="5">
         <v>92</v>
       </c>
-      <c r="B147" s="70" t="s">
-        <v>315</v>
+      <c r="B147" s="73" t="s">
+        <v>314</v>
       </c>
       <c r="C147" s="16">
         <v>3332230109</v>
@@ -22539,7 +22634,7 @@
       <c r="A148" s="5">
         <v>93</v>
       </c>
-      <c r="B148" s="70" t="s">
+      <c r="B148" s="73" t="s">
         <v>297</v>
       </c>
       <c r="C148" s="16">
@@ -22679,8 +22774,8 @@
       <c r="A149" s="5">
         <v>94</v>
       </c>
-      <c r="B149" s="70" t="s">
-        <v>371</v>
+      <c r="B149" s="73" t="s">
+        <v>370</v>
       </c>
       <c r="C149" s="18">
         <v>3332230111</v>
@@ -22694,10 +22789,10 @@
       <c r="F149" s="21">
         <v>72</v>
       </c>
-      <c r="G149" s="60">
+      <c r="G149" s="59">
         <v>76</v>
       </c>
-      <c r="H149" s="60">
+      <c r="H149" s="59">
         <v>100</v>
       </c>
       <c r="I149" s="3">
@@ -22819,8 +22914,8 @@
       <c r="A150" s="5">
         <v>95</v>
       </c>
-      <c r="B150" s="70" t="s">
-        <v>324</v>
+      <c r="B150" s="73" t="s">
+        <v>323</v>
       </c>
       <c r="C150" s="18">
         <v>3332230112</v>
@@ -22831,13 +22926,13 @@
       <c r="E150" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F150" s="57">
+      <c r="F150" s="56">
         <v>63</v>
       </c>
-      <c r="G150" s="59">
+      <c r="G150" s="58">
         <v>80</v>
       </c>
-      <c r="H150" s="59">
+      <c r="H150" s="58">
         <v>100</v>
       </c>
       <c r="I150" s="3">
@@ -22886,10 +22981,10 @@
       <c r="V150" s="10">
         <v>65</v>
       </c>
-      <c r="W150" s="62">
+      <c r="W150" s="61">
         <v>75</v>
       </c>
-      <c r="X150" s="62">
+      <c r="X150" s="61">
         <v>100</v>
       </c>
       <c r="Y150" s="3">
@@ -22899,10 +22994,10 @@
       <c r="Z150" s="21">
         <v>64</v>
       </c>
-      <c r="AA150" s="60">
+      <c r="AA150" s="59">
         <v>78</v>
       </c>
-      <c r="AB150" s="60">
+      <c r="AB150" s="59">
         <v>100</v>
       </c>
       <c r="AC150" s="3">
@@ -22912,10 +23007,10 @@
       <c r="AD150" s="10">
         <v>75</v>
       </c>
-      <c r="AE150" s="62">
+      <c r="AE150" s="61">
         <v>77</v>
       </c>
-      <c r="AF150" s="62">
+      <c r="AF150" s="61">
         <v>100</v>
       </c>
       <c r="AG150" s="3">
@@ -22925,10 +23020,10 @@
       <c r="AH150" s="21">
         <v>70</v>
       </c>
-      <c r="AI150" s="60">
+      <c r="AI150" s="59">
         <v>75</v>
       </c>
-      <c r="AJ150" s="60">
+      <c r="AJ150" s="59">
         <v>100</v>
       </c>
       <c r="AK150" s="3">
@@ -22958,7 +23053,9 @@
       <c r="A151" s="5">
         <v>29</v>
       </c>
-      <c r="B151" s="70"/>
+      <c r="B151" s="73" t="s">
+        <v>399</v>
+      </c>
       <c r="C151" s="18">
         <v>3332230113</v>
       </c>
@@ -22968,13 +23065,13 @@
       <c r="E151" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F151" s="58">
+      <c r="F151" s="57">
         <v>22</v>
       </c>
-      <c r="G151" s="61">
+      <c r="G151" s="60">
         <v>76</v>
       </c>
-      <c r="H151" s="61">
+      <c r="H151" s="60">
         <v>60</v>
       </c>
       <c r="I151" s="3">
@@ -23020,52 +23117,52 @@
         <f t="shared" si="56"/>
         <v>55.519999999999996</v>
       </c>
-      <c r="V151" s="58">
+      <c r="V151" s="57">
         <v>72.5</v>
       </c>
-      <c r="W151" s="61">
+      <c r="W151" s="60">
         <v>77</v>
       </c>
-      <c r="X151" s="61">
+      <c r="X151" s="60">
         <v>98</v>
       </c>
       <c r="Y151" s="3">
         <f t="shared" si="62"/>
         <v>54.649999999999991</v>
       </c>
-      <c r="Z151" s="58">
+      <c r="Z151" s="57">
         <v>70</v>
       </c>
-      <c r="AA151" s="61">
+      <c r="AA151" s="60">
         <v>79</v>
       </c>
-      <c r="AB151" s="61">
+      <c r="AB151" s="60">
         <v>100</v>
       </c>
       <c r="AC151" s="3">
         <f t="shared" si="57"/>
         <v>54.7</v>
       </c>
-      <c r="AD151" s="58">
+      <c r="AD151" s="57">
         <v>75</v>
       </c>
-      <c r="AE151" s="61">
+      <c r="AE151" s="60">
         <v>78</v>
       </c>
-      <c r="AF151" s="61">
+      <c r="AF151" s="60">
         <v>80</v>
       </c>
       <c r="AG151" s="3">
         <f t="shared" si="58"/>
         <v>53.9</v>
       </c>
-      <c r="AH151" s="58">
+      <c r="AH151" s="57">
         <v>77</v>
       </c>
-      <c r="AI151" s="61">
+      <c r="AI151" s="60">
         <v>83</v>
       </c>
-      <c r="AJ151" s="61">
+      <c r="AJ151" s="60">
         <v>90</v>
       </c>
       <c r="AK151" s="3">
@@ -23095,7 +23192,7 @@
       <c r="A152" s="5">
         <v>96</v>
       </c>
-      <c r="B152" s="70" t="s">
+      <c r="B152" s="73" t="s">
         <v>279</v>
       </c>
       <c r="C152" s="18">
@@ -23159,52 +23256,52 @@
         <f t="shared" si="56"/>
         <v>53.2</v>
       </c>
-      <c r="V152" s="58">
+      <c r="V152" s="57">
         <v>64</v>
       </c>
-      <c r="W152" s="61">
+      <c r="W152" s="60">
         <v>77</v>
       </c>
-      <c r="X152" s="61">
+      <c r="X152" s="60">
         <v>100</v>
       </c>
       <c r="Y152" s="3">
         <f t="shared" si="62"/>
         <v>52.3</v>
       </c>
-      <c r="Z152" s="57">
+      <c r="Z152" s="56">
         <v>66</v>
       </c>
-      <c r="AA152" s="59">
+      <c r="AA152" s="58">
         <v>79</v>
       </c>
-      <c r="AB152" s="59">
+      <c r="AB152" s="58">
         <v>100</v>
       </c>
       <c r="AC152" s="3">
         <f t="shared" si="57"/>
         <v>53.5</v>
       </c>
-      <c r="AD152" s="58">
+      <c r="AD152" s="57">
         <v>68</v>
       </c>
-      <c r="AE152" s="61">
+      <c r="AE152" s="60">
         <v>79</v>
       </c>
-      <c r="AF152" s="61">
+      <c r="AF152" s="60">
         <v>100</v>
       </c>
       <c r="AG152" s="3">
         <f t="shared" si="58"/>
         <v>54.099999999999994</v>
       </c>
-      <c r="AH152" s="57">
+      <c r="AH152" s="56">
         <v>60</v>
       </c>
-      <c r="AI152" s="59">
+      <c r="AI152" s="58">
         <v>70</v>
       </c>
-      <c r="AJ152" s="59">
+      <c r="AJ152" s="58">
         <v>100</v>
       </c>
       <c r="AK152" s="3">
@@ -23235,7 +23332,7 @@
       <c r="A153" s="5">
         <v>97</v>
       </c>
-      <c r="B153" s="70" t="s">
+      <c r="B153" s="73" t="s">
         <v>278</v>
       </c>
       <c r="C153" s="16">
@@ -23375,7 +23472,9 @@
       <c r="A154" s="5">
         <v>98</v>
       </c>
-      <c r="B154" s="70"/>
+      <c r="B154" s="73" t="s">
+        <v>401</v>
+      </c>
       <c r="C154" s="16">
         <v>3332230116</v>
       </c>
@@ -23513,8 +23612,8 @@
       <c r="A155" s="5">
         <v>130</v>
       </c>
-      <c r="B155" s="70" t="s">
-        <v>325</v>
+      <c r="B155" s="73" t="s">
+        <v>324</v>
       </c>
       <c r="C155" s="18">
         <v>3332230117</v>
@@ -23652,8 +23751,8 @@
       <c r="A156" s="5">
         <v>99</v>
       </c>
-      <c r="B156" s="70" t="s">
-        <v>358</v>
+      <c r="B156" s="73" t="s">
+        <v>357</v>
       </c>
       <c r="C156" s="16">
         <v>3332230118</v>
@@ -24202,7 +24301,7 @@
       <c r="A160" s="5">
         <v>132</v>
       </c>
-      <c r="B160" s="70" t="s">
+      <c r="B160" s="73" t="s">
         <v>290</v>
       </c>
       <c r="C160" s="18">
@@ -24342,8 +24441,8 @@
       <c r="A161" s="5">
         <v>61</v>
       </c>
-      <c r="B161" s="70" t="s">
-        <v>307</v>
+      <c r="B161" s="73" t="s">
+        <v>306</v>
       </c>
       <c r="C161" s="16">
         <v>3332230124</v>
@@ -24481,8 +24580,8 @@
       <c r="A162" s="5">
         <v>64</v>
       </c>
-      <c r="B162" s="70" t="s">
-        <v>379</v>
+      <c r="B162" s="73" t="s">
+        <v>378</v>
       </c>
       <c r="C162" s="18">
         <v>3332230125</v>
@@ -24620,8 +24719,8 @@
       <c r="A163" s="5">
         <v>65</v>
       </c>
-      <c r="B163" s="70" t="s">
-        <v>356</v>
+      <c r="B163" s="73" t="s">
+        <v>355</v>
       </c>
       <c r="C163" s="18">
         <v>3332230126</v>
@@ -24723,7 +24822,7 @@
         <f t="shared" si="69"/>
         <v>52.599999999999994</v>
       </c>
-      <c r="AH163" s="67">
+      <c r="AH163" s="66">
         <v>83</v>
       </c>
       <c r="AI163" s="25">
@@ -24759,6 +24858,9 @@
       <c r="A164" s="5">
         <v>63</v>
       </c>
+      <c r="B164" s="74" t="s">
+        <v>376</v>
+      </c>
       <c r="C164" s="16">
         <v>3332230127</v>
       </c>
@@ -24859,7 +24961,7 @@
         <f t="shared" si="69"/>
         <v>54.7</v>
       </c>
-      <c r="AH164" s="66">
+      <c r="AH164" s="65">
         <v>79</v>
       </c>
       <c r="AI164" s="10">
@@ -24895,8 +24997,8 @@
       <c r="A165" s="5">
         <v>66</v>
       </c>
-      <c r="B165" s="70" t="s">
-        <v>375</v>
+      <c r="B165" s="73" t="s">
+        <v>374</v>
       </c>
       <c r="C165" s="18">
         <v>3332230128</v>
@@ -24998,13 +25100,13 @@
         <f t="shared" si="69"/>
         <v>52.8</v>
       </c>
-      <c r="AH165" s="67">
+      <c r="AH165" s="66">
         <v>70</v>
       </c>
-      <c r="AI165" s="67">
+      <c r="AI165" s="66">
         <v>80</v>
       </c>
-      <c r="AJ165" s="67">
+      <c r="AJ165" s="66">
         <v>100</v>
       </c>
       <c r="AK165" s="3">
@@ -25034,8 +25136,8 @@
       <c r="A166" s="5">
         <v>67</v>
       </c>
-      <c r="B166" s="70" t="s">
-        <v>386</v>
+      <c r="B166" s="73" t="s">
+        <v>385</v>
       </c>
       <c r="C166" s="16">
         <v>3332230129</v>
@@ -25174,7 +25276,7 @@
       <c r="A167" s="5">
         <v>68</v>
       </c>
-      <c r="B167" s="70" t="s">
+      <c r="B167" s="73" t="s">
         <v>280</v>
       </c>
       <c r="C167" s="16">
@@ -25313,8 +25415,8 @@
       <c r="A168" s="5">
         <v>107</v>
       </c>
-      <c r="B168" s="70" t="s">
-        <v>380</v>
+      <c r="B168" s="73" t="s">
+        <v>379</v>
       </c>
       <c r="C168" s="18">
         <v>3332230131</v>
@@ -25453,7 +25555,7 @@
       <c r="A169" s="5">
         <v>133</v>
       </c>
-      <c r="B169" s="70" t="s">
+      <c r="B169" s="73" t="s">
         <v>301</v>
       </c>
       <c r="C169" s="16">
@@ -25494,10 +25596,10 @@
       <c r="N169" s="10">
         <v>78</v>
       </c>
-      <c r="O169" s="62">
+      <c r="O169" s="61">
         <v>80</v>
       </c>
-      <c r="P169" s="62">
+      <c r="P169" s="61">
         <v>75</v>
       </c>
       <c r="Q169" s="3">
@@ -25507,10 +25609,10 @@
       <c r="R169" s="10">
         <v>69</v>
       </c>
-      <c r="S169" s="62">
+      <c r="S169" s="61">
         <v>77</v>
       </c>
-      <c r="T169" s="62">
+      <c r="T169" s="61">
         <v>100</v>
       </c>
       <c r="U169" s="3">
@@ -25520,10 +25622,10 @@
       <c r="V169" s="10">
         <v>75</v>
       </c>
-      <c r="W169" s="62">
+      <c r="W169" s="61">
         <v>80</v>
       </c>
-      <c r="X169" s="62">
+      <c r="X169" s="61">
         <v>100</v>
       </c>
       <c r="Y169" s="3">
@@ -25533,10 +25635,10 @@
       <c r="Z169" s="10">
         <v>63</v>
       </c>
-      <c r="AA169" s="62">
+      <c r="AA169" s="61">
         <v>80</v>
       </c>
-      <c r="AB169" s="62">
+      <c r="AB169" s="61">
         <v>100</v>
       </c>
       <c r="AC169" s="3">
@@ -25546,10 +25648,10 @@
       <c r="AD169" s="10">
         <v>74</v>
       </c>
-      <c r="AE169" s="62">
+      <c r="AE169" s="61">
         <v>78</v>
       </c>
-      <c r="AF169" s="62">
+      <c r="AF169" s="61">
         <v>100</v>
       </c>
       <c r="AG169" s="3">
@@ -25559,10 +25661,10 @@
       <c r="AH169" s="10">
         <v>75</v>
       </c>
-      <c r="AI169" s="62">
+      <c r="AI169" s="61">
         <v>80</v>
       </c>
-      <c r="AJ169" s="62">
+      <c r="AJ169" s="61">
         <v>80</v>
       </c>
       <c r="AK169" s="3">
@@ -25592,7 +25694,7 @@
       <c r="A170" s="5">
         <v>69</v>
       </c>
-      <c r="B170" s="70" t="s">
+      <c r="B170" s="73" t="s">
         <v>291</v>
       </c>
       <c r="C170" s="16">
@@ -25630,78 +25732,78 @@
         <f t="shared" si="65"/>
         <v>53.699999999999996</v>
       </c>
-      <c r="N170" s="58">
+      <c r="N170" s="57">
         <v>78</v>
       </c>
-      <c r="O170" s="61">
+      <c r="O170" s="60">
         <v>82</v>
       </c>
-      <c r="P170" s="61">
+      <c r="P170" s="60">
         <v>100</v>
       </c>
       <c r="Q170" s="3">
         <f t="shared" si="66"/>
         <v>58</v>
       </c>
-      <c r="R170" s="58">
+      <c r="R170" s="57">
         <v>79</v>
       </c>
-      <c r="S170" s="61">
+      <c r="S170" s="60">
         <v>77</v>
       </c>
-      <c r="T170" s="61">
+      <c r="T170" s="60">
         <v>95</v>
       </c>
       <c r="U170" s="3">
         <f t="shared" si="67"/>
         <v>56.3</v>
       </c>
-      <c r="V170" s="58">
+      <c r="V170" s="57">
         <v>85</v>
       </c>
-      <c r="W170" s="61">
+      <c r="W170" s="60">
         <v>75</v>
       </c>
-      <c r="X170" s="61">
+      <c r="X170" s="60">
         <v>100</v>
       </c>
       <c r="Y170" s="3">
         <f t="shared" si="62"/>
         <v>58</v>
       </c>
-      <c r="Z170" s="57">
+      <c r="Z170" s="56">
         <v>71</v>
       </c>
-      <c r="AA170" s="61">
+      <c r="AA170" s="60">
         <v>80</v>
       </c>
-      <c r="AB170" s="61">
+      <c r="AB170" s="60">
         <v>100</v>
       </c>
       <c r="AC170" s="3">
         <f t="shared" si="68"/>
         <v>55.3</v>
       </c>
-      <c r="AD170" s="58">
+      <c r="AD170" s="57">
         <v>77</v>
       </c>
-      <c r="AE170" s="61">
+      <c r="AE170" s="60">
         <v>76</v>
       </c>
-      <c r="AF170" s="61">
+      <c r="AF170" s="60">
         <v>100</v>
       </c>
       <c r="AG170" s="3">
         <f t="shared" si="69"/>
         <v>55.9</v>
       </c>
-      <c r="AH170" s="58">
+      <c r="AH170" s="57">
         <v>87</v>
       </c>
-      <c r="AI170" s="61">
+      <c r="AI170" s="60">
         <v>78</v>
       </c>
-      <c r="AJ170" s="61">
+      <c r="AJ170" s="60">
         <v>98</v>
       </c>
       <c r="AK170" s="3">
@@ -25731,8 +25833,8 @@
       <c r="A171" s="5">
         <v>70</v>
       </c>
-      <c r="B171" s="70" t="s">
-        <v>337</v>
+      <c r="B171" s="73" t="s">
+        <v>336</v>
       </c>
       <c r="C171" s="18">
         <v>3332230134</v>
@@ -25769,78 +25871,78 @@
         <f t="shared" si="65"/>
         <v>57.099999999999994</v>
       </c>
-      <c r="N171" s="58">
+      <c r="N171" s="57">
         <v>76</v>
       </c>
-      <c r="O171" s="61">
+      <c r="O171" s="60">
         <v>68</v>
       </c>
-      <c r="P171" s="61">
+      <c r="P171" s="60">
         <v>90</v>
       </c>
       <c r="Q171" s="3">
         <f t="shared" si="66"/>
         <v>52.2</v>
       </c>
-      <c r="R171" s="58">
+      <c r="R171" s="57">
         <v>74</v>
       </c>
-      <c r="S171" s="61">
+      <c r="S171" s="60">
         <v>78</v>
       </c>
-      <c r="T171" s="61">
+      <c r="T171" s="60">
         <v>95</v>
       </c>
       <c r="U171" s="3">
         <f t="shared" si="67"/>
         <v>55.099999999999994</v>
       </c>
-      <c r="V171" s="58">
+      <c r="V171" s="57">
         <v>79</v>
       </c>
-      <c r="W171" s="61">
+      <c r="W171" s="60">
         <v>80</v>
       </c>
-      <c r="X171" s="61">
+      <c r="X171" s="60">
         <v>75</v>
       </c>
       <c r="Y171" s="3">
         <f t="shared" si="62"/>
         <v>55.2</v>
       </c>
-      <c r="Z171" s="58">
+      <c r="Z171" s="57">
         <v>69</v>
       </c>
-      <c r="AA171" s="61">
+      <c r="AA171" s="60">
         <v>90</v>
       </c>
-      <c r="AB171" s="61">
+      <c r="AB171" s="60">
         <v>100</v>
       </c>
       <c r="AC171" s="3">
         <f t="shared" si="68"/>
         <v>57.7</v>
       </c>
-      <c r="AD171" s="58">
+      <c r="AD171" s="57">
         <v>65</v>
       </c>
-      <c r="AE171" s="61">
+      <c r="AE171" s="60">
         <v>90</v>
       </c>
-      <c r="AF171" s="61">
+      <c r="AF171" s="60">
         <v>100</v>
       </c>
       <c r="AG171" s="3">
         <f t="shared" si="69"/>
         <v>56.5</v>
       </c>
-      <c r="AH171" s="58">
+      <c r="AH171" s="57">
         <v>80</v>
       </c>
-      <c r="AI171" s="61">
+      <c r="AI171" s="60">
         <v>90</v>
       </c>
-      <c r="AJ171" s="61">
+      <c r="AJ171" s="60">
         <v>100</v>
       </c>
       <c r="AK171" s="3">
@@ -25870,7 +25972,7 @@
       <c r="A172" s="5">
         <v>134</v>
       </c>
-      <c r="B172" s="70" t="s">
+      <c r="B172" s="73" t="s">
         <v>294</v>
       </c>
       <c r="C172" s="16">
@@ -26009,7 +26111,7 @@
       <c r="A173" s="5">
         <v>135</v>
       </c>
-      <c r="B173" s="70" t="s">
+      <c r="B173" s="73" t="s">
         <v>302</v>
       </c>
       <c r="C173" s="16">
@@ -26149,7 +26251,7 @@
       <c r="A174" s="5">
         <v>62</v>
       </c>
-      <c r="B174" s="70" t="s">
+      <c r="B174" s="73" t="s">
         <v>299</v>
       </c>
       <c r="C174" s="16">
@@ -26288,14 +26390,14 @@
       <c r="A175" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B175" s="50"/>
-      <c r="C175" s="51" t="s">
+      <c r="B175" s="75"/>
+      <c r="C175" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D175" s="54" t="s">
+      <c r="D175" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="56" t="s">
+      <c r="E175" s="55" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="3">
@@ -26420,10 +26522,10 @@
       <c r="AP175" s="3">
         <v>5</v>
       </c>
-      <c r="AQ175" s="69"/>
+      <c r="AQ175" s="68"/>
     </row>
     <row r="176" spans="1:43" ht="15.75" customHeight="1">
-      <c r="B176" s="50"/>
+      <c r="B176" s="75"/>
       <c r="F176" s="24"/>
       <c r="G176" s="24"/>
       <c r="H176" s="24"/>
@@ -26458,7 +26560,7 @@
       <c r="AK176" s="24"/>
     </row>
     <row r="177" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B177" s="50"/>
+      <c r="B177" s="75"/>
       <c r="F177" s="24"/>
       <c r="G177" s="24"/>
       <c r="H177" s="24"/>
@@ -26493,7 +26595,7 @@
       <c r="AK177" s="24"/>
     </row>
     <row r="178" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B178" s="50"/>
+      <c r="B178" s="75"/>
       <c r="F178" s="24"/>
       <c r="G178" s="24"/>
       <c r="H178" s="24"/>
@@ -26528,7 +26630,7 @@
       <c r="AK178" s="24"/>
     </row>
     <row r="179" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B179" s="50"/>
+      <c r="B179" s="75"/>
       <c r="F179" s="24"/>
       <c r="G179" s="24"/>
       <c r="H179" s="24"/>
@@ -26563,7 +26665,7 @@
       <c r="AK179" s="24"/>
     </row>
     <row r="180" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B180" s="50"/>
+      <c r="B180" s="75"/>
       <c r="F180" s="24"/>
       <c r="G180" s="24"/>
       <c r="H180" s="24"/>
@@ -26598,7 +26700,7 @@
       <c r="AK180" s="24"/>
     </row>
     <row r="181" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B181" s="50"/>
+      <c r="B181" s="75"/>
       <c r="F181" s="24"/>
       <c r="G181" s="24"/>
       <c r="H181" s="24"/>
@@ -26633,7 +26735,7 @@
       <c r="AK181" s="24"/>
     </row>
     <row r="182" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B182" s="50"/>
+      <c r="B182" s="75"/>
       <c r="F182" s="24"/>
       <c r="G182" s="24"/>
       <c r="H182" s="24"/>
@@ -26668,7 +26770,7 @@
       <c r="AK182" s="24"/>
     </row>
     <row r="183" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B183" s="50"/>
+      <c r="B183" s="75"/>
       <c r="F183" s="24"/>
       <c r="G183" s="24"/>
       <c r="H183" s="24"/>
@@ -26703,7 +26805,7 @@
       <c r="AK183" s="24"/>
     </row>
     <row r="184" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B184" s="50"/>
+      <c r="B184" s="75"/>
       <c r="F184" s="24"/>
       <c r="G184" s="24"/>
       <c r="H184" s="24"/>
@@ -26738,7 +26840,7 @@
       <c r="AK184" s="24"/>
     </row>
     <row r="185" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B185" s="50"/>
+      <c r="B185" s="75"/>
       <c r="F185" s="24"/>
       <c r="G185" s="24"/>
       <c r="H185" s="24"/>
@@ -26773,7 +26875,7 @@
       <c r="AK185" s="24"/>
     </row>
     <row r="186" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B186" s="50"/>
+      <c r="B186" s="75"/>
       <c r="F186" s="24"/>
       <c r="G186" s="24"/>
       <c r="H186" s="24"/>
@@ -26808,7 +26910,7 @@
       <c r="AK186" s="24"/>
     </row>
     <row r="187" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B187" s="50"/>
+      <c r="B187" s="75"/>
       <c r="F187" s="24"/>
       <c r="G187" s="24"/>
       <c r="H187" s="24"/>
@@ -26843,7 +26945,7 @@
       <c r="AK187" s="24"/>
     </row>
     <row r="188" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B188" s="50"/>
+      <c r="B188" s="75"/>
       <c r="F188" s="24"/>
       <c r="G188" s="24"/>
       <c r="H188" s="24"/>
@@ -26878,7 +26980,7 @@
       <c r="AK188" s="24"/>
     </row>
     <row r="189" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B189" s="50"/>
+      <c r="B189" s="75"/>
       <c r="F189" s="24"/>
       <c r="G189" s="24"/>
       <c r="H189" s="24"/>
@@ -26913,7 +27015,7 @@
       <c r="AK189" s="24"/>
     </row>
     <row r="190" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B190" s="50"/>
+      <c r="B190" s="75"/>
       <c r="F190" s="24"/>
       <c r="G190" s="24"/>
       <c r="H190" s="24"/>
@@ -26948,7 +27050,7 @@
       <c r="AK190" s="24"/>
     </row>
     <row r="191" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B191" s="50"/>
+      <c r="B191" s="75"/>
       <c r="F191" s="24"/>
       <c r="G191" s="24"/>
       <c r="H191" s="24"/>
@@ -26983,7 +27085,7 @@
       <c r="AK191" s="24"/>
     </row>
     <row r="192" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B192" s="50"/>
+      <c r="B192" s="75"/>
       <c r="F192" s="24"/>
       <c r="G192" s="24"/>
       <c r="H192" s="24"/>
@@ -27018,7 +27120,7 @@
       <c r="AK192" s="24"/>
     </row>
     <row r="193" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B193" s="50"/>
+      <c r="B193" s="75"/>
       <c r="F193" s="24"/>
       <c r="G193" s="24"/>
       <c r="H193" s="24"/>
@@ -27053,7 +27155,7 @@
       <c r="AK193" s="24"/>
     </row>
     <row r="194" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B194" s="50"/>
+      <c r="B194" s="75"/>
       <c r="F194" s="24"/>
       <c r="G194" s="24"/>
       <c r="H194" s="24"/>
@@ -27088,7 +27190,7 @@
       <c r="AK194" s="24"/>
     </row>
     <row r="195" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B195" s="50"/>
+      <c r="B195" s="75"/>
       <c r="F195" s="24"/>
       <c r="G195" s="24"/>
       <c r="H195" s="24"/>
@@ -27123,7 +27225,7 @@
       <c r="AK195" s="24"/>
     </row>
     <row r="196" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B196" s="50"/>
+      <c r="B196" s="75"/>
       <c r="F196" s="24"/>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
@@ -27158,7 +27260,7 @@
       <c r="AK196" s="24"/>
     </row>
     <row r="197" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B197" s="51"/>
+      <c r="B197" s="76"/>
       <c r="F197" s="24"/>
       <c r="G197" s="24"/>
       <c r="H197" s="24"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EA9212-85C5-443F-8313-31E9BE56E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8913DC-01F7-463D-8091-BAE4A4B96B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="405">
   <si>
     <t>No</t>
   </si>
@@ -1250,6 +1250,9 @@
   <si>
     <t>2.10.2004</t>
   </si>
+  <si>
+    <t>15.2.2004</t>
+  </si>
 </sst>
 </file>
 
@@ -2102,10 +2105,10 @@
   <dimension ref="A1:AQ785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3778,122 +3781,122 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.3</v>
+        <v>60.800000000000004</v>
       </c>
       <c r="J13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K13" s="21">
         <v>96</v>
       </c>
       <c r="L13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.3</v>
+        <v>64.3</v>
       </c>
       <c r="N13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.8</v>
+        <v>61.2</v>
       </c>
       <c r="R13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.4</v>
+        <v>60.4</v>
       </c>
       <c r="V13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>61.1</v>
+        <v>60.399999999999991</v>
       </c>
       <c r="Z13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="AD13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AE13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>60.300000000000004</v>
+        <v>62.2</v>
       </c>
       <c r="AH13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AI13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3901,18 +3904,18 @@
       </c>
       <c r="AK13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.3</v>
+        <v>62.5</v>
       </c>
       <c r="AL13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.3125</v>
+        <v>61.6875</v>
       </c>
       <c r="AM13" s="21">
         <v>80</v>
       </c>
       <c r="AN13" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.3125</v>
+        <v>86.6875</v>
       </c>
       <c r="AO13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4501,62 +4504,62 @@
       </c>
       <c r="G18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.599999999999994</v>
+        <v>61.8</v>
       </c>
       <c r="J18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="21">
         <v>96</v>
       </c>
       <c r="L18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.599999999999994</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="N18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.2</v>
+        <v>61.2</v>
       </c>
       <c r="R18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.6</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="V18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4564,35 +4567,35 @@
       </c>
       <c r="W18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>61.899999999999991</v>
+        <v>60.9</v>
       </c>
       <c r="Z18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.599999999999994</v>
+        <v>61.5</v>
       </c>
       <c r="AD18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4600,19 +4603,19 @@
       </c>
       <c r="AF18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.999999999999993</v>
+        <v>61.3</v>
       </c>
       <c r="AH18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4624,14 +4627,14 @@
       </c>
       <c r="AL18" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.1875</v>
+        <v>61.712499999999999</v>
       </c>
       <c r="AM18" s="21">
         <v>81</v>
       </c>
       <c r="AN18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>87.4375</v>
+        <v>86.962500000000006</v>
       </c>
       <c r="AO18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5070,38 +5073,38 @@
       </c>
       <c r="F22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.5</v>
+        <v>61.3</v>
       </c>
       <c r="J22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K22" s="21">
         <v>96</v>
       </c>
       <c r="L22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.3</v>
+        <v>63.499999999999993</v>
       </c>
       <c r="N22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5109,43 +5112,43 @@
       </c>
       <c r="P22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.3</v>
+        <v>60.7</v>
       </c>
       <c r="R22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="T22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="V22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.1</v>
+        <v>60.399999999999991</v>
       </c>
       <c r="Z22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5157,23 +5160,23 @@
       </c>
       <c r="AB22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>59.7</v>
       </c>
       <c r="AD22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AG22" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -5181,30 +5184,30 @@
       </c>
       <c r="AH22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AK22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.699999999999996</v>
+        <v>60.3</v>
       </c>
       <c r="AL22" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.712499999999999</v>
+        <v>61.099999999999994</v>
       </c>
       <c r="AM22" s="21">
         <v>79</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.462500000000006</v>
+        <v>85.85</v>
       </c>
       <c r="AO22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5378,22 +5381,22 @@
       </c>
       <c r="J24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K24" s="21">
         <v>97</v>
       </c>
       <c r="L24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>65.099999999999994</v>
+        <v>64.899999999999991</v>
       </c>
       <c r="N24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5401,27 +5404,27 @@
       </c>
       <c r="P24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.9</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="R24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63.199999999999996</v>
+        <v>63.6</v>
       </c>
       <c r="V24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5429,7 +5432,7 @@
       </c>
       <c r="W24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5437,27 +5440,27 @@
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.800000000000004</v>
+        <v>63.1</v>
       </c>
       <c r="Z24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.3</v>
+        <v>62.7</v>
       </c>
       <c r="AD24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AE24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5465,15 +5468,15 @@
       </c>
       <c r="AF24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>63.699999999999996</v>
+        <v>62.3</v>
       </c>
       <c r="AH24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5481,22 +5484,22 @@
       </c>
       <c r="AJ24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AK24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.800000000000004</v>
+        <v>62.7</v>
       </c>
       <c r="AL24" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>63.15</v>
+        <v>63.1875</v>
       </c>
       <c r="AM24" s="21">
         <v>76</v>
       </c>
       <c r="AN24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>87.15</v>
+        <v>87.1875</v>
       </c>
       <c r="AO24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5810,7 +5813,7 @@
       </c>
       <c r="J27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27" s="21">
         <v>94</v>
@@ -5821,11 +5824,11 @@
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.8</v>
+        <v>64.5</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" ref="N27:P28" ca="1" si="13">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" ca="1" si="13"/>
@@ -5837,71 +5840,71 @@
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.1</v>
+        <v>61.5</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" ref="R27:T28" ca="1" si="14">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>64.399999999999991</v>
+        <v>61.9</v>
       </c>
       <c r="V27" s="44">
         <f t="shared" ref="V27:X28" ca="1" si="15">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="W27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>61.3</v>
+        <v>63.3</v>
       </c>
       <c r="Z27" s="44">
         <f t="shared" ref="Z27:AB28" ca="1" si="16">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.899999999999991</v>
+        <v>62.3</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27:AF28" ca="1" si="17">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>63.499999999999993</v>
+        <v>62.5</v>
       </c>
       <c r="AH27" s="44">
         <f t="shared" ref="AH27:AJ28" ca="1" si="18">RANDBETWEEN(87,92)</f>
@@ -5909,26 +5912,26 @@
       </c>
       <c r="AI27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AJ27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.7</v>
+        <v>62.3</v>
       </c>
       <c r="AL27" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>63.012499999999996</v>
+        <v>62.712500000000006</v>
       </c>
       <c r="AM27" s="21">
         <v>75</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.762499999999989</v>
+        <v>86.462500000000006</v>
       </c>
       <c r="AO27" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5967,26 +5970,26 @@
       </c>
       <c r="J28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K28" s="21">
         <v>95</v>
       </c>
       <c r="L28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.599999999999994</v>
+        <v>63.6</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" ca="1" si="13"/>
@@ -5994,15 +5997,15 @@
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>63.4</v>
+        <v>64</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ca="1" si="14"/>
@@ -6010,59 +6013,59 @@
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.4</v>
+        <v>63.300000000000004</v>
       </c>
       <c r="V28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.6</v>
+        <v>61.8</v>
       </c>
       <c r="Z28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AB28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.5</v>
+        <v>63.9</v>
       </c>
       <c r="AD28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.1</v>
+        <v>61.4</v>
       </c>
       <c r="AH28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI28" s="44">
         <f t="shared" ca="1" si="18"/>
@@ -6070,22 +6073,22 @@
       </c>
       <c r="AJ28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AK28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>63.1</v>
+        <v>63.099999999999994</v>
       </c>
       <c r="AL28" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.937500000000007</v>
+        <v>62.987499999999997</v>
       </c>
       <c r="AM28" s="13">
         <v>84.5</v>
       </c>
       <c r="AN28" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>89.0625</v>
+        <v>89.112499999999997</v>
       </c>
       <c r="AO28" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -23890,6 +23893,9 @@
     <row r="157" spans="1:43" ht="15.75" customHeight="1">
       <c r="A157" s="5">
         <v>100</v>
+      </c>
+      <c r="B157" s="74" t="s">
+        <v>404</v>
       </c>
       <c r="C157" s="18">
         <v>3332230119</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8913DC-01F7-463D-8091-BAE4A4B96B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F06D6-8A56-4914-A938-C7DDD29A41C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F06D6-8A56-4914-A938-C7DDD29A41C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38168FC-29D8-45FC-ABF4-C5B65A8F110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="406">
   <si>
     <t>No</t>
   </si>
@@ -1253,6 +1253,9 @@
   <si>
     <t>15.2.2004</t>
   </si>
+  <si>
+    <t>123</t>
+  </si>
 </sst>
 </file>
 
@@ -1563,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1771,6 +1774,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2108,7 +2112,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B157" sqref="B157"/>
+      <selection pane="bottomRight" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3781,11 +3785,11 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3793,30 +3797,30 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.800000000000004</v>
+        <v>62</v>
       </c>
       <c r="J13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="21">
         <v>96</v>
       </c>
       <c r="L13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.3</v>
+        <v>63.9</v>
       </c>
       <c r="N13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3824,59 +3828,59 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.2</v>
+        <v>61.5</v>
       </c>
       <c r="R13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60.4</v>
+        <v>61.1</v>
       </c>
       <c r="V13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.399999999999991</v>
+        <v>60.099999999999994</v>
       </c>
       <c r="Z13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.699999999999996</v>
+        <v>61.3</v>
       </c>
       <c r="AD13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AE13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3888,34 +3892,34 @@
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.2</v>
+        <v>61.3</v>
       </c>
       <c r="AH13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AI13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AJ13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.5</v>
+        <v>60.2</v>
       </c>
       <c r="AL13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.6875</v>
+        <v>61.425000000000004</v>
       </c>
       <c r="AM13" s="21">
         <v>80</v>
       </c>
       <c r="AN13" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.6875</v>
+        <v>86.425000000000011</v>
       </c>
       <c r="AO13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4500,38 +4504,38 @@
       </c>
       <c r="F18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.8</v>
+        <v>60.599999999999994</v>
       </c>
       <c r="J18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K18" s="21">
         <v>96</v>
       </c>
       <c r="L18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.400000000000006</v>
+        <v>63.3</v>
       </c>
       <c r="N18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4539,43 +4543,43 @@
       </c>
       <c r="P18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.2</v>
+        <v>62.2</v>
       </c>
       <c r="R18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.599999999999994</v>
+        <v>61.2</v>
       </c>
       <c r="V18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.9</v>
+        <v>60.4</v>
       </c>
       <c r="Z18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4583,58 +4587,58 @@
       </c>
       <c r="AA18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.5</v>
+        <v>61.4</v>
       </c>
       <c r="AD18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.3</v>
+        <v>62.7</v>
       </c>
       <c r="AH18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AJ18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>61.099999999999994</v>
       </c>
       <c r="AL18" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.712499999999999</v>
+        <v>61.612499999999997</v>
       </c>
       <c r="AM18" s="21">
         <v>81</v>
       </c>
       <c r="AN18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.962500000000006</v>
+        <v>86.862499999999997</v>
       </c>
       <c r="AO18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5073,102 +5077,102 @@
       </c>
       <c r="F22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.3</v>
+        <v>60.900000000000006</v>
       </c>
       <c r="J22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K22" s="21">
         <v>96</v>
       </c>
       <c r="L22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.499999999999993</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="N22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.7</v>
+        <v>59.9</v>
       </c>
       <c r="R22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="S22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.5</v>
+        <v>62.6</v>
       </c>
       <c r="V22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="W22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.399999999999991</v>
+        <v>61</v>
       </c>
       <c r="Z22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AA22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>59.7</v>
+        <v>61.5</v>
       </c>
       <c r="AD22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5176,38 +5180,38 @@
       </c>
       <c r="AF22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AG22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.4</v>
+        <v>61.3</v>
       </c>
       <c r="AH22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>60.3</v>
+        <v>61.4</v>
       </c>
       <c r="AL22" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.099999999999994</v>
+        <v>61.587499999999999</v>
       </c>
       <c r="AM22" s="21">
         <v>79</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>85.85</v>
+        <v>86.337500000000006</v>
       </c>
       <c r="AO22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5388,11 +5392,11 @@
       </c>
       <c r="L24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.899999999999991</v>
+        <v>65.3</v>
       </c>
       <c r="N24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5400,39 +5404,39 @@
       </c>
       <c r="O24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.800000000000004</v>
+        <v>62.7</v>
       </c>
       <c r="R24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63.6</v>
+        <v>62.9</v>
       </c>
       <c r="V24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5440,7 +5444,7 @@
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>63.1</v>
+        <v>61.9</v>
       </c>
       <c r="Z24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5452,19 +5456,19 @@
       </c>
       <c r="AB24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.7</v>
+        <v>63</v>
       </c>
       <c r="AD24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5472,34 +5476,34 @@
       </c>
       <c r="AG24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.3</v>
+        <v>63.2</v>
       </c>
       <c r="AH24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AJ24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AK24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.7</v>
+        <v>61.5</v>
       </c>
       <c r="AL24" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>63.1875</v>
+        <v>62.987499999999997</v>
       </c>
       <c r="AM24" s="21">
         <v>76</v>
       </c>
       <c r="AN24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>87.1875</v>
+        <v>86.987499999999997</v>
       </c>
       <c r="AO24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5813,22 +5817,22 @@
       </c>
       <c r="J27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="21">
         <v>94</v>
       </c>
       <c r="L27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.5</v>
+        <v>63.900000000000006</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" ref="N27:P28" ca="1" si="13">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" ca="1" si="13"/>
@@ -5840,23 +5844,23 @@
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.5</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" ref="R27:T28" ca="1" si="14">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.9</v>
+        <v>63.3</v>
       </c>
       <c r="V27" s="44">
         <f t="shared" ref="V27:X28" ca="1" si="15">RANDBETWEEN(87,92)</f>
@@ -5864,59 +5868,59 @@
       </c>
       <c r="W27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="X27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>63.3</v>
+        <v>63.9</v>
       </c>
       <c r="Z27" s="44">
         <f t="shared" ref="Z27:AB28" ca="1" si="16">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.3</v>
+        <v>60.9</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27:AF28" ca="1" si="17">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AG27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.5</v>
+        <v>62.8</v>
       </c>
       <c r="AH27" s="44">
         <f t="shared" ref="AH27:AJ28" ca="1" si="18">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -5924,14 +5928,14 @@
       </c>
       <c r="AL27" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.712500000000006</v>
+        <v>62.862499999999997</v>
       </c>
       <c r="AM27" s="21">
         <v>75</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.462500000000006</v>
+        <v>86.612499999999997</v>
       </c>
       <c r="AO27" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5970,34 +5974,34 @@
       </c>
       <c r="J28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K28" s="21">
         <v>95</v>
       </c>
       <c r="L28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.6</v>
+        <v>64.3</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>61.8</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" ca="1" si="14"/>
@@ -6005,7 +6009,7 @@
       </c>
       <c r="S28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ca="1" si="14"/>
@@ -6013,27 +6017,27 @@
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63.300000000000004</v>
+        <v>62.7</v>
       </c>
       <c r="V28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>61.8</v>
+        <v>63.399999999999991</v>
       </c>
       <c r="Z28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AA28" s="44">
         <f t="shared" ca="1" si="16"/>
@@ -6041,11 +6045,11 @@
       </c>
       <c r="AB28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>63.9</v>
+        <v>62.8</v>
       </c>
       <c r="AD28" s="44">
         <f t="shared" ca="1" si="17"/>
@@ -6053,11 +6057,11 @@
       </c>
       <c r="AE28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AG28" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -6065,30 +6069,30 @@
       </c>
       <c r="AH28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AJ28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AK28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>63.099999999999994</v>
+        <v>61.5</v>
       </c>
       <c r="AL28" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.987499999999997</v>
+        <v>62.587499999999991</v>
       </c>
       <c r="AM28" s="13">
         <v>84.5</v>
       </c>
       <c r="AN28" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>89.112499999999997</v>
+        <v>88.712499999999991</v>
       </c>
       <c r="AO28" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -24169,6 +24173,9 @@
     <row r="159" spans="1:43" ht="15.75" customHeight="1">
       <c r="A159" s="5">
         <v>106</v>
+      </c>
+      <c r="B159" s="77" t="s">
+        <v>405</v>
       </c>
       <c r="C159" s="18">
         <v>3332230121</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38168FC-29D8-45FC-ABF4-C5B65A8F110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6E6718-D795-4B13-A695-00D45703BC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="405">
   <si>
     <t>No</t>
   </si>
@@ -1253,9 +1253,6 @@
   <si>
     <t>15.2.2004</t>
   </si>
-  <si>
-    <t>123</t>
-  </si>
 </sst>
 </file>
 
@@ -2112,7 +2109,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B160" sqref="B160"/>
+      <selection pane="bottomRight" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3785,58 +3782,58 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>61.5</v>
       </c>
       <c r="J13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="21">
         <v>96</v>
       </c>
       <c r="L13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.9</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="N13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.5</v>
+        <v>61.8</v>
       </c>
       <c r="R13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3848,19 +3845,19 @@
       </c>
       <c r="V13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.099999999999994</v>
+        <v>62.9</v>
       </c>
       <c r="Z13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3868,58 +3865,58 @@
       </c>
       <c r="AA13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.3</v>
+        <v>61.5</v>
       </c>
       <c r="AD13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.3</v>
+        <v>61.8</v>
       </c>
       <c r="AH13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AI13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AJ13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>60.2</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="AL13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.425000000000004</v>
+        <v>62.137500000000003</v>
       </c>
       <c r="AM13" s="21">
         <v>80</v>
       </c>
       <c r="AN13" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.425000000000011</v>
+        <v>87.137500000000003</v>
       </c>
       <c r="AO13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4504,7 +4501,7 @@
       </c>
       <c r="F18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4512,11 +4509,11 @@
       </c>
       <c r="H18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.599999999999994</v>
+        <v>60.699999999999996</v>
       </c>
       <c r="J18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4527,43 +4524,43 @@
       </c>
       <c r="L18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.3</v>
+        <v>63.199999999999996</v>
       </c>
       <c r="N18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.2</v>
+        <v>60.8</v>
       </c>
       <c r="R18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.2</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="V18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4575,19 +4572,19 @@
       </c>
       <c r="X18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.4</v>
+        <v>60.9</v>
       </c>
       <c r="Z18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4595,15 +4592,15 @@
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.4</v>
+        <v>61.1</v>
       </c>
       <c r="AD18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AF18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4611,11 +4608,11 @@
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.7</v>
+        <v>61.2</v>
       </c>
       <c r="AH18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4623,22 +4620,22 @@
       </c>
       <c r="AJ18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.099999999999994</v>
+        <v>61.5</v>
       </c>
       <c r="AL18" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.612499999999997</v>
+        <v>61.4375</v>
       </c>
       <c r="AM18" s="21">
         <v>81</v>
       </c>
       <c r="AN18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.862499999999997</v>
+        <v>86.6875</v>
       </c>
       <c r="AO18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5077,106 +5074,106 @@
       </c>
       <c r="F22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.900000000000006</v>
+        <v>61.8</v>
       </c>
       <c r="J22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K22" s="21">
         <v>96</v>
       </c>
       <c r="L22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.099999999999994</v>
+        <v>63.3</v>
       </c>
       <c r="N22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>59.9</v>
+        <v>62.4</v>
       </c>
       <c r="R22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="S22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.6</v>
+        <v>61.3</v>
       </c>
       <c r="V22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>60.7</v>
       </c>
       <c r="Z22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AA22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.5</v>
+        <v>60.099999999999994</v>
       </c>
       <c r="AD22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5188,30 +5185,30 @@
       </c>
       <c r="AH22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AK22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.4</v>
+        <v>61</v>
       </c>
       <c r="AL22" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.587499999999999</v>
+        <v>61.487500000000004</v>
       </c>
       <c r="AM22" s="21">
         <v>79</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.337500000000006</v>
+        <v>86.237500000000011</v>
       </c>
       <c r="AO22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5385,125 +5382,125 @@
       </c>
       <c r="J24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24" s="21">
         <v>97</v>
       </c>
       <c r="L24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>65.3</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="N24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.7</v>
+        <v>63.4</v>
       </c>
       <c r="R24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.9</v>
+        <v>62.4</v>
       </c>
       <c r="V24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>61.9</v>
+        <v>63.3</v>
       </c>
       <c r="Z24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>61.099999999999994</v>
       </c>
       <c r="AD24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AE24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AF24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>63.2</v>
+        <v>62.5</v>
       </c>
       <c r="AH24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AI24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AJ24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.5</v>
+        <v>64.3</v>
       </c>
       <c r="AL24" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.987499999999997</v>
+        <v>63.225000000000001</v>
       </c>
       <c r="AM24" s="21">
         <v>76</v>
       </c>
       <c r="AN24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.987499999999997</v>
+        <v>87.224999999999994</v>
       </c>
       <c r="AO24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5824,27 +5821,27 @@
       </c>
       <c r="L27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.900000000000006</v>
+        <v>64.2</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" ref="N27:P28" ca="1" si="13">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.400000000000006</v>
+        <v>63.099999999999994</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" ref="R27:T28" ca="1" si="14">RANDBETWEEN(87,92)</f>
@@ -5856,43 +5853,43 @@
       </c>
       <c r="T27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63.3</v>
+        <v>63.399999999999991</v>
       </c>
       <c r="V27" s="44">
         <f t="shared" ref="V27:X28" ca="1" si="15">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="X27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>63.9</v>
+        <v>61.899999999999991</v>
       </c>
       <c r="Z27" s="44">
         <f t="shared" ref="Z27:AB28" ca="1" si="16">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AB27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.9</v>
+        <v>63.5</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27:AF28" ca="1" si="17">RANDBETWEEN(87,92)</f>
@@ -5900,42 +5897,42 @@
       </c>
       <c r="AE27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.8</v>
+        <v>62.1</v>
       </c>
       <c r="AH27" s="44">
         <f t="shared" ref="AH27:AJ28" ca="1" si="18">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AI27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AJ27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.3</v>
+        <v>62.8</v>
       </c>
       <c r="AL27" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.862499999999997</v>
+        <v>63.05</v>
       </c>
       <c r="AM27" s="21">
         <v>75</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.612499999999997</v>
+        <v>86.8</v>
       </c>
       <c r="AO27" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5974,14 +5971,14 @@
       </c>
       <c r="J28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="21">
         <v>95</v>
       </c>
       <c r="L28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5989,19 +5986,19 @@
       </c>
       <c r="N28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.8</v>
+        <v>63.399999999999991</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" ca="1" si="14"/>
@@ -6009,90 +6006,90 @@
       </c>
       <c r="S28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.7</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="V28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>63.399999999999991</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="Z28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AA28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.8</v>
+        <v>62.4</v>
       </c>
       <c r="AD28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AE28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AG28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.4</v>
+        <v>63</v>
       </c>
       <c r="AH28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AK28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.5</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="AL28" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.587499999999991</v>
+        <v>63.075000000000003</v>
       </c>
       <c r="AM28" s="13">
         <v>84.5</v>
       </c>
       <c r="AN28" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>88.712499999999991</v>
+        <v>89.2</v>
       </c>
       <c r="AO28" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -24174,9 +24171,7 @@
       <c r="A159" s="5">
         <v>106</v>
       </c>
-      <c r="B159" s="77" t="s">
-        <v>405</v>
-      </c>
+      <c r="B159" s="77"/>
       <c r="C159" s="18">
         <v>3332230121</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmat\Documents\GitHub\NilaiLabDaselTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6E6718-D795-4B13-A695-00D45703BC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F0CF2F-FA2F-43EF-A4CA-EB1DFBB35FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="406">
   <si>
     <t>No</t>
   </si>
@@ -1253,6 +1253,9 @@
   <si>
     <t>15.2.2004</t>
   </si>
+  <si>
+    <t>13.06.2004</t>
+  </si>
 </sst>
 </file>
 
@@ -2106,10 +2109,10 @@
   <dimension ref="A1:AQ785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B159" sqref="B159"/>
+      <selection pane="bottomRight" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3782,38 +3785,38 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.5</v>
+        <v>60.6</v>
       </c>
       <c r="J13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="21">
         <v>96</v>
       </c>
       <c r="L13" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.099999999999994</v>
+        <v>64.3</v>
       </c>
       <c r="N13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3821,11 +3824,11 @@
       </c>
       <c r="P13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61.8</v>
+        <v>61.5</v>
       </c>
       <c r="R13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3833,7 +3836,7 @@
       </c>
       <c r="S13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3841,31 +3844,31 @@
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.1</v>
+        <v>60.499999999999993</v>
       </c>
       <c r="V13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>62.9</v>
+        <v>61.199999999999996</v>
       </c>
       <c r="Z13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3873,11 +3876,11 @@
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.5</v>
+        <v>60.3</v>
       </c>
       <c r="AD13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AE13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -3889,34 +3892,34 @@
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.8</v>
+        <v>60.900000000000006</v>
       </c>
       <c r="AH13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ13" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.400000000000006</v>
+        <v>60.8</v>
       </c>
       <c r="AL13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>62.137500000000003</v>
+        <v>61.26250000000001</v>
       </c>
       <c r="AM13" s="21">
         <v>80</v>
       </c>
       <c r="AN13" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>87.137500000000003</v>
+        <v>86.262500000000017</v>
       </c>
       <c r="AO13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4501,50 +4504,50 @@
       </c>
       <c r="F18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60.699999999999996</v>
+        <v>62.5</v>
       </c>
       <c r="J18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K18" s="21">
         <v>96</v>
       </c>
       <c r="L18" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63.199999999999996</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="N18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.8</v>
+        <v>62.1</v>
       </c>
       <c r="R18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4552,39 +4555,39 @@
       </c>
       <c r="S18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.099999999999994</v>
+        <v>60.8</v>
       </c>
       <c r="V18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="W18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.9</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="Z18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4592,11 +4595,11 @@
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.1</v>
+        <v>61.699999999999996</v>
       </c>
       <c r="AD18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4604,19 +4607,19 @@
       </c>
       <c r="AF18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.2</v>
+        <v>59.8</v>
       </c>
       <c r="AH18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ18" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -4624,18 +4627,18 @@
       </c>
       <c r="AK18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61.5</v>
+        <v>62.7</v>
       </c>
       <c r="AL18" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.4375</v>
+        <v>61.975000000000001</v>
       </c>
       <c r="AM18" s="21">
         <v>81</v>
       </c>
       <c r="AN18" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.6875</v>
+        <v>87.224999999999994</v>
       </c>
       <c r="AO18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5074,30 +5077,30 @@
       </c>
       <c r="F22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.8</v>
+        <v>60.7</v>
       </c>
       <c r="J22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" s="21">
         <v>96</v>
       </c>
       <c r="L22" s="21">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5105,7 +5108,7 @@
       </c>
       <c r="N22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5113,19 +5116,19 @@
       </c>
       <c r="P22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.4</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="R22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="S22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5133,15 +5136,15 @@
       </c>
       <c r="U22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61.3</v>
+        <v>62.2</v>
       </c>
       <c r="V22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5149,27 +5152,27 @@
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.7</v>
+        <v>60.099999999999994</v>
       </c>
       <c r="Z22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AA22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.099999999999994</v>
+        <v>61.5</v>
       </c>
       <c r="AD22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
@@ -5177,38 +5180,38 @@
       </c>
       <c r="AF22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AG22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>61.3</v>
+        <v>61.4</v>
       </c>
       <c r="AH22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AI22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AJ22" s="44">
         <f ca="1">RANDBETWEEN(85,90)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>61.4</v>
       </c>
       <c r="AL22" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>61.487500000000004</v>
+        <v>61.524999999999991</v>
       </c>
       <c r="AM22" s="21">
         <v>79</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.237500000000011</v>
+        <v>86.274999999999991</v>
       </c>
       <c r="AO22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5382,26 +5385,26 @@
       </c>
       <c r="J24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K24" s="21">
         <v>97</v>
       </c>
       <c r="L24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>65.400000000000006</v>
+        <v>64.7</v>
       </c>
       <c r="N24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5409,11 +5412,11 @@
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>63.4</v>
+        <v>62.8</v>
       </c>
       <c r="R24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5421,43 +5424,43 @@
       </c>
       <c r="T24" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.4</v>
+        <v>61.899999999999991</v>
       </c>
       <c r="V24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>63.3</v>
+        <v>63.8</v>
       </c>
       <c r="Z24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>61.099999999999994</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="AD24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5465,15 +5468,15 @@
       </c>
       <c r="AE24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AF24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.5</v>
+        <v>64.3</v>
       </c>
       <c r="AH24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
@@ -5481,26 +5484,26 @@
       </c>
       <c r="AI24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AJ24" s="44">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>64.3</v>
+        <v>63.3</v>
       </c>
       <c r="AL24" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>63.225000000000001</v>
+        <v>63.287499999999994</v>
       </c>
       <c r="AM24" s="21">
         <v>76</v>
       </c>
       <c r="AN24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>87.224999999999994</v>
+        <v>87.287499999999994</v>
       </c>
       <c r="AO24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5814,74 +5817,74 @@
       </c>
       <c r="J27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K27" s="21">
         <v>94</v>
       </c>
       <c r="L27" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.2</v>
+        <v>63.699999999999996</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" ref="N27:P28" ca="1" si="13">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P27" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>63.099999999999994</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" ref="R27:T28" ca="1" si="14">RANDBETWEEN(87,92)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T27" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63.399999999999991</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="V27" s="44">
         <f t="shared" ref="V27:X28" ca="1" si="15">RANDBETWEEN(87,92)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X27" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>61.899999999999991</v>
+        <v>62.7</v>
       </c>
       <c r="Z27" s="44">
         <f t="shared" ref="Z27:AB28" ca="1" si="16">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA27" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB27" s="44">
         <f t="shared" ca="1" si="16"/>
@@ -5889,7 +5892,7 @@
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>63.5</v>
+        <v>62.6</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27:AF28" ca="1" si="17">RANDBETWEEN(87,92)</f>
@@ -5897,15 +5900,15 @@
       </c>
       <c r="AE27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF27" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>62.1</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="AH27" s="44">
         <f t="shared" ref="AH27:AJ28" ca="1" si="18">RANDBETWEEN(87,92)</f>
@@ -5913,26 +5916,26 @@
       </c>
       <c r="AI27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ27" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.8</v>
+        <v>63.6</v>
       </c>
       <c r="AL27" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>63.05</v>
+        <v>62.962500000000006</v>
       </c>
       <c r="AM27" s="21">
         <v>75</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>86.8</v>
+        <v>86.712500000000006</v>
       </c>
       <c r="AO27" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5971,34 +5974,34 @@
       </c>
       <c r="J28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" s="21">
         <v>95</v>
       </c>
       <c r="L28" s="21">
         <f ca="1">RANDBETWEEN(87,92)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64.3</v>
+        <v>63.9</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>63.399999999999991</v>
+        <v>62.1</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" ca="1" si="14"/>
@@ -6006,19 +6009,19 @@
       </c>
       <c r="S28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T28" s="21">
         <f t="shared" ca="1" si="14"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.900000000000006</v>
+        <v>63.4</v>
       </c>
       <c r="V28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="W28" s="44">
         <f t="shared" ca="1" si="15"/>
@@ -6026,11 +6029,11 @@
       </c>
       <c r="X28" s="44">
         <f t="shared" ca="1" si="15"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>62.900000000000006</v>
+        <v>63.599999999999994</v>
       </c>
       <c r="Z28" s="44">
         <f t="shared" ca="1" si="16"/>
@@ -6038,58 +6041,58 @@
       </c>
       <c r="AA28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB28" s="44">
         <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>62.4</v>
+        <v>63.5</v>
       </c>
       <c r="AD28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AE28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AF28" s="44">
         <f t="shared" ca="1" si="17"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>62.9</v>
       </c>
       <c r="AH28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AJ28" s="44">
         <f t="shared" ca="1" si="18"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>62.900000000000006</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="AL28" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>63.075000000000003</v>
+        <v>63.037499999999994</v>
       </c>
       <c r="AM28" s="13">
         <v>84.5</v>
       </c>
       <c r="AN28" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>89.2</v>
+        <v>89.162499999999994</v>
       </c>
       <c r="AO28" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -15979,7 +15982,9 @@
       <c r="A100" s="5">
         <v>20</v>
       </c>
-      <c r="B100" s="73"/>
+      <c r="B100" s="73" t="s">
+        <v>405</v>
+      </c>
       <c r="C100" s="16">
         <v>3332230061</v>
       </c>
@@ -47295,7 +47300,7 @@
       <c r="AK785" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:H39 K6:L6 K15:K17 L17 K19:K21 K24:L24 K35:L35 AA37:AA38 W37:W42 AI37:AI42 AE38 L39:L44 J39:K175 AA43:AA45 AE43:AE51 AI44 O46:O48 S46:S48 V48:X50 AD48:AD50 AF48:AF50 L48:L175 AA49:AA50 S54:T56 R54:R58 AI55:AI57 W55:W62 AA58:AA59 V58:V62 X58:X62 AA64 AI64 O64:O66 AA67 AH75:AH77 AJ75:AJ77 AI75:AI78 AA76:AA78 O79:O81 AA85:AA87 AE88:AE90 W91:W98 AI91:AI98 AE94:AE98 AH96 AA97:AA99 AI102 AA102:AA108 O103:O105 AI104 AE106:AE175 AI107:AI108 V108:X108 AD108 AF108 O109:O175 P110:P175 V110:X175 Z110:AB175 AD110:AD175 AF110:AF175 AH110:AJ175 F41:H175">
+  <conditionalFormatting sqref="F3:H39 K6:L6 K15:K17 L17 K19:K21 K24:L24 K35:L35 AA37:AA38 W37:W42 AI37:AI42 AE38 L39:L44 J39:K175 F41:H175 AA43:AA45 AE43:AE51 AI44 O46:O48 S46:S48 V48:X50 AD48:AD50 AF48:AF50 L48:L175 AA49:AA50 S54:T56 R54:R58 AI55:AI57 W55:W62 AA58:AA59 V58:V62 X58:X62 AA64 AI64 O64:O66 AA67 AH75:AH77 AJ75:AJ77 AI75:AI78 AA76:AA78 O79:O81 AA85:AA87 AE88:AE90 W91:W98 AI91:AI98 AE94:AE98 AH96 AA97:AA99 AI102 AA102:AA108 O103:O105 AI104 AE106:AE175 AI107:AI108 V108:X108 AD108 AF108 O109:O175 P110:P175 V110:X175 Z110:AB175 AD110:AD175 AF110:AF175 AH110:AJ175">
     <cfRule type="notContainsBlanks" dxfId="13" priority="8">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
